--- a/assets.xlsx
+++ b/assets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\JavaGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6247A2-0CFB-4B33-9E64-1FC9AD75E5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C513560-623C-442E-A45D-83DCFC5148D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="asset" sheetId="1" r:id="rId1"/>
@@ -961,7 +961,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -1053,6 +1053,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -1138,10 +1141,10 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Trang tính1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1156,7 +1159,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:Q71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="item" displayName="item" ref="A1:Q71">
   <autoFilter ref="A1:Q71" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1178,19 +1181,19 @@
   </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HP" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DEF" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ATK_UP" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="HP_UP" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DEF_UP" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SPEED_UP" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DMG_UP" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DMG_DOWN" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="HEAL" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="MANA" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Effect">
-      <calculatedColumnFormula>_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,B2:L2),"]")</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HP" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DEF" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ATK_UP" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="HP_UP" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DEF_UP" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SPEED_UP" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DMG_UP" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DMG_DOWN" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="HEAL" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="MANA" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Effect" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.TEXTJOIN(",",TRUE,B2:L2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Slot"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Ability"/>
@@ -1435,31 +1438,31 @@
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A2:Q71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" customWidth="1"/>
+    <col min="13" max="13" width="33.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.3984375" customWidth="1"/>
     <col min="15" max="15" width="91" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1550,8 +1553,8 @@
         <v>0</v>
       </c>
       <c r="M2" s="6" t="str">
-        <f>_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,B2:L2),"]")</f>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <f t="shared" ref="M2:M33" si="0">_xlfn.TEXTJOIN(",",TRUE,B2:L2)</f>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N2" s="5">
         <v>-2</v>
@@ -1566,7 +1569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1604,8 +1607,8 @@
         <v>0</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f t="shared" ref="M3:M66" si="0">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,B3:L3),"]")</f>
-        <v>[0,50,100,0,0,0,0,0,0.2,0,0]</v>
+        <f t="shared" si="0"/>
+        <v>0,50,100,0,0,0,0,0,0.2,0,0</v>
       </c>
       <c r="N3" s="5">
         <v>1</v>
@@ -1620,7 +1623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1659,7 +1662,7 @@
       </c>
       <c r="M4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
@@ -1674,7 +1677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1713,7 +1716,7 @@
       </c>
       <c r="M5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[50,50,50,0,0,0,0,0.2,0.2,0,0]</v>
+        <v>50,50,50,0,0,0,0,0.2,0.2,0,0</v>
       </c>
       <c r="N5" s="5">
         <v>1</v>
@@ -1728,7 +1731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1767,7 +1770,7 @@
       </c>
       <c r="M6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,10,10,0,0,0,0.2,0,0,0,0]</v>
+        <v>0,10,10,0,0,0,0.2,0,0,0,0</v>
       </c>
       <c r="N6" s="5">
         <v>1</v>
@@ -1782,7 +1785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1821,7 +1824,7 @@
       </c>
       <c r="M7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,30,30,0,0,0,0.3,0,0,0,0]</v>
+        <v>0,30,30,0,0,0,0.3,0,0,0,0</v>
       </c>
       <c r="N7" s="5">
         <v>1</v>
@@ -1836,7 +1839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="M8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[80,30,10,0,0,0,0.2,0,0,0,0]</v>
+        <v>80,30,10,0,0,0,0.2,0,0,0,0</v>
       </c>
       <c r="N8" s="5">
         <v>2</v>
@@ -1890,7 +1893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="M9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[200,100,100,0,0,0,0,0,0,0,0]</v>
+        <v>200,100,100,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N9" s="5">
         <v>2</v>
@@ -1944,7 +1947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -1983,7 +1986,7 @@
       </c>
       <c r="M10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[50,100,100,0,0,0,0,0,0,0,0]</v>
+        <v>50,100,100,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N10" s="5">
         <v>1</v>
@@ -1998,7 +2001,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
@@ -2037,7 +2040,7 @@
       </c>
       <c r="M11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N11" s="5">
         <v>1</v>
@@ -2052,7 +2055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -2091,7 +2094,7 @@
       </c>
       <c r="M12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N12" s="5">
         <v>-2</v>
@@ -2106,7 +2109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -2145,7 +2148,7 @@
       </c>
       <c r="M13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,50,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,50,0</v>
       </c>
       <c r="N13" s="5">
         <v>-1</v>
@@ -2160,7 +2163,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -2199,7 +2202,7 @@
       </c>
       <c r="M14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N14" s="5">
         <v>0</v>
@@ -2214,7 +2217,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -2253,7 +2256,7 @@
       </c>
       <c r="M15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N15" s="5">
         <v>0</v>
@@ -2268,7 +2271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -2307,7 +2310,7 @@
       </c>
       <c r="M16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[150,150,100,0,0,0,0,0.5,0.3,0,0]</v>
+        <v>150,150,100,0,0,0,0,0.5,0.3,0,0</v>
       </c>
       <c r="N16" s="5">
         <v>1</v>
@@ -2322,7 +2325,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -2361,7 +2364,7 @@
       </c>
       <c r="M17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N17" s="5">
         <v>0</v>
@@ -2376,7 +2379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
@@ -2415,7 +2418,7 @@
       </c>
       <c r="M18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N18" s="5">
         <v>0</v>
@@ -2430,7 +2433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
@@ -2469,7 +2472,7 @@
       </c>
       <c r="M19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,50,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,50,0</v>
       </c>
       <c r="N19" s="5">
         <v>-1</v>
@@ -2484,7 +2487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -2523,7 +2526,7 @@
       </c>
       <c r="M20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N20" s="5">
         <v>0</v>
@@ -2538,7 +2541,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="M21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0.2,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0.2,0,0,0,0</v>
       </c>
       <c r="N21" s="5">
         <v>0</v>
@@ -2592,7 +2595,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -2631,7 +2634,7 @@
       </c>
       <c r="M22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,50,50,0,0,0,0.3,0.4,0,0,0]</v>
+        <v>0,50,50,0,0,0,0.3,0.4,0,0,0</v>
       </c>
       <c r="N22" s="5">
         <v>1</v>
@@ -2646,7 +2649,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>90</v>
       </c>
@@ -2685,7 +2688,7 @@
       </c>
       <c r="M23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[200,100,50,0,0,0,0,0,0,0,0]</v>
+        <v>200,100,50,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N23" s="5">
         <v>1</v>
@@ -2700,7 +2703,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>94</v>
       </c>
@@ -2739,7 +2742,7 @@
       </c>
       <c r="M24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N24" s="5">
         <v>0</v>
@@ -2754,7 +2757,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
@@ -2793,7 +2796,7 @@
       </c>
       <c r="M25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N25" s="5">
         <v>0</v>
@@ -2808,7 +2811,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>98</v>
       </c>
@@ -2847,7 +2850,7 @@
       </c>
       <c r="M26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N26" s="5">
         <v>0</v>
@@ -2862,7 +2865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>100</v>
       </c>
@@ -2901,7 +2904,7 @@
       </c>
       <c r="M27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,50,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,50,0</v>
       </c>
       <c r="N27" s="5">
         <v>-1</v>
@@ -2916,7 +2919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
@@ -2955,7 +2958,7 @@
       </c>
       <c r="M28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[30,100,100,0,0,0,0,0,0.2,0,0]</v>
+        <v>30,100,100,0,0,0,0,0,0.2,0,0</v>
       </c>
       <c r="N28" s="5">
         <v>1</v>
@@ -2970,7 +2973,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -3009,7 +3012,7 @@
       </c>
       <c r="M29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[100,200,200,0,0,0,0,0,0.5,0,0]</v>
+        <v>100,200,200,0,0,0,0,0,0.5,0,0</v>
       </c>
       <c r="N29" s="5">
         <v>1</v>
@@ -3024,7 +3027,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>111</v>
       </c>
@@ -3063,7 +3066,7 @@
       </c>
       <c r="M30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,150,0]</v>
+        <v>0,0,0,0,0,0,0,0,0,150,0</v>
       </c>
       <c r="N30" s="5">
         <v>-1</v>
@@ -3078,7 +3081,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>115</v>
       </c>
@@ -3117,7 +3120,7 @@
       </c>
       <c r="M31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[100,50,0,0,0,0,0,0.3,0,0,0]</v>
+        <v>100,50,0,0,0,0,0,0.3,0,0,0</v>
       </c>
       <c r="N31" s="5">
         <v>2</v>
@@ -3132,7 +3135,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>119</v>
       </c>
@@ -3171,7 +3174,7 @@
       </c>
       <c r="M32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[100,50,0,0,0,0,0,0.3,0,0,0]</v>
+        <v>100,50,0,0,0,0,0,0.3,0,0,0</v>
       </c>
       <c r="N32" s="5">
         <v>2</v>
@@ -3186,7 +3189,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>121</v>
       </c>
@@ -3225,7 +3228,7 @@
       </c>
       <c r="M33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>[100,50,0,0,0,0,0,0.3,0,0,0]</v>
+        <v>100,50,0,0,0,0,0,0.3,0,0,0</v>
       </c>
       <c r="N33" s="5">
         <v>2</v>
@@ -3240,7 +3243,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
@@ -3278,8 +3281,8 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,300,0]</v>
+        <f t="shared" ref="M34:M65" si="1">_xlfn.TEXTJOIN(",",TRUE,B34:L34)</f>
+        <v>0,0,0,0,0,0,0,0,0,300,0</v>
       </c>
       <c r="N34" s="5">
         <v>-1</v>
@@ -3294,7 +3297,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>127</v>
       </c>
@@ -3332,8 +3335,8 @@
         <v>0</v>
       </c>
       <c r="M35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[20,50,50,0,0,0,0,0,0.3,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>20,50,50,0,0,0,0,0,0.3,0,0</v>
       </c>
       <c r="N35" s="5">
         <v>1</v>
@@ -3348,7 +3351,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -3386,8 +3389,8 @@
         <v>0</v>
       </c>
       <c r="M36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N36" s="5">
         <v>0</v>
@@ -3402,7 +3405,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>133</v>
       </c>
@@ -3440,8 +3443,8 @@
         <v>0</v>
       </c>
       <c r="M37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N37" s="5">
         <v>0</v>
@@ -3456,7 +3459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>135</v>
       </c>
@@ -3494,8 +3497,8 @@
         <v>0</v>
       </c>
       <c r="M38" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,80,50,0,0,0,0,0,0.2,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,80,50,0,0,0,0,0,0.2,0,0</v>
       </c>
       <c r="N38" s="5">
         <v>1</v>
@@ -3510,7 +3513,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>138</v>
       </c>
@@ -3548,8 +3551,8 @@
         <v>0</v>
       </c>
       <c r="M39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,80,50,0,0,0,0,0,0.2,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,80,50,0,0,0,0,0,0.2,0,0</v>
       </c>
       <c r="N39" s="5">
         <v>1</v>
@@ -3564,7 +3567,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>141</v>
       </c>
@@ -3602,8 +3605,8 @@
         <v>0</v>
       </c>
       <c r="M40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[30,80,30,0,0,0,0.3,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>30,80,30,0,0,0,0.3,0,0,0,0</v>
       </c>
       <c r="N40" s="5">
         <v>1</v>
@@ -3618,7 +3621,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3656,8 +3659,8 @@
         <v>0</v>
       </c>
       <c r="M41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,30,20,0,0,0,0.1,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,30,20,0,0,0,0.1,0,0,0,0</v>
       </c>
       <c r="N41" s="5">
         <v>1</v>
@@ -3672,7 +3675,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>149</v>
       </c>
@@ -3710,8 +3713,8 @@
         <v>0</v>
       </c>
       <c r="M42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,50,50,0,0,0,0.3,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,50,50,0,0,0,0.3,0,0,0,0</v>
       </c>
       <c r="N42" s="5">
         <v>1</v>
@@ -3726,7 +3729,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>152</v>
       </c>
@@ -3764,8 +3767,8 @@
         <v>0</v>
       </c>
       <c r="M43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N43" s="5">
         <v>0</v>
@@ -3780,7 +3783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
@@ -3818,8 +3821,8 @@
         <v>0</v>
       </c>
       <c r="M44" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,300,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,300,0</v>
       </c>
       <c r="N44" s="5">
         <v>-1</v>
@@ -3834,7 +3837,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>157</v>
       </c>
@@ -3872,8 +3875,8 @@
         <v>0</v>
       </c>
       <c r="M45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[50,100,150,0,0,0,0.3,0,0.3,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>50,100,150,0,0,0,0.3,0,0.3,0,0</v>
       </c>
       <c r="N45" s="5">
         <v>1</v>
@@ -3888,7 +3891,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>161</v>
       </c>
@@ -3926,8 +3929,8 @@
         <v>0</v>
       </c>
       <c r="M46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,50,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,50,0</v>
       </c>
       <c r="N46" s="5">
         <v>-1</v>
@@ -3942,7 +3945,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>164</v>
       </c>
@@ -3980,8 +3983,8 @@
         <v>0</v>
       </c>
       <c r="M47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,50,50,0,0,100,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,50,50,0,0,100,0,0,0,0,0</v>
       </c>
       <c r="N47" s="5">
         <v>1</v>
@@ -3996,7 +3999,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>168</v>
       </c>
@@ -4034,8 +4037,8 @@
         <v>0</v>
       </c>
       <c r="M48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,80,80,0,0,200,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,80,80,0,0,200,0,0,0,0,0</v>
       </c>
       <c r="N48" s="5">
         <v>1</v>
@@ -4050,7 +4053,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>172</v>
       </c>
@@ -4088,8 +4091,8 @@
         <v>0</v>
       </c>
       <c r="M49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,150,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,150,0,0</v>
       </c>
       <c r="N49" s="5">
         <v>-1</v>
@@ -4104,7 +4107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>175</v>
       </c>
@@ -4142,8 +4145,8 @@
         <v>0</v>
       </c>
       <c r="M50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N50" s="5">
         <v>-1</v>
@@ -4158,7 +4161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>179</v>
       </c>
@@ -4196,8 +4199,8 @@
         <v>0</v>
       </c>
       <c r="M51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N51" s="5">
         <v>-2</v>
@@ -4212,7 +4215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>183</v>
       </c>
@@ -4250,8 +4253,8 @@
         <v>0</v>
       </c>
       <c r="M52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,50,50,0,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,50,50,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N52" s="5">
         <v>1</v>
@@ -4266,7 +4269,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>186</v>
       </c>
@@ -4304,8 +4307,8 @@
         <v>0</v>
       </c>
       <c r="M53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[50,200,100,0,0,0,0,0,0.4,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>50,200,100,0,0,0,0,0,0.4,0,0</v>
       </c>
       <c r="N53" s="5">
         <v>1</v>
@@ -4320,7 +4323,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>190</v>
       </c>
@@ -4358,8 +4361,8 @@
         <v>0</v>
       </c>
       <c r="M54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,150,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,150,0</v>
       </c>
       <c r="N54" s="5">
         <v>-1</v>
@@ -4374,7 +4377,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>193</v>
       </c>
@@ -4412,8 +4415,8 @@
         <v>0</v>
       </c>
       <c r="M55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0.1,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0.1,0,0,0,0,0,0,0</v>
       </c>
       <c r="N55" s="5">
         <v>-1</v>
@@ -4428,7 +4431,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>197</v>
       </c>
@@ -4466,8 +4469,8 @@
         <v>0</v>
       </c>
       <c r="M56" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,100,100,0,0,0,0,0,0.45,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,100,100,0,0,0,0,0,0.45,0,0</v>
       </c>
       <c r="N56" s="5">
         <v>1</v>
@@ -4482,7 +4485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>201</v>
       </c>
@@ -4520,8 +4523,8 @@
         <v>0</v>
       </c>
       <c r="M57" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[80,150,200,0,0,0,0,0,0.45,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>80,150,200,0,0,0,0,0,0.45,0,0</v>
       </c>
       <c r="N57" s="5">
         <v>1</v>
@@ -4536,7 +4539,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>205</v>
       </c>
@@ -4574,8 +4577,8 @@
         <v>0</v>
       </c>
       <c r="M58" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[250,100,100,0.3,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>250,100,100,0.3,0,0,0,0,0,0,0</v>
       </c>
       <c r="N58" s="5">
         <v>2</v>
@@ -4590,7 +4593,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>209</v>
       </c>
@@ -4628,8 +4631,8 @@
         <v>0</v>
       </c>
       <c r="M59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[200,100,100,0,0,0,0,0.2,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>200,100,100,0,0,0,0,0.2,0,0,0</v>
       </c>
       <c r="N59" s="5">
         <v>2</v>
@@ -4644,7 +4647,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>212</v>
       </c>
@@ -4682,8 +4685,8 @@
         <v>0</v>
       </c>
       <c r="M60" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[250,80,80,0.3,0,0,0,0.45,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>250,80,80,0.3,0,0,0,0.45,0,0,0</v>
       </c>
       <c r="N60" s="5">
         <v>2</v>
@@ -4698,7 +4701,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>216</v>
       </c>
@@ -4736,8 +4739,8 @@
         <v>0</v>
       </c>
       <c r="M61" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N61" s="5">
         <v>0</v>
@@ -4752,7 +4755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>218</v>
       </c>
@@ -4790,8 +4793,8 @@
         <v>0</v>
       </c>
       <c r="M62" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[150,80,80,0,0,0,0,0.2,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>150,80,80,0,0,0,0,0.2,0,0,0</v>
       </c>
       <c r="N62" s="5">
         <v>2</v>
@@ -4806,7 +4809,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>220</v>
       </c>
@@ -4844,8 +4847,8 @@
         <v>0</v>
       </c>
       <c r="M63" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[250,100,100,0.3,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>250,100,100,0.3,0,0,0,0,0,0,0</v>
       </c>
       <c r="N63" s="5">
         <v>2</v>
@@ -4860,7 +4863,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>222</v>
       </c>
@@ -4898,8 +4901,8 @@
         <v>0</v>
       </c>
       <c r="M64" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[150,150,150,0,0,0,0,0.15,0,0,0]</v>
+        <f t="shared" si="1"/>
+        <v>150,150,150,0,0,0,0,0.15,0,0,0</v>
       </c>
       <c r="N64" s="5">
         <v>1</v>
@@ -4914,7 +4917,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>227</v>
       </c>
@@ -4952,8 +4955,8 @@
         <v>0</v>
       </c>
       <c r="M65" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[0,0,0,0,0,0,0,0,0,100,0]</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,100,0</v>
       </c>
       <c r="N65" s="5">
         <v>-1</v>
@@ -4968,7 +4971,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>231</v>
       </c>
@@ -5006,8 +5009,8 @@
         <v>0</v>
       </c>
       <c r="M66" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>[100,200,80,0.3,0,0.3,0,0,0,0,0]</v>
+        <f t="shared" ref="M66:M71" si="2">_xlfn.TEXTJOIN(",",TRUE,B66:L66)</f>
+        <v>100,200,80,0.3,0,0.3,0,0,0,0,0</v>
       </c>
       <c r="N66" s="5">
         <v>2</v>
@@ -5022,7 +5025,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>235</v>
       </c>
@@ -5060,8 +5063,8 @@
         <v>0</v>
       </c>
       <c r="M67" s="6" t="str">
-        <f t="shared" ref="M67:M71" si="1">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,B67:L67),"]")</f>
-        <v>[200,300,150,0.45,0,0.45,0,0,0,0,0]</v>
+        <f t="shared" si="2"/>
+        <v>200,300,150,0.45,0,0.45,0,0,0,0,0</v>
       </c>
       <c r="N67" s="5">
         <v>2</v>
@@ -5076,7 +5079,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>239</v>
       </c>
@@ -5114,8 +5117,8 @@
         <v>0</v>
       </c>
       <c r="M68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N68" s="5">
         <v>-2</v>
@@ -5130,7 +5133,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>242</v>
       </c>
@@ -5168,8 +5171,8 @@
         <v>0</v>
       </c>
       <c r="M69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>[0,0,0,0,0,0,0,0,0,100,0]</v>
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,100,0</v>
       </c>
       <c r="N69" s="5">
         <v>-1</v>
@@ -5184,7 +5187,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>245</v>
       </c>
@@ -5222,8 +5225,8 @@
         <v>0</v>
       </c>
       <c r="M70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>[0,0,0,0,0,0,0,0,0,0,0]</v>
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N70" s="5">
         <v>-1</v>
@@ -5238,7 +5241,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>249</v>
       </c>
@@ -5276,8 +5279,8 @@
         <v>0</v>
       </c>
       <c r="M71" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>[20,100,100,0,0,0,0,0,0.2,0,0]</v>
+        <f t="shared" si="2"/>
+        <v>20,100,100,0,0,0,0,0,0.2,0,0</v>
       </c>
       <c r="N71" s="9">
         <v>2</v>
@@ -5292,2791 +5295,2791 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O73" s="12"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O77" s="12"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O79" s="12"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O80" s="12"/>
     </row>
-    <row r="81" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O81" s="12"/>
     </row>
-    <row r="82" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O82" s="12"/>
     </row>
-    <row r="83" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O83" s="12"/>
     </row>
-    <row r="84" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O84" s="12"/>
     </row>
-    <row r="85" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O85" s="12"/>
     </row>
-    <row r="86" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O86" s="12"/>
     </row>
-    <row r="87" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O87" s="12"/>
     </row>
-    <row r="88" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O88" s="12"/>
     </row>
-    <row r="89" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O89" s="12"/>
     </row>
-    <row r="90" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O90" s="12"/>
     </row>
-    <row r="91" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O91" s="12"/>
     </row>
-    <row r="92" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O92" s="12"/>
     </row>
-    <row r="93" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O93" s="12"/>
     </row>
-    <row r="94" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O94" s="12"/>
     </row>
-    <row r="95" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O95" s="12"/>
     </row>
-    <row r="96" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O96" s="12"/>
     </row>
-    <row r="97" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O97" s="12"/>
     </row>
-    <row r="98" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O98" s="12"/>
     </row>
-    <row r="99" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O99" s="12"/>
     </row>
-    <row r="100" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O100" s="12"/>
     </row>
-    <row r="101" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O101" s="12"/>
     </row>
-    <row r="102" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O102" s="12"/>
     </row>
-    <row r="103" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O103" s="12"/>
     </row>
-    <row r="104" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O104" s="12"/>
     </row>
-    <row r="105" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O105" s="12"/>
     </row>
-    <row r="106" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O106" s="12"/>
     </row>
-    <row r="107" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O107" s="12"/>
     </row>
-    <row r="108" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O108" s="12"/>
     </row>
-    <row r="109" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O109" s="12"/>
     </row>
-    <row r="110" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O110" s="12"/>
     </row>
-    <row r="111" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O111" s="12"/>
     </row>
-    <row r="112" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O112" s="12"/>
     </row>
-    <row r="113" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O113" s="12"/>
     </row>
-    <row r="114" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O114" s="12"/>
     </row>
-    <row r="115" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O115" s="12"/>
     </row>
-    <row r="116" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O116" s="12"/>
     </row>
-    <row r="117" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O117" s="12"/>
     </row>
-    <row r="118" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O118" s="12"/>
     </row>
-    <row r="119" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O119" s="12"/>
     </row>
-    <row r="120" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O120" s="12"/>
     </row>
-    <row r="121" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O121" s="12"/>
     </row>
-    <row r="122" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O122" s="12"/>
     </row>
-    <row r="123" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O123" s="12"/>
     </row>
-    <row r="124" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O124" s="12"/>
     </row>
-    <row r="125" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O125" s="12"/>
     </row>
-    <row r="126" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O126" s="12"/>
     </row>
-    <row r="127" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O127" s="12"/>
     </row>
-    <row r="128" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O128" s="12"/>
     </row>
-    <row r="129" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O129" s="12"/>
     </row>
-    <row r="130" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O130" s="12"/>
     </row>
-    <row r="131" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O131" s="12"/>
     </row>
-    <row r="132" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O132" s="12"/>
     </row>
-    <row r="133" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O133" s="12"/>
     </row>
-    <row r="134" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O134" s="12"/>
     </row>
-    <row r="135" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O139" s="12"/>
     </row>
-    <row r="140" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O140" s="12"/>
     </row>
-    <row r="141" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O141" s="12"/>
     </row>
-    <row r="142" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O142" s="12"/>
     </row>
-    <row r="143" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O143" s="12"/>
     </row>
-    <row r="144" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O144" s="12"/>
     </row>
-    <row r="145" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O145" s="12"/>
     </row>
-    <row r="146" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O146" s="12"/>
     </row>
-    <row r="147" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O147" s="12"/>
     </row>
-    <row r="148" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O148" s="12"/>
     </row>
-    <row r="149" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O149" s="12"/>
     </row>
-    <row r="150" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O150" s="12"/>
     </row>
-    <row r="151" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O151" s="12"/>
     </row>
-    <row r="152" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O152" s="12"/>
     </row>
-    <row r="153" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O153" s="12"/>
     </row>
-    <row r="154" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O154" s="12"/>
     </row>
-    <row r="155" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O155" s="12"/>
     </row>
-    <row r="156" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O156" s="12"/>
     </row>
-    <row r="157" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O157" s="12"/>
     </row>
-    <row r="158" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O158" s="12"/>
     </row>
-    <row r="159" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O159" s="12"/>
     </row>
-    <row r="160" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O160" s="12"/>
     </row>
-    <row r="161" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O161" s="12"/>
     </row>
-    <row r="162" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O162" s="12"/>
     </row>
-    <row r="163" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O163" s="12"/>
     </row>
-    <row r="164" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O164" s="12"/>
     </row>
-    <row r="165" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O165" s="12"/>
     </row>
-    <row r="166" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O166" s="12"/>
     </row>
-    <row r="167" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O167" s="12"/>
     </row>
-    <row r="168" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O168" s="12"/>
     </row>
-    <row r="169" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O169" s="12"/>
     </row>
-    <row r="170" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O170" s="12"/>
     </row>
-    <row r="171" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O171" s="12"/>
     </row>
-    <row r="172" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O172" s="12"/>
     </row>
-    <row r="173" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O173" s="12"/>
     </row>
-    <row r="174" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O174" s="12"/>
     </row>
-    <row r="175" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O175" s="12"/>
     </row>
-    <row r="176" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O176" s="12"/>
     </row>
-    <row r="177" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O177" s="12"/>
     </row>
-    <row r="178" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O178" s="12"/>
     </row>
-    <row r="179" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O179" s="12"/>
     </row>
-    <row r="180" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O180" s="12"/>
     </row>
-    <row r="181" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O181" s="12"/>
     </row>
-    <row r="182" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O182" s="12"/>
     </row>
-    <row r="183" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O183" s="12"/>
     </row>
-    <row r="184" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O184" s="12"/>
     </row>
-    <row r="185" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O185" s="12"/>
     </row>
-    <row r="186" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O186" s="12"/>
     </row>
-    <row r="187" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O187" s="12"/>
     </row>
-    <row r="188" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O188" s="12"/>
     </row>
-    <row r="189" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O189" s="12"/>
     </row>
-    <row r="190" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O190" s="12"/>
     </row>
-    <row r="191" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O191" s="12"/>
     </row>
-    <row r="192" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O192" s="12"/>
     </row>
-    <row r="193" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O193" s="12"/>
     </row>
-    <row r="194" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O194" s="12"/>
     </row>
-    <row r="195" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O195" s="12"/>
     </row>
-    <row r="196" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O196" s="12"/>
     </row>
-    <row r="197" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O197" s="12"/>
     </row>
-    <row r="198" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O198" s="12"/>
     </row>
-    <row r="199" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O199" s="12"/>
     </row>
-    <row r="200" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O200" s="12"/>
     </row>
-    <row r="201" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O201" s="12"/>
     </row>
-    <row r="202" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O202" s="12"/>
     </row>
-    <row r="203" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O203" s="12"/>
     </row>
-    <row r="204" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O204" s="12"/>
     </row>
-    <row r="205" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O205" s="12"/>
     </row>
-    <row r="206" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O206" s="12"/>
     </row>
-    <row r="207" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O207" s="12"/>
     </row>
-    <row r="208" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O208" s="12"/>
     </row>
-    <row r="209" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O209" s="12"/>
     </row>
-    <row r="210" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O210" s="12"/>
     </row>
-    <row r="211" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O211" s="12"/>
     </row>
-    <row r="212" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O212" s="12"/>
     </row>
-    <row r="213" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O213" s="12"/>
     </row>
-    <row r="214" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O214" s="12"/>
     </row>
-    <row r="215" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O215" s="12"/>
     </row>
-    <row r="216" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O216" s="12"/>
     </row>
-    <row r="217" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O217" s="12"/>
     </row>
-    <row r="218" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O218" s="12"/>
     </row>
-    <row r="219" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O219" s="12"/>
     </row>
-    <row r="220" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O220" s="12"/>
     </row>
-    <row r="221" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O221" s="12"/>
     </row>
-    <row r="222" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O222" s="12"/>
     </row>
-    <row r="223" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O223" s="12"/>
     </row>
-    <row r="224" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O224" s="12"/>
     </row>
-    <row r="225" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O225" s="12"/>
     </row>
-    <row r="226" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O226" s="12"/>
     </row>
-    <row r="227" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O227" s="12"/>
     </row>
-    <row r="228" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O228" s="12"/>
     </row>
-    <row r="229" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O229" s="12"/>
     </row>
-    <row r="230" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O230" s="12"/>
     </row>
-    <row r="231" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O231" s="12"/>
     </row>
-    <row r="232" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O232" s="12"/>
     </row>
-    <row r="233" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O233" s="12"/>
     </row>
-    <row r="234" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O234" s="12"/>
     </row>
-    <row r="235" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O235" s="12"/>
     </row>
-    <row r="236" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O236" s="12"/>
     </row>
-    <row r="237" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O237" s="12"/>
     </row>
-    <row r="238" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O238" s="12"/>
     </row>
-    <row r="239" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O239" s="12"/>
     </row>
-    <row r="240" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O240" s="12"/>
     </row>
-    <row r="241" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O241" s="12"/>
     </row>
-    <row r="242" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O242" s="12"/>
     </row>
-    <row r="243" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O243" s="12"/>
     </row>
-    <row r="244" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O244" s="12"/>
     </row>
-    <row r="245" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O245" s="12"/>
     </row>
-    <row r="246" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O246" s="12"/>
     </row>
-    <row r="247" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O247" s="12"/>
     </row>
-    <row r="248" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O248" s="12"/>
     </row>
-    <row r="249" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O249" s="12"/>
     </row>
-    <row r="250" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O250" s="12"/>
     </row>
-    <row r="251" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O251" s="12"/>
     </row>
-    <row r="252" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O252" s="12"/>
     </row>
-    <row r="253" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O253" s="12"/>
     </row>
-    <row r="254" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O254" s="12"/>
     </row>
-    <row r="255" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O255" s="12"/>
     </row>
-    <row r="256" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O256" s="12"/>
     </row>
-    <row r="257" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O257" s="12"/>
     </row>
-    <row r="258" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O258" s="12"/>
     </row>
-    <row r="259" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O259" s="12"/>
     </row>
-    <row r="260" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O260" s="12"/>
     </row>
-    <row r="261" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O261" s="12"/>
     </row>
-    <row r="262" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O262" s="12"/>
     </row>
-    <row r="263" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O263" s="12"/>
     </row>
-    <row r="264" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O264" s="12"/>
     </row>
-    <row r="265" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O265" s="12"/>
     </row>
-    <row r="266" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O266" s="12"/>
     </row>
-    <row r="267" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O267" s="12"/>
     </row>
-    <row r="268" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O268" s="12"/>
     </row>
-    <row r="269" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O269" s="12"/>
     </row>
-    <row r="270" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O270" s="12"/>
     </row>
-    <row r="271" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O271" s="12"/>
     </row>
-    <row r="272" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O272" s="12"/>
     </row>
-    <row r="273" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O273" s="12"/>
     </row>
-    <row r="274" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O274" s="12"/>
     </row>
-    <row r="275" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O275" s="12"/>
     </row>
-    <row r="276" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O276" s="12"/>
     </row>
-    <row r="277" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O277" s="12"/>
     </row>
-    <row r="278" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O278" s="12"/>
     </row>
-    <row r="279" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O279" s="12"/>
     </row>
-    <row r="280" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O280" s="12"/>
     </row>
-    <row r="281" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O281" s="12"/>
     </row>
-    <row r="282" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O282" s="12"/>
     </row>
-    <row r="283" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O283" s="12"/>
     </row>
-    <row r="284" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O284" s="12"/>
     </row>
-    <row r="285" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O285" s="12"/>
     </row>
-    <row r="286" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O286" s="12"/>
     </row>
-    <row r="287" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O287" s="12"/>
     </row>
-    <row r="288" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O288" s="12"/>
     </row>
-    <row r="289" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O289" s="12"/>
     </row>
-    <row r="290" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O290" s="12"/>
     </row>
-    <row r="291" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O291" s="12"/>
     </row>
-    <row r="292" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O292" s="12"/>
     </row>
-    <row r="293" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O293" s="12"/>
     </row>
-    <row r="294" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O294" s="12"/>
     </row>
-    <row r="295" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O295" s="12"/>
     </row>
-    <row r="296" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O296" s="12"/>
     </row>
-    <row r="297" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O297" s="12"/>
     </row>
-    <row r="298" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O298" s="12"/>
     </row>
-    <row r="299" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O299" s="12"/>
     </row>
-    <row r="300" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O300" s="12"/>
     </row>
-    <row r="301" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O301" s="12"/>
     </row>
-    <row r="302" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O302" s="12"/>
     </row>
-    <row r="303" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O303" s="12"/>
     </row>
-    <row r="304" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O304" s="12"/>
     </row>
-    <row r="305" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O305" s="12"/>
     </row>
-    <row r="306" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O306" s="12"/>
     </row>
-    <row r="307" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O307" s="12"/>
     </row>
-    <row r="308" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O308" s="12"/>
     </row>
-    <row r="309" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O309" s="12"/>
     </row>
-    <row r="310" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O310" s="12"/>
     </row>
-    <row r="311" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O311" s="12"/>
     </row>
-    <row r="312" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O312" s="12"/>
     </row>
-    <row r="313" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O313" s="12"/>
     </row>
-    <row r="314" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O314" s="12"/>
     </row>
-    <row r="315" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O315" s="12"/>
     </row>
-    <row r="316" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O316" s="12"/>
     </row>
-    <row r="317" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O317" s="12"/>
     </row>
-    <row r="318" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O318" s="12"/>
     </row>
-    <row r="319" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O319" s="12"/>
     </row>
-    <row r="320" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O320" s="12"/>
     </row>
-    <row r="321" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O321" s="12"/>
     </row>
-    <row r="322" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O322" s="12"/>
     </row>
-    <row r="323" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O323" s="12"/>
     </row>
-    <row r="324" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O324" s="12"/>
     </row>
-    <row r="325" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O325" s="12"/>
     </row>
-    <row r="326" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O326" s="12"/>
     </row>
-    <row r="327" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O327" s="12"/>
     </row>
-    <row r="328" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O328" s="12"/>
     </row>
-    <row r="329" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O329" s="12"/>
     </row>
-    <row r="330" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O330" s="12"/>
     </row>
-    <row r="331" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O331" s="12"/>
     </row>
-    <row r="332" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O332" s="12"/>
     </row>
-    <row r="333" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O333" s="12"/>
     </row>
-    <row r="334" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O334" s="12"/>
     </row>
-    <row r="335" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O335" s="12"/>
     </row>
-    <row r="336" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O336" s="12"/>
     </row>
-    <row r="337" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O337" s="12"/>
     </row>
-    <row r="338" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O338" s="12"/>
     </row>
-    <row r="339" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O339" s="12"/>
     </row>
-    <row r="340" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O340" s="12"/>
     </row>
-    <row r="341" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O341" s="12"/>
     </row>
-    <row r="342" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O342" s="12"/>
     </row>
-    <row r="343" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O343" s="12"/>
     </row>
-    <row r="344" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O344" s="12"/>
     </row>
-    <row r="345" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O345" s="12"/>
     </row>
-    <row r="346" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O346" s="12"/>
     </row>
-    <row r="347" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O347" s="12"/>
     </row>
-    <row r="348" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O348" s="12"/>
     </row>
-    <row r="349" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O349" s="12"/>
     </row>
-    <row r="350" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O350" s="12"/>
     </row>
-    <row r="351" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O351" s="12"/>
     </row>
-    <row r="352" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O352" s="12"/>
     </row>
-    <row r="353" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O353" s="12"/>
     </row>
-    <row r="354" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O354" s="12"/>
     </row>
-    <row r="355" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O355" s="12"/>
     </row>
-    <row r="356" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O356" s="12"/>
     </row>
-    <row r="357" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O357" s="12"/>
     </row>
-    <row r="358" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O358" s="12"/>
     </row>
-    <row r="359" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O359" s="12"/>
     </row>
-    <row r="360" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O360" s="12"/>
     </row>
-    <row r="361" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O361" s="12"/>
     </row>
-    <row r="362" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O362" s="12"/>
     </row>
-    <row r="363" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O363" s="12"/>
     </row>
-    <row r="364" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O364" s="12"/>
     </row>
-    <row r="365" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O365" s="12"/>
     </row>
-    <row r="366" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O366" s="12"/>
     </row>
-    <row r="367" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O367" s="12"/>
     </row>
-    <row r="368" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O368" s="12"/>
     </row>
-    <row r="369" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O369" s="12"/>
     </row>
-    <row r="370" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O370" s="12"/>
     </row>
-    <row r="371" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O371" s="12"/>
     </row>
-    <row r="372" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O372" s="12"/>
     </row>
-    <row r="373" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O373" s="12"/>
     </row>
-    <row r="374" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O374" s="12"/>
     </row>
-    <row r="375" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O375" s="12"/>
     </row>
-    <row r="376" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O376" s="12"/>
     </row>
-    <row r="377" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O377" s="12"/>
     </row>
-    <row r="378" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O378" s="12"/>
     </row>
-    <row r="379" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O379" s="12"/>
     </row>
-    <row r="380" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O380" s="12"/>
     </row>
-    <row r="381" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O381" s="12"/>
     </row>
-    <row r="382" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O382" s="12"/>
     </row>
-    <row r="383" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O383" s="12"/>
     </row>
-    <row r="384" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O384" s="12"/>
     </row>
-    <row r="385" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O385" s="12"/>
     </row>
-    <row r="386" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O386" s="12"/>
     </row>
-    <row r="387" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O387" s="12"/>
     </row>
-    <row r="388" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O388" s="12"/>
     </row>
-    <row r="389" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O389" s="12"/>
     </row>
-    <row r="390" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O390" s="12"/>
     </row>
-    <row r="391" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O391" s="12"/>
     </row>
-    <row r="392" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O392" s="12"/>
     </row>
-    <row r="393" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O393" s="12"/>
     </row>
-    <row r="394" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O394" s="12"/>
     </row>
-    <row r="395" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O395" s="12"/>
     </row>
-    <row r="396" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O396" s="12"/>
     </row>
-    <row r="397" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O397" s="12"/>
     </row>
-    <row r="398" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O398" s="12"/>
     </row>
-    <row r="399" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O399" s="12"/>
     </row>
-    <row r="400" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O400" s="12"/>
     </row>
-    <row r="401" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O401" s="12"/>
     </row>
-    <row r="402" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O402" s="12"/>
     </row>
-    <row r="403" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O403" s="12"/>
     </row>
-    <row r="404" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O404" s="12"/>
     </row>
-    <row r="405" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O405" s="12"/>
     </row>
-    <row r="406" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O406" s="12"/>
     </row>
-    <row r="407" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O407" s="12"/>
     </row>
-    <row r="408" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O408" s="12"/>
     </row>
-    <row r="409" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O409" s="12"/>
     </row>
-    <row r="410" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O410" s="12"/>
     </row>
-    <row r="411" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O411" s="12"/>
     </row>
-    <row r="412" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O412" s="12"/>
     </row>
-    <row r="413" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O413" s="12"/>
     </row>
-    <row r="414" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O414" s="12"/>
     </row>
-    <row r="415" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O415" s="12"/>
     </row>
-    <row r="416" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O416" s="12"/>
     </row>
-    <row r="417" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O417" s="12"/>
     </row>
-    <row r="418" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O418" s="12"/>
     </row>
-    <row r="419" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O419" s="12"/>
     </row>
-    <row r="420" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O420" s="12"/>
     </row>
-    <row r="421" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O421" s="12"/>
     </row>
-    <row r="422" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O422" s="12"/>
     </row>
-    <row r="423" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O423" s="12"/>
     </row>
-    <row r="424" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O424" s="12"/>
     </row>
-    <row r="425" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O425" s="12"/>
     </row>
-    <row r="426" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O426" s="12"/>
     </row>
-    <row r="427" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O427" s="12"/>
     </row>
-    <row r="428" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O428" s="12"/>
     </row>
-    <row r="429" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O429" s="12"/>
     </row>
-    <row r="430" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O430" s="12"/>
     </row>
-    <row r="431" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O431" s="12"/>
     </row>
-    <row r="432" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O432" s="12"/>
     </row>
-    <row r="433" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O433" s="12"/>
     </row>
-    <row r="434" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O434" s="12"/>
     </row>
-    <row r="435" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O435" s="12"/>
     </row>
-    <row r="436" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O436" s="12"/>
     </row>
-    <row r="437" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O437" s="12"/>
     </row>
-    <row r="438" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O438" s="12"/>
     </row>
-    <row r="439" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O439" s="12"/>
     </row>
-    <row r="440" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O440" s="12"/>
     </row>
-    <row r="441" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O441" s="12"/>
     </row>
-    <row r="442" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O442" s="12"/>
     </row>
-    <row r="443" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O443" s="12"/>
     </row>
-    <row r="444" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O444" s="12"/>
     </row>
-    <row r="445" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O445" s="12"/>
     </row>
-    <row r="446" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O446" s="12"/>
     </row>
-    <row r="447" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O447" s="12"/>
     </row>
-    <row r="448" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O448" s="12"/>
     </row>
-    <row r="449" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O449" s="12"/>
     </row>
-    <row r="450" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O450" s="12"/>
     </row>
-    <row r="451" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O451" s="12"/>
     </row>
-    <row r="452" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O452" s="12"/>
     </row>
-    <row r="453" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O453" s="12"/>
     </row>
-    <row r="454" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O454" s="12"/>
     </row>
-    <row r="455" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O455" s="12"/>
     </row>
-    <row r="456" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O456" s="12"/>
     </row>
-    <row r="457" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O457" s="12"/>
     </row>
-    <row r="458" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O458" s="12"/>
     </row>
-    <row r="459" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O459" s="12"/>
     </row>
-    <row r="460" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O460" s="12"/>
     </row>
-    <row r="461" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O461" s="12"/>
     </row>
-    <row r="462" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O462" s="12"/>
     </row>
-    <row r="463" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O463" s="12"/>
     </row>
-    <row r="464" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O464" s="12"/>
     </row>
-    <row r="465" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O465" s="12"/>
     </row>
-    <row r="466" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O466" s="12"/>
     </row>
-    <row r="467" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O467" s="12"/>
     </row>
-    <row r="468" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O468" s="12"/>
     </row>
-    <row r="469" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O469" s="12"/>
     </row>
-    <row r="470" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O470" s="12"/>
     </row>
-    <row r="471" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O471" s="12"/>
     </row>
-    <row r="472" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O472" s="12"/>
     </row>
-    <row r="473" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O473" s="12"/>
     </row>
-    <row r="474" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O474" s="12"/>
     </row>
-    <row r="475" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O475" s="12"/>
     </row>
-    <row r="476" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O476" s="12"/>
     </row>
-    <row r="477" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O477" s="12"/>
     </row>
-    <row r="478" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O478" s="12"/>
     </row>
-    <row r="479" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O479" s="12"/>
     </row>
-    <row r="480" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O480" s="12"/>
     </row>
-    <row r="481" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O481" s="12"/>
     </row>
-    <row r="482" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O482" s="12"/>
     </row>
-    <row r="483" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O483" s="12"/>
     </row>
-    <row r="484" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O484" s="12"/>
     </row>
-    <row r="485" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O485" s="12"/>
     </row>
-    <row r="486" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O486" s="12"/>
     </row>
-    <row r="487" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O487" s="12"/>
     </row>
-    <row r="488" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O488" s="12"/>
     </row>
-    <row r="489" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O489" s="12"/>
     </row>
-    <row r="490" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O490" s="12"/>
     </row>
-    <row r="491" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O491" s="12"/>
     </row>
-    <row r="492" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O492" s="12"/>
     </row>
-    <row r="493" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O493" s="12"/>
     </row>
-    <row r="494" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O494" s="12"/>
     </row>
-    <row r="495" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O495" s="12"/>
     </row>
-    <row r="496" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O496" s="12"/>
     </row>
-    <row r="497" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O497" s="12"/>
     </row>
-    <row r="498" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O498" s="12"/>
     </row>
-    <row r="499" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O499" s="12"/>
     </row>
-    <row r="500" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O500" s="12"/>
     </row>
-    <row r="501" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O501" s="12"/>
     </row>
-    <row r="502" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O502" s="12"/>
     </row>
-    <row r="503" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O503" s="12"/>
     </row>
-    <row r="504" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O504" s="12"/>
     </row>
-    <row r="505" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O505" s="12"/>
     </row>
-    <row r="506" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O506" s="12"/>
     </row>
-    <row r="507" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O507" s="12"/>
     </row>
-    <row r="508" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O508" s="12"/>
     </row>
-    <row r="509" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O509" s="12"/>
     </row>
-    <row r="510" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O510" s="12"/>
     </row>
-    <row r="511" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O511" s="12"/>
     </row>
-    <row r="512" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O512" s="12"/>
     </row>
-    <row r="513" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O513" s="12"/>
     </row>
-    <row r="514" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O514" s="12"/>
     </row>
-    <row r="515" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O515" s="12"/>
     </row>
-    <row r="516" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O516" s="12"/>
     </row>
-    <row r="517" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O517" s="12"/>
     </row>
-    <row r="518" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O518" s="12"/>
     </row>
-    <row r="519" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O519" s="12"/>
     </row>
-    <row r="520" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O520" s="12"/>
     </row>
-    <row r="521" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O521" s="12"/>
     </row>
-    <row r="522" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O522" s="12"/>
     </row>
-    <row r="523" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O523" s="12"/>
     </row>
-    <row r="524" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O524" s="12"/>
     </row>
-    <row r="525" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O525" s="12"/>
     </row>
-    <row r="526" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O526" s="12"/>
     </row>
-    <row r="527" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O527" s="12"/>
     </row>
-    <row r="528" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O528" s="12"/>
     </row>
-    <row r="529" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O529" s="12"/>
     </row>
-    <row r="530" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O530" s="12"/>
     </row>
-    <row r="531" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O531" s="12"/>
     </row>
-    <row r="532" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O532" s="12"/>
     </row>
-    <row r="533" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O533" s="12"/>
     </row>
-    <row r="534" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O534" s="12"/>
     </row>
-    <row r="535" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O535" s="12"/>
     </row>
-    <row r="536" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O536" s="12"/>
     </row>
-    <row r="537" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O537" s="12"/>
     </row>
-    <row r="538" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O538" s="12"/>
     </row>
-    <row r="539" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O539" s="12"/>
     </row>
-    <row r="540" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O540" s="12"/>
     </row>
-    <row r="541" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O541" s="12"/>
     </row>
-    <row r="542" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O542" s="12"/>
     </row>
-    <row r="543" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O543" s="12"/>
     </row>
-    <row r="544" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O544" s="12"/>
     </row>
-    <row r="545" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O545" s="12"/>
     </row>
-    <row r="546" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O546" s="12"/>
     </row>
-    <row r="547" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O547" s="12"/>
     </row>
-    <row r="548" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O548" s="12"/>
     </row>
-    <row r="549" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O549" s="12"/>
     </row>
-    <row r="550" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O550" s="12"/>
     </row>
-    <row r="551" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O551" s="12"/>
     </row>
-    <row r="552" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O552" s="12"/>
     </row>
-    <row r="553" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O553" s="12"/>
     </row>
-    <row r="554" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O554" s="12"/>
     </row>
-    <row r="555" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O555" s="12"/>
     </row>
-    <row r="556" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O556" s="12"/>
     </row>
-    <row r="557" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O557" s="12"/>
     </row>
-    <row r="558" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O558" s="12"/>
     </row>
-    <row r="559" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O559" s="12"/>
     </row>
-    <row r="560" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O560" s="12"/>
     </row>
-    <row r="561" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O561" s="12"/>
     </row>
-    <row r="562" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O562" s="12"/>
     </row>
-    <row r="563" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O563" s="12"/>
     </row>
-    <row r="564" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O564" s="12"/>
     </row>
-    <row r="565" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O565" s="12"/>
     </row>
-    <row r="566" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O566" s="12"/>
     </row>
-    <row r="567" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O567" s="12"/>
     </row>
-    <row r="568" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O568" s="12"/>
     </row>
-    <row r="569" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O569" s="12"/>
     </row>
-    <row r="570" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O570" s="12"/>
     </row>
-    <row r="571" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O571" s="12"/>
     </row>
-    <row r="572" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O572" s="12"/>
     </row>
-    <row r="573" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O573" s="12"/>
     </row>
-    <row r="574" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O574" s="12"/>
     </row>
-    <row r="575" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O575" s="12"/>
     </row>
-    <row r="576" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O576" s="12"/>
     </row>
-    <row r="577" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O577" s="12"/>
     </row>
-    <row r="578" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O578" s="12"/>
     </row>
-    <row r="579" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O579" s="12"/>
     </row>
-    <row r="580" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O580" s="12"/>
     </row>
-    <row r="581" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O581" s="12"/>
     </row>
-    <row r="582" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O582" s="12"/>
     </row>
-    <row r="583" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O583" s="12"/>
     </row>
-    <row r="584" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O584" s="12"/>
     </row>
-    <row r="585" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O585" s="12"/>
     </row>
-    <row r="586" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O586" s="12"/>
     </row>
-    <row r="587" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O587" s="12"/>
     </row>
-    <row r="588" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O588" s="12"/>
     </row>
-    <row r="589" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O589" s="12"/>
     </row>
-    <row r="590" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O590" s="12"/>
     </row>
-    <row r="591" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O591" s="12"/>
     </row>
-    <row r="592" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O592" s="12"/>
     </row>
-    <row r="593" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O593" s="12"/>
     </row>
-    <row r="594" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O594" s="12"/>
     </row>
-    <row r="595" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O595" s="12"/>
     </row>
-    <row r="596" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O596" s="12"/>
     </row>
-    <row r="597" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O597" s="12"/>
     </row>
-    <row r="598" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O598" s="12"/>
     </row>
-    <row r="599" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O599" s="12"/>
     </row>
-    <row r="600" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O600" s="12"/>
     </row>
-    <row r="601" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O601" s="12"/>
     </row>
-    <row r="602" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O602" s="12"/>
     </row>
-    <row r="603" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O603" s="12"/>
     </row>
-    <row r="604" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O604" s="12"/>
     </row>
-    <row r="605" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O605" s="12"/>
     </row>
-    <row r="606" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O606" s="12"/>
     </row>
-    <row r="607" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O607" s="12"/>
     </row>
-    <row r="608" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O608" s="12"/>
     </row>
-    <row r="609" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O609" s="12"/>
     </row>
-    <row r="610" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O610" s="12"/>
     </row>
-    <row r="611" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O611" s="12"/>
     </row>
-    <row r="612" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O612" s="12"/>
     </row>
-    <row r="613" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O613" s="12"/>
     </row>
-    <row r="614" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O614" s="12"/>
     </row>
-    <row r="615" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O615" s="12"/>
     </row>
-    <row r="616" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O616" s="12"/>
     </row>
-    <row r="617" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O617" s="12"/>
     </row>
-    <row r="618" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O618" s="12"/>
     </row>
-    <row r="619" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O619" s="12"/>
     </row>
-    <row r="620" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O620" s="12"/>
     </row>
-    <row r="621" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O621" s="12"/>
     </row>
-    <row r="622" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O622" s="12"/>
     </row>
-    <row r="623" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O623" s="12"/>
     </row>
-    <row r="624" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O624" s="12"/>
     </row>
-    <row r="625" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O625" s="12"/>
     </row>
-    <row r="626" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O626" s="12"/>
     </row>
-    <row r="627" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O627" s="12"/>
     </row>
-    <row r="628" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O628" s="12"/>
     </row>
-    <row r="629" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O629" s="12"/>
     </row>
-    <row r="630" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O630" s="12"/>
     </row>
-    <row r="631" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O631" s="12"/>
     </row>
-    <row r="632" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O632" s="12"/>
     </row>
-    <row r="633" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O633" s="12"/>
     </row>
-    <row r="634" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O634" s="12"/>
     </row>
-    <row r="635" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O635" s="12"/>
     </row>
-    <row r="636" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O636" s="12"/>
     </row>
-    <row r="637" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O637" s="12"/>
     </row>
-    <row r="638" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O638" s="12"/>
     </row>
-    <row r="639" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O639" s="12"/>
     </row>
-    <row r="640" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O640" s="12"/>
     </row>
-    <row r="641" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O641" s="12"/>
     </row>
-    <row r="642" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O642" s="12"/>
     </row>
-    <row r="643" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O643" s="12"/>
     </row>
-    <row r="644" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O644" s="12"/>
     </row>
-    <row r="645" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O645" s="12"/>
     </row>
-    <row r="646" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O646" s="12"/>
     </row>
-    <row r="647" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O647" s="12"/>
     </row>
-    <row r="648" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O648" s="12"/>
     </row>
-    <row r="649" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O649" s="12"/>
     </row>
-    <row r="650" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O650" s="12"/>
     </row>
-    <row r="651" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O651" s="12"/>
     </row>
-    <row r="652" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O652" s="12"/>
     </row>
-    <row r="653" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O653" s="12"/>
     </row>
-    <row r="654" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O654" s="12"/>
     </row>
-    <row r="655" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O655" s="12"/>
     </row>
-    <row r="656" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O656" s="12"/>
     </row>
-    <row r="657" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O657" s="12"/>
     </row>
-    <row r="658" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O658" s="12"/>
     </row>
-    <row r="659" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O659" s="12"/>
     </row>
-    <row r="660" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O660" s="12"/>
     </row>
-    <row r="661" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O661" s="12"/>
     </row>
-    <row r="662" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O662" s="12"/>
     </row>
-    <row r="663" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O663" s="12"/>
     </row>
-    <row r="664" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O664" s="12"/>
     </row>
-    <row r="665" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O665" s="12"/>
     </row>
-    <row r="666" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O666" s="12"/>
     </row>
-    <row r="667" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O667" s="12"/>
     </row>
-    <row r="668" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O668" s="12"/>
     </row>
-    <row r="669" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O669" s="12"/>
     </row>
-    <row r="670" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O670" s="12"/>
     </row>
-    <row r="671" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O671" s="12"/>
     </row>
-    <row r="672" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O672" s="12"/>
     </row>
-    <row r="673" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O673" s="12"/>
     </row>
-    <row r="674" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O674" s="12"/>
     </row>
-    <row r="675" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O675" s="12"/>
     </row>
-    <row r="676" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O676" s="12"/>
     </row>
-    <row r="677" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O677" s="12"/>
     </row>
-    <row r="678" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O678" s="12"/>
     </row>
-    <row r="679" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O679" s="12"/>
     </row>
-    <row r="680" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O680" s="12"/>
     </row>
-    <row r="681" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O681" s="12"/>
     </row>
-    <row r="682" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O682" s="12"/>
     </row>
-    <row r="683" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O683" s="12"/>
     </row>
-    <row r="684" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O684" s="12"/>
     </row>
-    <row r="685" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O685" s="12"/>
     </row>
-    <row r="686" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O686" s="12"/>
     </row>
-    <row r="687" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O687" s="12"/>
     </row>
-    <row r="688" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O688" s="12"/>
     </row>
-    <row r="689" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O689" s="12"/>
     </row>
-    <row r="690" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O690" s="12"/>
     </row>
-    <row r="691" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O691" s="12"/>
     </row>
-    <row r="692" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O692" s="12"/>
     </row>
-    <row r="693" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O693" s="12"/>
     </row>
-    <row r="694" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O694" s="12"/>
     </row>
-    <row r="695" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O695" s="12"/>
     </row>
-    <row r="696" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O696" s="12"/>
     </row>
-    <row r="697" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O697" s="12"/>
     </row>
-    <row r="698" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O698" s="12"/>
     </row>
-    <row r="699" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O699" s="12"/>
     </row>
-    <row r="700" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O700" s="12"/>
     </row>
-    <row r="701" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O701" s="12"/>
     </row>
-    <row r="702" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O702" s="12"/>
     </row>
-    <row r="703" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O703" s="12"/>
     </row>
-    <row r="704" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O704" s="12"/>
     </row>
-    <row r="705" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O705" s="12"/>
     </row>
-    <row r="706" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O706" s="12"/>
     </row>
-    <row r="707" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O707" s="12"/>
     </row>
-    <row r="708" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O708" s="12"/>
     </row>
-    <row r="709" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O709" s="12"/>
     </row>
-    <row r="710" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O710" s="12"/>
     </row>
-    <row r="711" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O711" s="12"/>
     </row>
-    <row r="712" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O712" s="12"/>
     </row>
-    <row r="713" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O713" s="12"/>
     </row>
-    <row r="714" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O714" s="12"/>
     </row>
-    <row r="715" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O715" s="12"/>
     </row>
-    <row r="716" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O716" s="12"/>
     </row>
-    <row r="717" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O717" s="12"/>
     </row>
-    <row r="718" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O718" s="12"/>
     </row>
-    <row r="719" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O719" s="12"/>
     </row>
-    <row r="720" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O720" s="12"/>
     </row>
-    <row r="721" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O721" s="12"/>
     </row>
-    <row r="722" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O722" s="12"/>
     </row>
-    <row r="723" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O723" s="12"/>
     </row>
-    <row r="724" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O724" s="12"/>
     </row>
-    <row r="725" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O725" s="12"/>
     </row>
-    <row r="726" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O726" s="12"/>
     </row>
-    <row r="727" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O727" s="12"/>
     </row>
-    <row r="728" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O728" s="12"/>
     </row>
-    <row r="729" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O729" s="12"/>
     </row>
-    <row r="730" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O730" s="12"/>
     </row>
-    <row r="731" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O731" s="12"/>
     </row>
-    <row r="732" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O732" s="12"/>
     </row>
-    <row r="733" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O733" s="12"/>
     </row>
-    <row r="734" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O734" s="12"/>
     </row>
-    <row r="735" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O735" s="12"/>
     </row>
-    <row r="736" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O736" s="12"/>
     </row>
-    <row r="737" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O737" s="12"/>
     </row>
-    <row r="738" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O738" s="12"/>
     </row>
-    <row r="739" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O739" s="12"/>
     </row>
-    <row r="740" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O740" s="12"/>
     </row>
-    <row r="741" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O741" s="12"/>
     </row>
-    <row r="742" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O742" s="12"/>
     </row>
-    <row r="743" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O743" s="12"/>
     </row>
-    <row r="744" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O744" s="12"/>
     </row>
-    <row r="745" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O745" s="12"/>
     </row>
-    <row r="746" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O746" s="12"/>
     </row>
-    <row r="747" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O747" s="12"/>
     </row>
-    <row r="748" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O748" s="12"/>
     </row>
-    <row r="749" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O749" s="12"/>
     </row>
-    <row r="750" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O750" s="12"/>
     </row>
-    <row r="751" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O751" s="12"/>
     </row>
-    <row r="752" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O752" s="12"/>
     </row>
-    <row r="753" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O753" s="12"/>
     </row>
-    <row r="754" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O754" s="12"/>
     </row>
-    <row r="755" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O755" s="12"/>
     </row>
-    <row r="756" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O756" s="12"/>
     </row>
-    <row r="757" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O757" s="12"/>
     </row>
-    <row r="758" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O758" s="12"/>
     </row>
-    <row r="759" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O759" s="12"/>
     </row>
-    <row r="760" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O760" s="12"/>
     </row>
-    <row r="761" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O761" s="12"/>
     </row>
-    <row r="762" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O762" s="12"/>
     </row>
-    <row r="763" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O763" s="12"/>
     </row>
-    <row r="764" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O764" s="12"/>
     </row>
-    <row r="765" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O765" s="12"/>
     </row>
-    <row r="766" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O766" s="12"/>
     </row>
-    <row r="767" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O767" s="12"/>
     </row>
-    <row r="768" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O768" s="12"/>
     </row>
-    <row r="769" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O769" s="12"/>
     </row>
-    <row r="770" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O770" s="12"/>
     </row>
-    <row r="771" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O771" s="12"/>
     </row>
-    <row r="772" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O772" s="12"/>
     </row>
-    <row r="773" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O773" s="12"/>
     </row>
-    <row r="774" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O774" s="12"/>
     </row>
-    <row r="775" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O775" s="12"/>
     </row>
-    <row r="776" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O776" s="12"/>
     </row>
-    <row r="777" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O777" s="12"/>
     </row>
-    <row r="778" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O778" s="12"/>
     </row>
-    <row r="779" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O779" s="12"/>
     </row>
-    <row r="780" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O780" s="12"/>
     </row>
-    <row r="781" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O781" s="12"/>
     </row>
-    <row r="782" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O782" s="12"/>
     </row>
-    <row r="783" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O783" s="12"/>
     </row>
-    <row r="784" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O784" s="12"/>
     </row>
-    <row r="785" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O785" s="12"/>
     </row>
-    <row r="786" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O786" s="12"/>
     </row>
-    <row r="787" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O787" s="12"/>
     </row>
-    <row r="788" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O788" s="12"/>
     </row>
-    <row r="789" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O789" s="12"/>
     </row>
-    <row r="790" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O790" s="12"/>
     </row>
-    <row r="791" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O791" s="12"/>
     </row>
-    <row r="792" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O792" s="12"/>
     </row>
-    <row r="793" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O793" s="12"/>
     </row>
-    <row r="794" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O794" s="12"/>
     </row>
-    <row r="795" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O795" s="12"/>
     </row>
-    <row r="796" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O796" s="12"/>
     </row>
-    <row r="797" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O797" s="12"/>
     </row>
-    <row r="798" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O798" s="12"/>
     </row>
-    <row r="799" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O799" s="12"/>
     </row>
-    <row r="800" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O800" s="12"/>
     </row>
-    <row r="801" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O801" s="12"/>
     </row>
-    <row r="802" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O802" s="12"/>
     </row>
-    <row r="803" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O803" s="12"/>
     </row>
-    <row r="804" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O804" s="12"/>
     </row>
-    <row r="805" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O805" s="12"/>
     </row>
-    <row r="806" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O806" s="12"/>
     </row>
-    <row r="807" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O807" s="12"/>
     </row>
-    <row r="808" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O808" s="12"/>
     </row>
-    <row r="809" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O809" s="12"/>
     </row>
-    <row r="810" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O810" s="12"/>
     </row>
-    <row r="811" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O811" s="12"/>
     </row>
-    <row r="812" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O812" s="12"/>
     </row>
-    <row r="813" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O813" s="12"/>
     </row>
-    <row r="814" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O814" s="12"/>
     </row>
-    <row r="815" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O815" s="12"/>
     </row>
-    <row r="816" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O816" s="12"/>
     </row>
-    <row r="817" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O817" s="12"/>
     </row>
-    <row r="818" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O818" s="12"/>
     </row>
-    <row r="819" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O819" s="12"/>
     </row>
-    <row r="820" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O820" s="12"/>
     </row>
-    <row r="821" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O821" s="12"/>
     </row>
-    <row r="822" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O822" s="12"/>
     </row>
-    <row r="823" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O823" s="12"/>
     </row>
-    <row r="824" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O824" s="12"/>
     </row>
-    <row r="825" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O825" s="12"/>
     </row>
-    <row r="826" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O826" s="12"/>
     </row>
-    <row r="827" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O827" s="12"/>
     </row>
-    <row r="828" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O828" s="12"/>
     </row>
-    <row r="829" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O829" s="12"/>
     </row>
-    <row r="830" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O830" s="12"/>
     </row>
-    <row r="831" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O831" s="12"/>
     </row>
-    <row r="832" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O832" s="12"/>
     </row>
-    <row r="833" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O833" s="12"/>
     </row>
-    <row r="834" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O834" s="12"/>
     </row>
-    <row r="835" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O835" s="12"/>
     </row>
-    <row r="836" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O836" s="12"/>
     </row>
-    <row r="837" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O837" s="12"/>
     </row>
-    <row r="838" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O838" s="12"/>
     </row>
-    <row r="839" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O839" s="12"/>
     </row>
-    <row r="840" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O840" s="12"/>
     </row>
-    <row r="841" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O841" s="12"/>
     </row>
-    <row r="842" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O842" s="12"/>
     </row>
-    <row r="843" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O843" s="12"/>
     </row>
-    <row r="844" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O844" s="12"/>
     </row>
-    <row r="845" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O845" s="12"/>
     </row>
-    <row r="846" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O846" s="12"/>
     </row>
-    <row r="847" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O847" s="12"/>
     </row>
-    <row r="848" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O848" s="12"/>
     </row>
-    <row r="849" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O849" s="12"/>
     </row>
-    <row r="850" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O850" s="12"/>
     </row>
-    <row r="851" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O851" s="12"/>
     </row>
-    <row r="852" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O852" s="12"/>
     </row>
-    <row r="853" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O853" s="12"/>
     </row>
-    <row r="854" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O854" s="12"/>
     </row>
-    <row r="855" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O855" s="12"/>
     </row>
-    <row r="856" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O856" s="12"/>
     </row>
-    <row r="857" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O857" s="12"/>
     </row>
-    <row r="858" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O858" s="12"/>
     </row>
-    <row r="859" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O859" s="12"/>
     </row>
-    <row r="860" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O860" s="12"/>
     </row>
-    <row r="861" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O861" s="12"/>
     </row>
-    <row r="862" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O862" s="12"/>
     </row>
-    <row r="863" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O863" s="12"/>
     </row>
-    <row r="864" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O864" s="12"/>
     </row>
-    <row r="865" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O865" s="12"/>
     </row>
-    <row r="866" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O866" s="12"/>
     </row>
-    <row r="867" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O867" s="12"/>
     </row>
-    <row r="868" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O868" s="12"/>
     </row>
-    <row r="869" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O869" s="12"/>
     </row>
-    <row r="870" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O870" s="12"/>
     </row>
-    <row r="871" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O871" s="12"/>
     </row>
-    <row r="872" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O872" s="12"/>
     </row>
-    <row r="873" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O873" s="12"/>
     </row>
-    <row r="874" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O874" s="12"/>
     </row>
-    <row r="875" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O875" s="12"/>
     </row>
-    <row r="876" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O876" s="12"/>
     </row>
-    <row r="877" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O877" s="12"/>
     </row>
-    <row r="878" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O878" s="12"/>
     </row>
-    <row r="879" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O879" s="12"/>
     </row>
-    <row r="880" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O880" s="12"/>
     </row>
-    <row r="881" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O881" s="12"/>
     </row>
-    <row r="882" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O882" s="12"/>
     </row>
-    <row r="883" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O883" s="12"/>
     </row>
-    <row r="884" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O884" s="12"/>
     </row>
-    <row r="885" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O885" s="12"/>
     </row>
-    <row r="886" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O886" s="12"/>
     </row>
-    <row r="887" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O887" s="12"/>
     </row>
-    <row r="888" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O888" s="12"/>
     </row>
-    <row r="889" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O889" s="12"/>
     </row>
-    <row r="890" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O890" s="12"/>
     </row>
-    <row r="891" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O891" s="12"/>
     </row>
-    <row r="892" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O892" s="12"/>
     </row>
-    <row r="893" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O893" s="12"/>
     </row>
-    <row r="894" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O894" s="12"/>
     </row>
-    <row r="895" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O895" s="12"/>
     </row>
-    <row r="896" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O896" s="12"/>
     </row>
-    <row r="897" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O897" s="12"/>
     </row>
-    <row r="898" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O898" s="12"/>
     </row>
-    <row r="899" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O899" s="12"/>
     </row>
-    <row r="900" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O900" s="12"/>
     </row>
-    <row r="901" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O901" s="12"/>
     </row>
-    <row r="902" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O902" s="12"/>
     </row>
-    <row r="903" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O903" s="12"/>
     </row>
-    <row r="904" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O904" s="12"/>
     </row>
-    <row r="905" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O905" s="12"/>
     </row>
-    <row r="906" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O906" s="12"/>
     </row>
-    <row r="907" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O907" s="12"/>
     </row>
-    <row r="908" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O908" s="12"/>
     </row>
-    <row r="909" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O909" s="12"/>
     </row>
-    <row r="910" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O910" s="12"/>
     </row>
-    <row r="911" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O911" s="12"/>
     </row>
-    <row r="912" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O912" s="12"/>
     </row>
-    <row r="913" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O913" s="12"/>
     </row>
-    <row r="914" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O914" s="12"/>
     </row>
-    <row r="915" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O915" s="12"/>
     </row>
-    <row r="916" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O916" s="12"/>
     </row>
-    <row r="917" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O917" s="12"/>
     </row>
-    <row r="918" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O918" s="12"/>
     </row>
-    <row r="919" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O919" s="12"/>
     </row>
-    <row r="920" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O920" s="12"/>
     </row>
-    <row r="921" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O921" s="12"/>
     </row>
-    <row r="922" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O922" s="12"/>
     </row>
-    <row r="923" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O923" s="12"/>
     </row>
-    <row r="924" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O924" s="12"/>
     </row>
-    <row r="925" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O925" s="12"/>
     </row>
-    <row r="926" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O926" s="12"/>
     </row>
-    <row r="927" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O927" s="12"/>
     </row>
-    <row r="928" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O928" s="12"/>
     </row>
-    <row r="929" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O929" s="12"/>
     </row>
-    <row r="930" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O930" s="12"/>
     </row>
-    <row r="931" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O931" s="12"/>
     </row>
-    <row r="932" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O932" s="12"/>
     </row>
-    <row r="933" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O933" s="12"/>
     </row>
-    <row r="934" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O934" s="12"/>
     </row>
-    <row r="935" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O935" s="12"/>
     </row>
-    <row r="936" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O936" s="12"/>
     </row>
-    <row r="937" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O937" s="12"/>
     </row>
-    <row r="938" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O938" s="12"/>
     </row>
-    <row r="939" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O939" s="12"/>
     </row>
-    <row r="940" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O940" s="12"/>
     </row>
-    <row r="941" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O941" s="12"/>
     </row>
-    <row r="942" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O942" s="12"/>
     </row>
-    <row r="943" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O943" s="12"/>
     </row>
-    <row r="944" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O944" s="12"/>
     </row>
-    <row r="945" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O945" s="12"/>
     </row>
-    <row r="946" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O946" s="12"/>
     </row>
-    <row r="947" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O947" s="12"/>
     </row>
-    <row r="948" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O948" s="12"/>
     </row>
-    <row r="949" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O949" s="12"/>
     </row>
-    <row r="950" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O950" s="12"/>
     </row>
-    <row r="951" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O951" s="12"/>
     </row>
-    <row r="952" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O952" s="12"/>
     </row>
-    <row r="953" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O953" s="12"/>
     </row>
-    <row r="954" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O954" s="12"/>
     </row>
-    <row r="955" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O955" s="12"/>
     </row>
-    <row r="956" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O956" s="12"/>
     </row>
-    <row r="957" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O957" s="12"/>
     </row>
-    <row r="958" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O958" s="12"/>
     </row>
-    <row r="959" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O959" s="12"/>
     </row>
-    <row r="960" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O960" s="12"/>
     </row>
-    <row r="961" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O961" s="12"/>
     </row>
-    <row r="962" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O962" s="12"/>
     </row>
-    <row r="963" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O963" s="12"/>
     </row>
-    <row r="964" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O964" s="12"/>
     </row>
-    <row r="965" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O965" s="12"/>
     </row>
-    <row r="966" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O966" s="12"/>
     </row>
-    <row r="967" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O967" s="12"/>
     </row>
-    <row r="968" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O968" s="12"/>
     </row>
-    <row r="969" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O969" s="12"/>
     </row>
-    <row r="970" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O970" s="12"/>
     </row>
-    <row r="971" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O971" s="12"/>
     </row>
-    <row r="972" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O972" s="12"/>
     </row>
-    <row r="973" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O973" s="12"/>
     </row>
-    <row r="974" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O974" s="12"/>
     </row>
-    <row r="975" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O975" s="12"/>
     </row>
-    <row r="976" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O976" s="12"/>
     </row>
-    <row r="977" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O977" s="12"/>
     </row>
-    <row r="978" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O978" s="12"/>
     </row>
-    <row r="979" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O979" s="12"/>
     </row>
-    <row r="980" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O980" s="12"/>
     </row>
-    <row r="981" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O981" s="12"/>
     </row>
-    <row r="982" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O982" s="12"/>
     </row>
-    <row r="983" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O983" s="12"/>
     </row>
-    <row r="984" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O984" s="12"/>
     </row>
-    <row r="985" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O985" s="12"/>
     </row>
-    <row r="986" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O986" s="12"/>
     </row>
-    <row r="987" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O987" s="12"/>
     </row>
-    <row r="988" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O988" s="12"/>
     </row>
-    <row r="989" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O989" s="12"/>
     </row>
-    <row r="990" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O990" s="12"/>
     </row>
-    <row r="991" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O991" s="12"/>
     </row>
-    <row r="992" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O992" s="12"/>
     </row>
-    <row r="993" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O993" s="12"/>
     </row>
-    <row r="994" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O994" s="12"/>
     </row>
-    <row r="995" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O995" s="12"/>
     </row>
-    <row r="996" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O996" s="12"/>
     </row>
-    <row r="997" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O997" s="12"/>
     </row>
-    <row r="998" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O998" s="12"/>
     </row>
-    <row r="999" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O999" s="12"/>
     </row>
-    <row r="1000" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="O1000" s="12"/>
     </row>
   </sheetData>
@@ -8096,12 +8099,12 @@
       <selection activeCell="A22" sqref="A22:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
@@ -8109,7 +8112,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8125,7 +8128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8141,7 +8144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8165,7 +8168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8181,7 +8184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
@@ -8205,7 +8208,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>257</v>
       </c>
@@ -8213,7 +8216,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>256</v>
       </c>
@@ -8221,7 +8224,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>253</v>
       </c>
@@ -8229,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>254</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>255</v>
       </c>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\JavaGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C513560-623C-442E-A45D-83DCFC5148D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD33730-00EC-4E3A-8FA7-E0039417AF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="asset" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="272">
   <si>
     <t>Name</t>
   </si>
@@ -799,20 +799,62 @@
     <t>ARMOR</t>
   </si>
   <si>
-    <t>WEAPON</t>
-  </si>
-  <si>
     <t>CONSUMABLE</t>
   </si>
   <si>
     <t>TOOL</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+  </si>
+  <si>
+    <t>Equip/Use</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Ring1</t>
+  </si>
+  <si>
+    <t>Ring2</t>
+  </si>
+  <si>
+    <t>Ring3</t>
+  </si>
+  <si>
+    <t>HELMET</t>
+  </si>
+  <si>
+    <t>BELT</t>
+  </si>
+  <si>
+    <t>BOOTS</t>
+  </si>
+  <si>
+    <t>SHIELD</t>
+  </si>
+  <si>
+    <t>NECKLACE</t>
+  </si>
+  <si>
+    <t>SWORD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -839,6 +881,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -938,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -957,11 +1006,111 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1141,10 +1290,10 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Trang tính1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1181,18 +1330,18 @@
   </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HP" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DEF" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ATK_UP" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="HP_UP" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DEF_UP" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SPEED_UP" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DMG_UP" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DMG_DOWN" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="HEAL" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="MANA" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Effect" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HP" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DEF" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ATK_UP" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="HP_UP" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DEF_UP" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SPEED_UP" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DMG_UP" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DMG_DOWN" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="HEAL" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="MANA" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Effect" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(",",TRUE,B2:L2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Slot"/>
@@ -1200,29 +1349,12 @@
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="File"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Description"/>
   </tableColumns>
-  <tableStyleInfo name="Trang tính1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Trang tính1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{411DD888-5A9F-4EDA-A94F-1204FC42982F}" name="Table2" displayName="Table2" ref="A15:B20" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A15:B20" xr:uid="{411DD888-5A9F-4EDA-A94F-1204FC42982F}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:B20">
-    <sortCondition ref="B15:B20"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9E9F89BC-7C96-490B-92D8-2A28DB46DEEA}" name="Slot" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F28215A4-66F6-424A-A2A9-0D76B906E4BC}" name="Value" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="Trang tính1-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BBFDFE2-02AF-4419-9831-1C144A78DA91}" name="Table3" displayName="Table3" ref="A2:B13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BBFDFE2-02AF-4419-9831-1C144A78DA91}" name="Table3" displayName="Table3" ref="A2:B13" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A2:B13" xr:uid="{6BBFDFE2-02AF-4419-9831-1C144A78DA91}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1230,6 +1362,43 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A9991370-7B21-46FA-A709-F039484DC1DC}" name="Effect"/>
     <tableColumn id="2" xr3:uid="{5DA86F4A-50A9-46CC-8805-DECE70033154}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="Trang tính1-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}" name="Table25" displayName="Table25" ref="A15:E19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A15:E19" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D769D674-B34F-494C-8038-E3794DD8B6EC}" name="Slot" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5628AAA4-363B-4FA4-8343-1E99D6F71D56}" name="Value" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1C8EB72E-5EF1-492E-8BE7-0587E314D85F}" name="Equip/Use" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{78A38015-66C7-4A3E-BC6D-7EB6E7DF082E}" name="Drop" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2F60684A-BBAF-4052-BFFB-0763531FCA64}" name="Sell" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Trang tính1-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}" name="Table5" displayName="Table5" ref="A21:B31" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A21:B31" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:B31">
+    <sortCondition ref="B21:B31"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{46CAC607-CFC8-4522-963F-80AD670305B0}" name="Equipment" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BA4AED99-2AAF-4E57-82A8-F1EE74D44AE6}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="Trang tính1-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1438,31 +1607,33 @@
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A2:Q71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.3984375" customWidth="1"/>
-    <col min="15" max="15" width="91" customWidth="1"/>
+    <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="141.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1623,7 +1794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1664,8 +1835,8 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
+      <c r="N4" s="17">
+        <v>-3</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>18</v>
@@ -1677,7 +1848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1731,7 +1902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1773,7 +1944,7 @@
         <v>0,10,10,0,0,0,0.2,0,0,0,0</v>
       </c>
       <c r="N6" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>34</v>
@@ -1785,7 +1956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1827,7 +1998,7 @@
         <v>0,30,30,0,0,0,0.3,0,0,0,0</v>
       </c>
       <c r="N7" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>39</v>
@@ -1839,7 +2010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +2064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1947,7 +2118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -2001,7 +2172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
@@ -2055,7 +2226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -2109,7 +2280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -2163,7 +2334,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -2204,8 +2375,8 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
+      <c r="N14" s="17">
+        <v>-3</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>18</v>
@@ -2217,7 +2388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -2258,8 +2429,8 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N15" s="5">
-        <v>0</v>
+      <c r="N15" s="17">
+        <v>-3</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>18</v>
@@ -2271,7 +2442,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -2325,7 +2496,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -2366,8 +2537,8 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N17" s="5">
-        <v>0</v>
+      <c r="N17" s="17">
+        <v>-3</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>18</v>
@@ -2379,7 +2550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
@@ -2420,8 +2591,8 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N18" s="5">
-        <v>0</v>
+      <c r="N18" s="17">
+        <v>-3</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>18</v>
@@ -2433,7 +2604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
@@ -2487,7 +2658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -2528,8 +2699,8 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N20" s="5">
-        <v>0</v>
+      <c r="N20" s="17">
+        <v>-3</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>18</v>
@@ -2541,7 +2712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -2582,8 +2753,8 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0.2,0,0,0,0</v>
       </c>
-      <c r="N21" s="5">
-        <v>0</v>
+      <c r="N21" s="17">
+        <v>-3</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>18</v>
@@ -2595,7 +2766,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -2649,7 +2820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>90</v>
       </c>
@@ -2703,7 +2874,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>94</v>
       </c>
@@ -2744,8 +2915,8 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N24" s="5">
-        <v>0</v>
+      <c r="N24" s="17">
+        <v>-3</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>18</v>
@@ -2757,7 +2928,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
@@ -2798,8 +2969,8 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N25" s="5">
-        <v>0</v>
+      <c r="N25" s="17">
+        <v>-3</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>18</v>
@@ -2811,7 +2982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>98</v>
       </c>
@@ -2852,8 +3023,8 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N26" s="5">
-        <v>0</v>
+      <c r="N26" s="17">
+        <v>-3</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>18</v>
@@ -2865,7 +3036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>100</v>
       </c>
@@ -2919,7 +3090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
@@ -2973,7 +3144,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -3027,7 +3198,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>111</v>
       </c>
@@ -3081,7 +3252,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>115</v>
       </c>
@@ -3135,7 +3306,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>119</v>
       </c>
@@ -3189,7 +3360,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>121</v>
       </c>
@@ -3243,7 +3414,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
@@ -3297,7 +3468,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>127</v>
       </c>
@@ -3339,7 +3510,7 @@
         <v>20,50,50,0,0,0,0,0,0.3,0,0</v>
       </c>
       <c r="N35" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>128</v>
@@ -3351,7 +3522,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -3392,8 +3563,8 @@
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N36" s="5">
-        <v>0</v>
+      <c r="N36" s="17">
+        <v>-3</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>18</v>
@@ -3405,7 +3576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>133</v>
       </c>
@@ -3446,8 +3617,8 @@
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N37" s="5">
-        <v>0</v>
+      <c r="N37" s="17">
+        <v>-3</v>
       </c>
       <c r="O37" s="6" t="s">
         <v>18</v>
@@ -3459,7 +3630,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>135</v>
       </c>
@@ -3501,7 +3672,7 @@
         <v>0,80,50,0,0,0,0,0,0.2,0,0</v>
       </c>
       <c r="N38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>104</v>
@@ -3513,7 +3684,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>138</v>
       </c>
@@ -3567,7 +3738,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>141</v>
       </c>
@@ -3609,7 +3780,7 @@
         <v>30,80,30,0,0,0,0.3,0,0,0,0</v>
       </c>
       <c r="N40" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>39</v>
@@ -3621,7 +3792,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3663,7 +3834,7 @@
         <v>0,30,20,0,0,0,0.1,0,0,0,0</v>
       </c>
       <c r="N41" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>146</v>
@@ -3675,7 +3846,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>149</v>
       </c>
@@ -3729,7 +3900,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>152</v>
       </c>
@@ -3770,8 +3941,8 @@
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N43" s="5">
-        <v>0</v>
+      <c r="N43" s="17">
+        <v>-3</v>
       </c>
       <c r="O43" s="6" t="s">
         <v>18</v>
@@ -3783,7 +3954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
@@ -3837,7 +4008,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>157</v>
       </c>
@@ -3891,7 +4062,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>161</v>
       </c>
@@ -3945,7 +4116,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>164</v>
       </c>
@@ -3987,7 +4158,7 @@
         <v>0,50,50,0,0,100,0,0,0,0,0</v>
       </c>
       <c r="N47" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>165</v>
@@ -3999,7 +4170,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>168</v>
       </c>
@@ -4041,7 +4212,7 @@
         <v>0,80,80,0,0,200,0,0,0,0,0</v>
       </c>
       <c r="N48" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>169</v>
@@ -4053,7 +4224,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>172</v>
       </c>
@@ -4107,7 +4278,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>175</v>
       </c>
@@ -4161,7 +4332,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>179</v>
       </c>
@@ -4215,7 +4386,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>183</v>
       </c>
@@ -4269,7 +4440,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>186</v>
       </c>
@@ -4323,7 +4494,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>190</v>
       </c>
@@ -4377,7 +4548,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>193</v>
       </c>
@@ -4431,7 +4602,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>197</v>
       </c>
@@ -4473,7 +4644,7 @@
         <v>0,100,100,0,0,0,0,0,0.45,0,0</v>
       </c>
       <c r="N56" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>199</v>
@@ -4485,7 +4656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>201</v>
       </c>
@@ -4527,7 +4698,7 @@
         <v>80,150,200,0,0,0,0,0,0.45,0,0</v>
       </c>
       <c r="N57" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>202</v>
@@ -4539,7 +4710,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>205</v>
       </c>
@@ -4593,7 +4764,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>209</v>
       </c>
@@ -4647,7 +4818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>212</v>
       </c>
@@ -4689,7 +4860,7 @@
         <v>250,80,80,0.3,0,0,0,0.45,0,0,0</v>
       </c>
       <c r="N60" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O60" s="6" t="s">
         <v>213</v>
@@ -4701,7 +4872,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>216</v>
       </c>
@@ -4742,8 +4913,8 @@
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N61" s="5">
-        <v>0</v>
+      <c r="N61" s="17">
+        <v>-3</v>
       </c>
       <c r="O61" s="6" t="s">
         <v>18</v>
@@ -4755,7 +4926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>218</v>
       </c>
@@ -4797,7 +4968,7 @@
         <v>150,80,80,0,0,0,0,0.2,0,0,0</v>
       </c>
       <c r="N62" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O62" s="6" t="s">
         <v>210</v>
@@ -4809,7 +4980,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>220</v>
       </c>
@@ -4851,7 +5022,7 @@
         <v>250,100,100,0.3,0,0,0,0,0,0,0</v>
       </c>
       <c r="N63" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O63" s="6" t="s">
         <v>206</v>
@@ -4863,7 +5034,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>222</v>
       </c>
@@ -4917,7 +5088,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>227</v>
       </c>
@@ -4971,7 +5142,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>231</v>
       </c>
@@ -5025,7 +5196,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>235</v>
       </c>
@@ -5079,7 +5250,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>239</v>
       </c>
@@ -5133,7 +5304,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>242</v>
       </c>
@@ -5187,7 +5358,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>245</v>
       </c>
@@ -5241,7 +5412,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>249</v>
       </c>
@@ -5283,7 +5454,7 @@
         <v>20,100,100,0,0,0,0,0,0.2,0,0</v>
       </c>
       <c r="N71" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O71" s="10" t="s">
         <v>104</v>
@@ -5295,2791 +5466,2791 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O73" s="12"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O77" s="12"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O79" s="12"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O80" s="12"/>
     </row>
-    <row r="81" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="81" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O81" s="12"/>
     </row>
-    <row r="82" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="82" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O82" s="12"/>
     </row>
-    <row r="83" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="83" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O83" s="12"/>
     </row>
-    <row r="84" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="84" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O84" s="12"/>
     </row>
-    <row r="85" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="85" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O85" s="12"/>
     </row>
-    <row r="86" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="86" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O86" s="12"/>
     </row>
-    <row r="87" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="87" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O87" s="12"/>
     </row>
-    <row r="88" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="88" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O88" s="12"/>
     </row>
-    <row r="89" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="89" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O89" s="12"/>
     </row>
-    <row r="90" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="90" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O90" s="12"/>
     </row>
-    <row r="91" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="91" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O91" s="12"/>
     </row>
-    <row r="92" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="92" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O92" s="12"/>
     </row>
-    <row r="93" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="93" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O93" s="12"/>
     </row>
-    <row r="94" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="94" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O94" s="12"/>
     </row>
-    <row r="95" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="95" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O95" s="12"/>
     </row>
-    <row r="96" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="96" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O96" s="12"/>
     </row>
-    <row r="97" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="97" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O97" s="12"/>
     </row>
-    <row r="98" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="98" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O98" s="12"/>
     </row>
-    <row r="99" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="99" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O99" s="12"/>
     </row>
-    <row r="100" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="100" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O100" s="12"/>
     </row>
-    <row r="101" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="101" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O101" s="12"/>
     </row>
-    <row r="102" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="102" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O102" s="12"/>
     </row>
-    <row r="103" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="103" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O103" s="12"/>
     </row>
-    <row r="104" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="104" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O104" s="12"/>
     </row>
-    <row r="105" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="105" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O105" s="12"/>
     </row>
-    <row r="106" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="106" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O106" s="12"/>
     </row>
-    <row r="107" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="107" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O107" s="12"/>
     </row>
-    <row r="108" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="108" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O108" s="12"/>
     </row>
-    <row r="109" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="109" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O109" s="12"/>
     </row>
-    <row r="110" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="110" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O110" s="12"/>
     </row>
-    <row r="111" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="111" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O111" s="12"/>
     </row>
-    <row r="112" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="112" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O112" s="12"/>
     </row>
-    <row r="113" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="113" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O113" s="12"/>
     </row>
-    <row r="114" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="114" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O114" s="12"/>
     </row>
-    <row r="115" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="115" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O115" s="12"/>
     </row>
-    <row r="116" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="116" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O116" s="12"/>
     </row>
-    <row r="117" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="117" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O117" s="12"/>
     </row>
-    <row r="118" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="118" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O118" s="12"/>
     </row>
-    <row r="119" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="119" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O119" s="12"/>
     </row>
-    <row r="120" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="120" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O120" s="12"/>
     </row>
-    <row r="121" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="121" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O121" s="12"/>
     </row>
-    <row r="122" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="122" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O122" s="12"/>
     </row>
-    <row r="123" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="123" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O123" s="12"/>
     </row>
-    <row r="124" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="124" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O124" s="12"/>
     </row>
-    <row r="125" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="125" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O125" s="12"/>
     </row>
-    <row r="126" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="126" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O126" s="12"/>
     </row>
-    <row r="127" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="127" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O127" s="12"/>
     </row>
-    <row r="128" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="128" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O128" s="12"/>
     </row>
-    <row r="129" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="129" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O129" s="12"/>
     </row>
-    <row r="130" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="130" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O130" s="12"/>
     </row>
-    <row r="131" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="131" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O131" s="12"/>
     </row>
-    <row r="132" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="132" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O132" s="12"/>
     </row>
-    <row r="133" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="133" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O133" s="12"/>
     </row>
-    <row r="134" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="134" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O134" s="12"/>
     </row>
-    <row r="135" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="135" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="136" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="137" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="138" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="139" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O139" s="12"/>
     </row>
-    <row r="140" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="140" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O140" s="12"/>
     </row>
-    <row r="141" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="141" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O141" s="12"/>
     </row>
-    <row r="142" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O142" s="12"/>
     </row>
-    <row r="143" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="143" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O143" s="12"/>
     </row>
-    <row r="144" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="144" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O144" s="12"/>
     </row>
-    <row r="145" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="145" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O145" s="12"/>
     </row>
-    <row r="146" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="146" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O146" s="12"/>
     </row>
-    <row r="147" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="147" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O147" s="12"/>
     </row>
-    <row r="148" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="148" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O148" s="12"/>
     </row>
-    <row r="149" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="149" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O149" s="12"/>
     </row>
-    <row r="150" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="150" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O150" s="12"/>
     </row>
-    <row r="151" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="151" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O151" s="12"/>
     </row>
-    <row r="152" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="152" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O152" s="12"/>
     </row>
-    <row r="153" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="153" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O153" s="12"/>
     </row>
-    <row r="154" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="154" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O154" s="12"/>
     </row>
-    <row r="155" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="155" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O155" s="12"/>
     </row>
-    <row r="156" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="156" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O156" s="12"/>
     </row>
-    <row r="157" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="157" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O157" s="12"/>
     </row>
-    <row r="158" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="158" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O158" s="12"/>
     </row>
-    <row r="159" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="159" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O159" s="12"/>
     </row>
-    <row r="160" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="160" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O160" s="12"/>
     </row>
-    <row r="161" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="161" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O161" s="12"/>
     </row>
-    <row r="162" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="162" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O162" s="12"/>
     </row>
-    <row r="163" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="163" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O163" s="12"/>
     </row>
-    <row r="164" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="164" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O164" s="12"/>
     </row>
-    <row r="165" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="165" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O165" s="12"/>
     </row>
-    <row r="166" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="166" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O166" s="12"/>
     </row>
-    <row r="167" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="167" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O167" s="12"/>
     </row>
-    <row r="168" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="168" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O168" s="12"/>
     </row>
-    <row r="169" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="169" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O169" s="12"/>
     </row>
-    <row r="170" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="170" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O170" s="12"/>
     </row>
-    <row r="171" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="171" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O171" s="12"/>
     </row>
-    <row r="172" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="172" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O172" s="12"/>
     </row>
-    <row r="173" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="173" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O173" s="12"/>
     </row>
-    <row r="174" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="174" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O174" s="12"/>
     </row>
-    <row r="175" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="175" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O175" s="12"/>
     </row>
-    <row r="176" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="176" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O176" s="12"/>
     </row>
-    <row r="177" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="177" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O177" s="12"/>
     </row>
-    <row r="178" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="178" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O178" s="12"/>
     </row>
-    <row r="179" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="179" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O179" s="12"/>
     </row>
-    <row r="180" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="180" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O180" s="12"/>
     </row>
-    <row r="181" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="181" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O181" s="12"/>
     </row>
-    <row r="182" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="182" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O182" s="12"/>
     </row>
-    <row r="183" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="183" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O183" s="12"/>
     </row>
-    <row r="184" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="184" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O184" s="12"/>
     </row>
-    <row r="185" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="185" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O185" s="12"/>
     </row>
-    <row r="186" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="186" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O186" s="12"/>
     </row>
-    <row r="187" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="187" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O187" s="12"/>
     </row>
-    <row r="188" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="188" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O188" s="12"/>
     </row>
-    <row r="189" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="189" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O189" s="12"/>
     </row>
-    <row r="190" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="190" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O190" s="12"/>
     </row>
-    <row r="191" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="191" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O191" s="12"/>
     </row>
-    <row r="192" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="192" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O192" s="12"/>
     </row>
-    <row r="193" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="193" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O193" s="12"/>
     </row>
-    <row r="194" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="194" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O194" s="12"/>
     </row>
-    <row r="195" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="195" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O195" s="12"/>
     </row>
-    <row r="196" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="196" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O196" s="12"/>
     </row>
-    <row r="197" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="197" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O197" s="12"/>
     </row>
-    <row r="198" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="198" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O198" s="12"/>
     </row>
-    <row r="199" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="199" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O199" s="12"/>
     </row>
-    <row r="200" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="200" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O200" s="12"/>
     </row>
-    <row r="201" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="201" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O201" s="12"/>
     </row>
-    <row r="202" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="202" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O202" s="12"/>
     </row>
-    <row r="203" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="203" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O203" s="12"/>
     </row>
-    <row r="204" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="204" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O204" s="12"/>
     </row>
-    <row r="205" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="205" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O205" s="12"/>
     </row>
-    <row r="206" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="206" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O206" s="12"/>
     </row>
-    <row r="207" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="207" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O207" s="12"/>
     </row>
-    <row r="208" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="208" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O208" s="12"/>
     </row>
-    <row r="209" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="209" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O209" s="12"/>
     </row>
-    <row r="210" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="210" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O210" s="12"/>
     </row>
-    <row r="211" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="211" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O211" s="12"/>
     </row>
-    <row r="212" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="212" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O212" s="12"/>
     </row>
-    <row r="213" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="213" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O213" s="12"/>
     </row>
-    <row r="214" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="214" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O214" s="12"/>
     </row>
-    <row r="215" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="215" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O215" s="12"/>
     </row>
-    <row r="216" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="216" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O216" s="12"/>
     </row>
-    <row r="217" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="217" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O217" s="12"/>
     </row>
-    <row r="218" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="218" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O218" s="12"/>
     </row>
-    <row r="219" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="219" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O219" s="12"/>
     </row>
-    <row r="220" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="220" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O220" s="12"/>
     </row>
-    <row r="221" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="221" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O221" s="12"/>
     </row>
-    <row r="222" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="222" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O222" s="12"/>
     </row>
-    <row r="223" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="223" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O223" s="12"/>
     </row>
-    <row r="224" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="224" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O224" s="12"/>
     </row>
-    <row r="225" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="225" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O225" s="12"/>
     </row>
-    <row r="226" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="226" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O226" s="12"/>
     </row>
-    <row r="227" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="227" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O227" s="12"/>
     </row>
-    <row r="228" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="228" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O228" s="12"/>
     </row>
-    <row r="229" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="229" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O229" s="12"/>
     </row>
-    <row r="230" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="230" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O230" s="12"/>
     </row>
-    <row r="231" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="231" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O231" s="12"/>
     </row>
-    <row r="232" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="232" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O232" s="12"/>
     </row>
-    <row r="233" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="233" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O233" s="12"/>
     </row>
-    <row r="234" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="234" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O234" s="12"/>
     </row>
-    <row r="235" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="235" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O235" s="12"/>
     </row>
-    <row r="236" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="236" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O236" s="12"/>
     </row>
-    <row r="237" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="237" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O237" s="12"/>
     </row>
-    <row r="238" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="238" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O238" s="12"/>
     </row>
-    <row r="239" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="239" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O239" s="12"/>
     </row>
-    <row r="240" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="240" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O240" s="12"/>
     </row>
-    <row r="241" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="241" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O241" s="12"/>
     </row>
-    <row r="242" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="242" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O242" s="12"/>
     </row>
-    <row r="243" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="243" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O243" s="12"/>
     </row>
-    <row r="244" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="244" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O244" s="12"/>
     </row>
-    <row r="245" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="245" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O245" s="12"/>
     </row>
-    <row r="246" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="246" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O246" s="12"/>
     </row>
-    <row r="247" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="247" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O247" s="12"/>
     </row>
-    <row r="248" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="248" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O248" s="12"/>
     </row>
-    <row r="249" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="249" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O249" s="12"/>
     </row>
-    <row r="250" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="250" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O250" s="12"/>
     </row>
-    <row r="251" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="251" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O251" s="12"/>
     </row>
-    <row r="252" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="252" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O252" s="12"/>
     </row>
-    <row r="253" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="253" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O253" s="12"/>
     </row>
-    <row r="254" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="254" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O254" s="12"/>
     </row>
-    <row r="255" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="255" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O255" s="12"/>
     </row>
-    <row r="256" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="256" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O256" s="12"/>
     </row>
-    <row r="257" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="257" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O257" s="12"/>
     </row>
-    <row r="258" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="258" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O258" s="12"/>
     </row>
-    <row r="259" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="259" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O259" s="12"/>
     </row>
-    <row r="260" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="260" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O260" s="12"/>
     </row>
-    <row r="261" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="261" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O261" s="12"/>
     </row>
-    <row r="262" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="262" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O262" s="12"/>
     </row>
-    <row r="263" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="263" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O263" s="12"/>
     </row>
-    <row r="264" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="264" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O264" s="12"/>
     </row>
-    <row r="265" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="265" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O265" s="12"/>
     </row>
-    <row r="266" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="266" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O266" s="12"/>
     </row>
-    <row r="267" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="267" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O267" s="12"/>
     </row>
-    <row r="268" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="268" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O268" s="12"/>
     </row>
-    <row r="269" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="269" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O269" s="12"/>
     </row>
-    <row r="270" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="270" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O270" s="12"/>
     </row>
-    <row r="271" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="271" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O271" s="12"/>
     </row>
-    <row r="272" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="272" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O272" s="12"/>
     </row>
-    <row r="273" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="273" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O273" s="12"/>
     </row>
-    <row r="274" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="274" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O274" s="12"/>
     </row>
-    <row r="275" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="275" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O275" s="12"/>
     </row>
-    <row r="276" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="276" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O276" s="12"/>
     </row>
-    <row r="277" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="277" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O277" s="12"/>
     </row>
-    <row r="278" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="278" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O278" s="12"/>
     </row>
-    <row r="279" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="279" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O279" s="12"/>
     </row>
-    <row r="280" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="280" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O280" s="12"/>
     </row>
-    <row r="281" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="281" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O281" s="12"/>
     </row>
-    <row r="282" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="282" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O282" s="12"/>
     </row>
-    <row r="283" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="283" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O283" s="12"/>
     </row>
-    <row r="284" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="284" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O284" s="12"/>
     </row>
-    <row r="285" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="285" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O285" s="12"/>
     </row>
-    <row r="286" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="286" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O286" s="12"/>
     </row>
-    <row r="287" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="287" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O287" s="12"/>
     </row>
-    <row r="288" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="288" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O288" s="12"/>
     </row>
-    <row r="289" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="289" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O289" s="12"/>
     </row>
-    <row r="290" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="290" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O290" s="12"/>
     </row>
-    <row r="291" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="291" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O291" s="12"/>
     </row>
-    <row r="292" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="292" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O292" s="12"/>
     </row>
-    <row r="293" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="293" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O293" s="12"/>
     </row>
-    <row r="294" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="294" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O294" s="12"/>
     </row>
-    <row r="295" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="295" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O295" s="12"/>
     </row>
-    <row r="296" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="296" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O296" s="12"/>
     </row>
-    <row r="297" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="297" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O297" s="12"/>
     </row>
-    <row r="298" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="298" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O298" s="12"/>
     </row>
-    <row r="299" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="299" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O299" s="12"/>
     </row>
-    <row r="300" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="300" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O300" s="12"/>
     </row>
-    <row r="301" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="301" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O301" s="12"/>
     </row>
-    <row r="302" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="302" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O302" s="12"/>
     </row>
-    <row r="303" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="303" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O303" s="12"/>
     </row>
-    <row r="304" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="304" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O304" s="12"/>
     </row>
-    <row r="305" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="305" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O305" s="12"/>
     </row>
-    <row r="306" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="306" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O306" s="12"/>
     </row>
-    <row r="307" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="307" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O307" s="12"/>
     </row>
-    <row r="308" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="308" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O308" s="12"/>
     </row>
-    <row r="309" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="309" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O309" s="12"/>
     </row>
-    <row r="310" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="310" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O310" s="12"/>
     </row>
-    <row r="311" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="311" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O311" s="12"/>
     </row>
-    <row r="312" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="312" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O312" s="12"/>
     </row>
-    <row r="313" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="313" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O313" s="12"/>
     </row>
-    <row r="314" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="314" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O314" s="12"/>
     </row>
-    <row r="315" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="315" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O315" s="12"/>
     </row>
-    <row r="316" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="316" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O316" s="12"/>
     </row>
-    <row r="317" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="317" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O317" s="12"/>
     </row>
-    <row r="318" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="318" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O318" s="12"/>
     </row>
-    <row r="319" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="319" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O319" s="12"/>
     </row>
-    <row r="320" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="320" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O320" s="12"/>
     </row>
-    <row r="321" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="321" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O321" s="12"/>
     </row>
-    <row r="322" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="322" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O322" s="12"/>
     </row>
-    <row r="323" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="323" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O323" s="12"/>
     </row>
-    <row r="324" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="324" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O324" s="12"/>
     </row>
-    <row r="325" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="325" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O325" s="12"/>
     </row>
-    <row r="326" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="326" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O326" s="12"/>
     </row>
-    <row r="327" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="327" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O327" s="12"/>
     </row>
-    <row r="328" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="328" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O328" s="12"/>
     </row>
-    <row r="329" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="329" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O329" s="12"/>
     </row>
-    <row r="330" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="330" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O330" s="12"/>
     </row>
-    <row r="331" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="331" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O331" s="12"/>
     </row>
-    <row r="332" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="332" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O332" s="12"/>
     </row>
-    <row r="333" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="333" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O333" s="12"/>
     </row>
-    <row r="334" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="334" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O334" s="12"/>
     </row>
-    <row r="335" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="335" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O335" s="12"/>
     </row>
-    <row r="336" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="336" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O336" s="12"/>
     </row>
-    <row r="337" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="337" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O337" s="12"/>
     </row>
-    <row r="338" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="338" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O338" s="12"/>
     </row>
-    <row r="339" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="339" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O339" s="12"/>
     </row>
-    <row r="340" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="340" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O340" s="12"/>
     </row>
-    <row r="341" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="341" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O341" s="12"/>
     </row>
-    <row r="342" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="342" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O342" s="12"/>
     </row>
-    <row r="343" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="343" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O343" s="12"/>
     </row>
-    <row r="344" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="344" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O344" s="12"/>
     </row>
-    <row r="345" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="345" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O345" s="12"/>
     </row>
-    <row r="346" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="346" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O346" s="12"/>
     </row>
-    <row r="347" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="347" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O347" s="12"/>
     </row>
-    <row r="348" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="348" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O348" s="12"/>
     </row>
-    <row r="349" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="349" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O349" s="12"/>
     </row>
-    <row r="350" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="350" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O350" s="12"/>
     </row>
-    <row r="351" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="351" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O351" s="12"/>
     </row>
-    <row r="352" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="352" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O352" s="12"/>
     </row>
-    <row r="353" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="353" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O353" s="12"/>
     </row>
-    <row r="354" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="354" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O354" s="12"/>
     </row>
-    <row r="355" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="355" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O355" s="12"/>
     </row>
-    <row r="356" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="356" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O356" s="12"/>
     </row>
-    <row r="357" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="357" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O357" s="12"/>
     </row>
-    <row r="358" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="358" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O358" s="12"/>
     </row>
-    <row r="359" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="359" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O359" s="12"/>
     </row>
-    <row r="360" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="360" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O360" s="12"/>
     </row>
-    <row r="361" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="361" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O361" s="12"/>
     </row>
-    <row r="362" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="362" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O362" s="12"/>
     </row>
-    <row r="363" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="363" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O363" s="12"/>
     </row>
-    <row r="364" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="364" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O364" s="12"/>
     </row>
-    <row r="365" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="365" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O365" s="12"/>
     </row>
-    <row r="366" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="366" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O366" s="12"/>
     </row>
-    <row r="367" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="367" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O367" s="12"/>
     </row>
-    <row r="368" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="368" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O368" s="12"/>
     </row>
-    <row r="369" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="369" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O369" s="12"/>
     </row>
-    <row r="370" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="370" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O370" s="12"/>
     </row>
-    <row r="371" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="371" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O371" s="12"/>
     </row>
-    <row r="372" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="372" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O372" s="12"/>
     </row>
-    <row r="373" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="373" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O373" s="12"/>
     </row>
-    <row r="374" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="374" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O374" s="12"/>
     </row>
-    <row r="375" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="375" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O375" s="12"/>
     </row>
-    <row r="376" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="376" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O376" s="12"/>
     </row>
-    <row r="377" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="377" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O377" s="12"/>
     </row>
-    <row r="378" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="378" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O378" s="12"/>
     </row>
-    <row r="379" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="379" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O379" s="12"/>
     </row>
-    <row r="380" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="380" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O380" s="12"/>
     </row>
-    <row r="381" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="381" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O381" s="12"/>
     </row>
-    <row r="382" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="382" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O382" s="12"/>
     </row>
-    <row r="383" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="383" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O383" s="12"/>
     </row>
-    <row r="384" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="384" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O384" s="12"/>
     </row>
-    <row r="385" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="385" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O385" s="12"/>
     </row>
-    <row r="386" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="386" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O386" s="12"/>
     </row>
-    <row r="387" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="387" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O387" s="12"/>
     </row>
-    <row r="388" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="388" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O388" s="12"/>
     </row>
-    <row r="389" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="389" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O389" s="12"/>
     </row>
-    <row r="390" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="390" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O390" s="12"/>
     </row>
-    <row r="391" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="391" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O391" s="12"/>
     </row>
-    <row r="392" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="392" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O392" s="12"/>
     </row>
-    <row r="393" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="393" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O393" s="12"/>
     </row>
-    <row r="394" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="394" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O394" s="12"/>
     </row>
-    <row r="395" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="395" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O395" s="12"/>
     </row>
-    <row r="396" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="396" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O396" s="12"/>
     </row>
-    <row r="397" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="397" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O397" s="12"/>
     </row>
-    <row r="398" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="398" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O398" s="12"/>
     </row>
-    <row r="399" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="399" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O399" s="12"/>
     </row>
-    <row r="400" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="400" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O400" s="12"/>
     </row>
-    <row r="401" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="401" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O401" s="12"/>
     </row>
-    <row r="402" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="402" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O402" s="12"/>
     </row>
-    <row r="403" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="403" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O403" s="12"/>
     </row>
-    <row r="404" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="404" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O404" s="12"/>
     </row>
-    <row r="405" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="405" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O405" s="12"/>
     </row>
-    <row r="406" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="406" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O406" s="12"/>
     </row>
-    <row r="407" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="407" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O407" s="12"/>
     </row>
-    <row r="408" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="408" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O408" s="12"/>
     </row>
-    <row r="409" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="409" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O409" s="12"/>
     </row>
-    <row r="410" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="410" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O410" s="12"/>
     </row>
-    <row r="411" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="411" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O411" s="12"/>
     </row>
-    <row r="412" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="412" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O412" s="12"/>
     </row>
-    <row r="413" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="413" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O413" s="12"/>
     </row>
-    <row r="414" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="414" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O414" s="12"/>
     </row>
-    <row r="415" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="415" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O415" s="12"/>
     </row>
-    <row r="416" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="416" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O416" s="12"/>
     </row>
-    <row r="417" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="417" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O417" s="12"/>
     </row>
-    <row r="418" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="418" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O418" s="12"/>
     </row>
-    <row r="419" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="419" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O419" s="12"/>
     </row>
-    <row r="420" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="420" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O420" s="12"/>
     </row>
-    <row r="421" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="421" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O421" s="12"/>
     </row>
-    <row r="422" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="422" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O422" s="12"/>
     </row>
-    <row r="423" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="423" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O423" s="12"/>
     </row>
-    <row r="424" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="424" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O424" s="12"/>
     </row>
-    <row r="425" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="425" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O425" s="12"/>
     </row>
-    <row r="426" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="426" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O426" s="12"/>
     </row>
-    <row r="427" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="427" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O427" s="12"/>
     </row>
-    <row r="428" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="428" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O428" s="12"/>
     </row>
-    <row r="429" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="429" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O429" s="12"/>
     </row>
-    <row r="430" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="430" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O430" s="12"/>
     </row>
-    <row r="431" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="431" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O431" s="12"/>
     </row>
-    <row r="432" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="432" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O432" s="12"/>
     </row>
-    <row r="433" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="433" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O433" s="12"/>
     </row>
-    <row r="434" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="434" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O434" s="12"/>
     </row>
-    <row r="435" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="435" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O435" s="12"/>
     </row>
-    <row r="436" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="436" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O436" s="12"/>
     </row>
-    <row r="437" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="437" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O437" s="12"/>
     </row>
-    <row r="438" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="438" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O438" s="12"/>
     </row>
-    <row r="439" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="439" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O439" s="12"/>
     </row>
-    <row r="440" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="440" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O440" s="12"/>
     </row>
-    <row r="441" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="441" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O441" s="12"/>
     </row>
-    <row r="442" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="442" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O442" s="12"/>
     </row>
-    <row r="443" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="443" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O443" s="12"/>
     </row>
-    <row r="444" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="444" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O444" s="12"/>
     </row>
-    <row r="445" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="445" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O445" s="12"/>
     </row>
-    <row r="446" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="446" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O446" s="12"/>
     </row>
-    <row r="447" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="447" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O447" s="12"/>
     </row>
-    <row r="448" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="448" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O448" s="12"/>
     </row>
-    <row r="449" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="449" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O449" s="12"/>
     </row>
-    <row r="450" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="450" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O450" s="12"/>
     </row>
-    <row r="451" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="451" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O451" s="12"/>
     </row>
-    <row r="452" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="452" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O452" s="12"/>
     </row>
-    <row r="453" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="453" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O453" s="12"/>
     </row>
-    <row r="454" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="454" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O454" s="12"/>
     </row>
-    <row r="455" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="455" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O455" s="12"/>
     </row>
-    <row r="456" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="456" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O456" s="12"/>
     </row>
-    <row r="457" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="457" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O457" s="12"/>
     </row>
-    <row r="458" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="458" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O458" s="12"/>
     </row>
-    <row r="459" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="459" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O459" s="12"/>
     </row>
-    <row r="460" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="460" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O460" s="12"/>
     </row>
-    <row r="461" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="461" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O461" s="12"/>
     </row>
-    <row r="462" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="462" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O462" s="12"/>
     </row>
-    <row r="463" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="463" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O463" s="12"/>
     </row>
-    <row r="464" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="464" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O464" s="12"/>
     </row>
-    <row r="465" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="465" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O465" s="12"/>
     </row>
-    <row r="466" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="466" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O466" s="12"/>
     </row>
-    <row r="467" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="467" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O467" s="12"/>
     </row>
-    <row r="468" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="468" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O468" s="12"/>
     </row>
-    <row r="469" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="469" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O469" s="12"/>
     </row>
-    <row r="470" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="470" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O470" s="12"/>
     </row>
-    <row r="471" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="471" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O471" s="12"/>
     </row>
-    <row r="472" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="472" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O472" s="12"/>
     </row>
-    <row r="473" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="473" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O473" s="12"/>
     </row>
-    <row r="474" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="474" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O474" s="12"/>
     </row>
-    <row r="475" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="475" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O475" s="12"/>
     </row>
-    <row r="476" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="476" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O476" s="12"/>
     </row>
-    <row r="477" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="477" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O477" s="12"/>
     </row>
-    <row r="478" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="478" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O478" s="12"/>
     </row>
-    <row r="479" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="479" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O479" s="12"/>
     </row>
-    <row r="480" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="480" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O480" s="12"/>
     </row>
-    <row r="481" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="481" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O481" s="12"/>
     </row>
-    <row r="482" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="482" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O482" s="12"/>
     </row>
-    <row r="483" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="483" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O483" s="12"/>
     </row>
-    <row r="484" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="484" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O484" s="12"/>
     </row>
-    <row r="485" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="485" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O485" s="12"/>
     </row>
-    <row r="486" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="486" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O486" s="12"/>
     </row>
-    <row r="487" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="487" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O487" s="12"/>
     </row>
-    <row r="488" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="488" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O488" s="12"/>
     </row>
-    <row r="489" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="489" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O489" s="12"/>
     </row>
-    <row r="490" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="490" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O490" s="12"/>
     </row>
-    <row r="491" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="491" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O491" s="12"/>
     </row>
-    <row r="492" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="492" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O492" s="12"/>
     </row>
-    <row r="493" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="493" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O493" s="12"/>
     </row>
-    <row r="494" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="494" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O494" s="12"/>
     </row>
-    <row r="495" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="495" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O495" s="12"/>
     </row>
-    <row r="496" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="496" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O496" s="12"/>
     </row>
-    <row r="497" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="497" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O497" s="12"/>
     </row>
-    <row r="498" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="498" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O498" s="12"/>
     </row>
-    <row r="499" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="499" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O499" s="12"/>
     </row>
-    <row r="500" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="500" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O500" s="12"/>
     </row>
-    <row r="501" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="501" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O501" s="12"/>
     </row>
-    <row r="502" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="502" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O502" s="12"/>
     </row>
-    <row r="503" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="503" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O503" s="12"/>
     </row>
-    <row r="504" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="504" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O504" s="12"/>
     </row>
-    <row r="505" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="505" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O505" s="12"/>
     </row>
-    <row r="506" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="506" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O506" s="12"/>
     </row>
-    <row r="507" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="507" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O507" s="12"/>
     </row>
-    <row r="508" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="508" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O508" s="12"/>
     </row>
-    <row r="509" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="509" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O509" s="12"/>
     </row>
-    <row r="510" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="510" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O510" s="12"/>
     </row>
-    <row r="511" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="511" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O511" s="12"/>
     </row>
-    <row r="512" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="512" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O512" s="12"/>
     </row>
-    <row r="513" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="513" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O513" s="12"/>
     </row>
-    <row r="514" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="514" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O514" s="12"/>
     </row>
-    <row r="515" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="515" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O515" s="12"/>
     </row>
-    <row r="516" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="516" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O516" s="12"/>
     </row>
-    <row r="517" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="517" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O517" s="12"/>
     </row>
-    <row r="518" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="518" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O518" s="12"/>
     </row>
-    <row r="519" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="519" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O519" s="12"/>
     </row>
-    <row r="520" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="520" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O520" s="12"/>
     </row>
-    <row r="521" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="521" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O521" s="12"/>
     </row>
-    <row r="522" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="522" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O522" s="12"/>
     </row>
-    <row r="523" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="523" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O523" s="12"/>
     </row>
-    <row r="524" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="524" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O524" s="12"/>
     </row>
-    <row r="525" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="525" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O525" s="12"/>
     </row>
-    <row r="526" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="526" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O526" s="12"/>
     </row>
-    <row r="527" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="527" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O527" s="12"/>
     </row>
-    <row r="528" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="528" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O528" s="12"/>
     </row>
-    <row r="529" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="529" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O529" s="12"/>
     </row>
-    <row r="530" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="530" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O530" s="12"/>
     </row>
-    <row r="531" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="531" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O531" s="12"/>
     </row>
-    <row r="532" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="532" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O532" s="12"/>
     </row>
-    <row r="533" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="533" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O533" s="12"/>
     </row>
-    <row r="534" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="534" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O534" s="12"/>
     </row>
-    <row r="535" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="535" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O535" s="12"/>
     </row>
-    <row r="536" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="536" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O536" s="12"/>
     </row>
-    <row r="537" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="537" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O537" s="12"/>
     </row>
-    <row r="538" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="538" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O538" s="12"/>
     </row>
-    <row r="539" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="539" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O539" s="12"/>
     </row>
-    <row r="540" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="540" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O540" s="12"/>
     </row>
-    <row r="541" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="541" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O541" s="12"/>
     </row>
-    <row r="542" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="542" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O542" s="12"/>
     </row>
-    <row r="543" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="543" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O543" s="12"/>
     </row>
-    <row r="544" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="544" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O544" s="12"/>
     </row>
-    <row r="545" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="545" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O545" s="12"/>
     </row>
-    <row r="546" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="546" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O546" s="12"/>
     </row>
-    <row r="547" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="547" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O547" s="12"/>
     </row>
-    <row r="548" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="548" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O548" s="12"/>
     </row>
-    <row r="549" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="549" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O549" s="12"/>
     </row>
-    <row r="550" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="550" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O550" s="12"/>
     </row>
-    <row r="551" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="551" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O551" s="12"/>
     </row>
-    <row r="552" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="552" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O552" s="12"/>
     </row>
-    <row r="553" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="553" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O553" s="12"/>
     </row>
-    <row r="554" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="554" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O554" s="12"/>
     </row>
-    <row r="555" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="555" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O555" s="12"/>
     </row>
-    <row r="556" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="556" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O556" s="12"/>
     </row>
-    <row r="557" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="557" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O557" s="12"/>
     </row>
-    <row r="558" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="558" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O558" s="12"/>
     </row>
-    <row r="559" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="559" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O559" s="12"/>
     </row>
-    <row r="560" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="560" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O560" s="12"/>
     </row>
-    <row r="561" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="561" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O561" s="12"/>
     </row>
-    <row r="562" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="562" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O562" s="12"/>
     </row>
-    <row r="563" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="563" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O563" s="12"/>
     </row>
-    <row r="564" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="564" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O564" s="12"/>
     </row>
-    <row r="565" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="565" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O565" s="12"/>
     </row>
-    <row r="566" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="566" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O566" s="12"/>
     </row>
-    <row r="567" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="567" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O567" s="12"/>
     </row>
-    <row r="568" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="568" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O568" s="12"/>
     </row>
-    <row r="569" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="569" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O569" s="12"/>
     </row>
-    <row r="570" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="570" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O570" s="12"/>
     </row>
-    <row r="571" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="571" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O571" s="12"/>
     </row>
-    <row r="572" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="572" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O572" s="12"/>
     </row>
-    <row r="573" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="573" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O573" s="12"/>
     </row>
-    <row r="574" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="574" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O574" s="12"/>
     </row>
-    <row r="575" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="575" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O575" s="12"/>
     </row>
-    <row r="576" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="576" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O576" s="12"/>
     </row>
-    <row r="577" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="577" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O577" s="12"/>
     </row>
-    <row r="578" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="578" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O578" s="12"/>
     </row>
-    <row r="579" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="579" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O579" s="12"/>
     </row>
-    <row r="580" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="580" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O580" s="12"/>
     </row>
-    <row r="581" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="581" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O581" s="12"/>
     </row>
-    <row r="582" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="582" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O582" s="12"/>
     </row>
-    <row r="583" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="583" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O583" s="12"/>
     </row>
-    <row r="584" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="584" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O584" s="12"/>
     </row>
-    <row r="585" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="585" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O585" s="12"/>
     </row>
-    <row r="586" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="586" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O586" s="12"/>
     </row>
-    <row r="587" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="587" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O587" s="12"/>
     </row>
-    <row r="588" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="588" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O588" s="12"/>
     </row>
-    <row r="589" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="589" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O589" s="12"/>
     </row>
-    <row r="590" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="590" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O590" s="12"/>
     </row>
-    <row r="591" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="591" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O591" s="12"/>
     </row>
-    <row r="592" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="592" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O592" s="12"/>
     </row>
-    <row r="593" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="593" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O593" s="12"/>
     </row>
-    <row r="594" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="594" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O594" s="12"/>
     </row>
-    <row r="595" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="595" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O595" s="12"/>
     </row>
-    <row r="596" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="596" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O596" s="12"/>
     </row>
-    <row r="597" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="597" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O597" s="12"/>
     </row>
-    <row r="598" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="598" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O598" s="12"/>
     </row>
-    <row r="599" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="599" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O599" s="12"/>
     </row>
-    <row r="600" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="600" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O600" s="12"/>
     </row>
-    <row r="601" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="601" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O601" s="12"/>
     </row>
-    <row r="602" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="602" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O602" s="12"/>
     </row>
-    <row r="603" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="603" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O603" s="12"/>
     </row>
-    <row r="604" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="604" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O604" s="12"/>
     </row>
-    <row r="605" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="605" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O605" s="12"/>
     </row>
-    <row r="606" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="606" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O606" s="12"/>
     </row>
-    <row r="607" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="607" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O607" s="12"/>
     </row>
-    <row r="608" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="608" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O608" s="12"/>
     </row>
-    <row r="609" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="609" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O609" s="12"/>
     </row>
-    <row r="610" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="610" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O610" s="12"/>
     </row>
-    <row r="611" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="611" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O611" s="12"/>
     </row>
-    <row r="612" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="612" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O612" s="12"/>
     </row>
-    <row r="613" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="613" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O613" s="12"/>
     </row>
-    <row r="614" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="614" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O614" s="12"/>
     </row>
-    <row r="615" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="615" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O615" s="12"/>
     </row>
-    <row r="616" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="616" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O616" s="12"/>
     </row>
-    <row r="617" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="617" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O617" s="12"/>
     </row>
-    <row r="618" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="618" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O618" s="12"/>
     </row>
-    <row r="619" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="619" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O619" s="12"/>
     </row>
-    <row r="620" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="620" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O620" s="12"/>
     </row>
-    <row r="621" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="621" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O621" s="12"/>
     </row>
-    <row r="622" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="622" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O622" s="12"/>
     </row>
-    <row r="623" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="623" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O623" s="12"/>
     </row>
-    <row r="624" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="624" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O624" s="12"/>
     </row>
-    <row r="625" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="625" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O625" s="12"/>
     </row>
-    <row r="626" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="626" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O626" s="12"/>
     </row>
-    <row r="627" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="627" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O627" s="12"/>
     </row>
-    <row r="628" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="628" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O628" s="12"/>
     </row>
-    <row r="629" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="629" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O629" s="12"/>
     </row>
-    <row r="630" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="630" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O630" s="12"/>
     </row>
-    <row r="631" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="631" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O631" s="12"/>
     </row>
-    <row r="632" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="632" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O632" s="12"/>
     </row>
-    <row r="633" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="633" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O633" s="12"/>
     </row>
-    <row r="634" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="634" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O634" s="12"/>
     </row>
-    <row r="635" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="635" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O635" s="12"/>
     </row>
-    <row r="636" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="636" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O636" s="12"/>
     </row>
-    <row r="637" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="637" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O637" s="12"/>
     </row>
-    <row r="638" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="638" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O638" s="12"/>
     </row>
-    <row r="639" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="639" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O639" s="12"/>
     </row>
-    <row r="640" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="640" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O640" s="12"/>
     </row>
-    <row r="641" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="641" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O641" s="12"/>
     </row>
-    <row r="642" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="642" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O642" s="12"/>
     </row>
-    <row r="643" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="643" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O643" s="12"/>
     </row>
-    <row r="644" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="644" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O644" s="12"/>
     </row>
-    <row r="645" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="645" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O645" s="12"/>
     </row>
-    <row r="646" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="646" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O646" s="12"/>
     </row>
-    <row r="647" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="647" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O647" s="12"/>
     </row>
-    <row r="648" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="648" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O648" s="12"/>
     </row>
-    <row r="649" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="649" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O649" s="12"/>
     </row>
-    <row r="650" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="650" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O650" s="12"/>
     </row>
-    <row r="651" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="651" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O651" s="12"/>
     </row>
-    <row r="652" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="652" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O652" s="12"/>
     </row>
-    <row r="653" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="653" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O653" s="12"/>
     </row>
-    <row r="654" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="654" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O654" s="12"/>
     </row>
-    <row r="655" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="655" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O655" s="12"/>
     </row>
-    <row r="656" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="656" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O656" s="12"/>
     </row>
-    <row r="657" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="657" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O657" s="12"/>
     </row>
-    <row r="658" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="658" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O658" s="12"/>
     </row>
-    <row r="659" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="659" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O659" s="12"/>
     </row>
-    <row r="660" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="660" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O660" s="12"/>
     </row>
-    <row r="661" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="661" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O661" s="12"/>
     </row>
-    <row r="662" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="662" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O662" s="12"/>
     </row>
-    <row r="663" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="663" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O663" s="12"/>
     </row>
-    <row r="664" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="664" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O664" s="12"/>
     </row>
-    <row r="665" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="665" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O665" s="12"/>
     </row>
-    <row r="666" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="666" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O666" s="12"/>
     </row>
-    <row r="667" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="667" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O667" s="12"/>
     </row>
-    <row r="668" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="668" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O668" s="12"/>
     </row>
-    <row r="669" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="669" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O669" s="12"/>
     </row>
-    <row r="670" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="670" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O670" s="12"/>
     </row>
-    <row r="671" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="671" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O671" s="12"/>
     </row>
-    <row r="672" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="672" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O672" s="12"/>
     </row>
-    <row r="673" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="673" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O673" s="12"/>
     </row>
-    <row r="674" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="674" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O674" s="12"/>
     </row>
-    <row r="675" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="675" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O675" s="12"/>
     </row>
-    <row r="676" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="676" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O676" s="12"/>
     </row>
-    <row r="677" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="677" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O677" s="12"/>
     </row>
-    <row r="678" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="678" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O678" s="12"/>
     </row>
-    <row r="679" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="679" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O679" s="12"/>
     </row>
-    <row r="680" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="680" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O680" s="12"/>
     </row>
-    <row r="681" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="681" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O681" s="12"/>
     </row>
-    <row r="682" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="682" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O682" s="12"/>
     </row>
-    <row r="683" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="683" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O683" s="12"/>
     </row>
-    <row r="684" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="684" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O684" s="12"/>
     </row>
-    <row r="685" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="685" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O685" s="12"/>
     </row>
-    <row r="686" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="686" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O686" s="12"/>
     </row>
-    <row r="687" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="687" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O687" s="12"/>
     </row>
-    <row r="688" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="688" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O688" s="12"/>
     </row>
-    <row r="689" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="689" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O689" s="12"/>
     </row>
-    <row r="690" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="690" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O690" s="12"/>
     </row>
-    <row r="691" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="691" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O691" s="12"/>
     </row>
-    <row r="692" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="692" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O692" s="12"/>
     </row>
-    <row r="693" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="693" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O693" s="12"/>
     </row>
-    <row r="694" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="694" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O694" s="12"/>
     </row>
-    <row r="695" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="695" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O695" s="12"/>
     </row>
-    <row r="696" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="696" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O696" s="12"/>
     </row>
-    <row r="697" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="697" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O697" s="12"/>
     </row>
-    <row r="698" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="698" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O698" s="12"/>
     </row>
-    <row r="699" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="699" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O699" s="12"/>
     </row>
-    <row r="700" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="700" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O700" s="12"/>
     </row>
-    <row r="701" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="701" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O701" s="12"/>
     </row>
-    <row r="702" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="702" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O702" s="12"/>
     </row>
-    <row r="703" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="703" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O703" s="12"/>
     </row>
-    <row r="704" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="704" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O704" s="12"/>
     </row>
-    <row r="705" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="705" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O705" s="12"/>
     </row>
-    <row r="706" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="706" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O706" s="12"/>
     </row>
-    <row r="707" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="707" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O707" s="12"/>
     </row>
-    <row r="708" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="708" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O708" s="12"/>
     </row>
-    <row r="709" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="709" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O709" s="12"/>
     </row>
-    <row r="710" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="710" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O710" s="12"/>
     </row>
-    <row r="711" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="711" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O711" s="12"/>
     </row>
-    <row r="712" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="712" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O712" s="12"/>
     </row>
-    <row r="713" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="713" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O713" s="12"/>
     </row>
-    <row r="714" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="714" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O714" s="12"/>
     </row>
-    <row r="715" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="715" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O715" s="12"/>
     </row>
-    <row r="716" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="716" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O716" s="12"/>
     </row>
-    <row r="717" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="717" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O717" s="12"/>
     </row>
-    <row r="718" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="718" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O718" s="12"/>
     </row>
-    <row r="719" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="719" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O719" s="12"/>
     </row>
-    <row r="720" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="720" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O720" s="12"/>
     </row>
-    <row r="721" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="721" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O721" s="12"/>
     </row>
-    <row r="722" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="722" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O722" s="12"/>
     </row>
-    <row r="723" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="723" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O723" s="12"/>
     </row>
-    <row r="724" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="724" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O724" s="12"/>
     </row>
-    <row r="725" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="725" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O725" s="12"/>
     </row>
-    <row r="726" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="726" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O726" s="12"/>
     </row>
-    <row r="727" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="727" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O727" s="12"/>
     </row>
-    <row r="728" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="728" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O728" s="12"/>
     </row>
-    <row r="729" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="729" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O729" s="12"/>
     </row>
-    <row r="730" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="730" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O730" s="12"/>
     </row>
-    <row r="731" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="731" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O731" s="12"/>
     </row>
-    <row r="732" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="732" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O732" s="12"/>
     </row>
-    <row r="733" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="733" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O733" s="12"/>
     </row>
-    <row r="734" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="734" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O734" s="12"/>
     </row>
-    <row r="735" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="735" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O735" s="12"/>
     </row>
-    <row r="736" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="736" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O736" s="12"/>
     </row>
-    <row r="737" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="737" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O737" s="12"/>
     </row>
-    <row r="738" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="738" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O738" s="12"/>
     </row>
-    <row r="739" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="739" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O739" s="12"/>
     </row>
-    <row r="740" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="740" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O740" s="12"/>
     </row>
-    <row r="741" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="741" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O741" s="12"/>
     </row>
-    <row r="742" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="742" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O742" s="12"/>
     </row>
-    <row r="743" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="743" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O743" s="12"/>
     </row>
-    <row r="744" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="744" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O744" s="12"/>
     </row>
-    <row r="745" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="745" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O745" s="12"/>
     </row>
-    <row r="746" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="746" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O746" s="12"/>
     </row>
-    <row r="747" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="747" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O747" s="12"/>
     </row>
-    <row r="748" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="748" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O748" s="12"/>
     </row>
-    <row r="749" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="749" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O749" s="12"/>
     </row>
-    <row r="750" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="750" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O750" s="12"/>
     </row>
-    <row r="751" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="751" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O751" s="12"/>
     </row>
-    <row r="752" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="752" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O752" s="12"/>
     </row>
-    <row r="753" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="753" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O753" s="12"/>
     </row>
-    <row r="754" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="754" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O754" s="12"/>
     </row>
-    <row r="755" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="755" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O755" s="12"/>
     </row>
-    <row r="756" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="756" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O756" s="12"/>
     </row>
-    <row r="757" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="757" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O757" s="12"/>
     </row>
-    <row r="758" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="758" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O758" s="12"/>
     </row>
-    <row r="759" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="759" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O759" s="12"/>
     </row>
-    <row r="760" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="760" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O760" s="12"/>
     </row>
-    <row r="761" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="761" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O761" s="12"/>
     </row>
-    <row r="762" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="762" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O762" s="12"/>
     </row>
-    <row r="763" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="763" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O763" s="12"/>
     </row>
-    <row r="764" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="764" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O764" s="12"/>
     </row>
-    <row r="765" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="765" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O765" s="12"/>
     </row>
-    <row r="766" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="766" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O766" s="12"/>
     </row>
-    <row r="767" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="767" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O767" s="12"/>
     </row>
-    <row r="768" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="768" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O768" s="12"/>
     </row>
-    <row r="769" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="769" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O769" s="12"/>
     </row>
-    <row r="770" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="770" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O770" s="12"/>
     </row>
-    <row r="771" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="771" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O771" s="12"/>
     </row>
-    <row r="772" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="772" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O772" s="12"/>
     </row>
-    <row r="773" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="773" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O773" s="12"/>
     </row>
-    <row r="774" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="774" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O774" s="12"/>
     </row>
-    <row r="775" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="775" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O775" s="12"/>
     </row>
-    <row r="776" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="776" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O776" s="12"/>
     </row>
-    <row r="777" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="777" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O777" s="12"/>
     </row>
-    <row r="778" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="778" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O778" s="12"/>
     </row>
-    <row r="779" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="779" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O779" s="12"/>
     </row>
-    <row r="780" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="780" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O780" s="12"/>
     </row>
-    <row r="781" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="781" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O781" s="12"/>
     </row>
-    <row r="782" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="782" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O782" s="12"/>
     </row>
-    <row r="783" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="783" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O783" s="12"/>
     </row>
-    <row r="784" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="784" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O784" s="12"/>
     </row>
-    <row r="785" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="785" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O785" s="12"/>
     </row>
-    <row r="786" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="786" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O786" s="12"/>
     </row>
-    <row r="787" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="787" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O787" s="12"/>
     </row>
-    <row r="788" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="788" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O788" s="12"/>
     </row>
-    <row r="789" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="789" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O789" s="12"/>
     </row>
-    <row r="790" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="790" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O790" s="12"/>
     </row>
-    <row r="791" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="791" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O791" s="12"/>
     </row>
-    <row r="792" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="792" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O792" s="12"/>
     </row>
-    <row r="793" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="793" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O793" s="12"/>
     </row>
-    <row r="794" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="794" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O794" s="12"/>
     </row>
-    <row r="795" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="795" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O795" s="12"/>
     </row>
-    <row r="796" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="796" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O796" s="12"/>
     </row>
-    <row r="797" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="797" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O797" s="12"/>
     </row>
-    <row r="798" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="798" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O798" s="12"/>
     </row>
-    <row r="799" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="799" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O799" s="12"/>
     </row>
-    <row r="800" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="800" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O800" s="12"/>
     </row>
-    <row r="801" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="801" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O801" s="12"/>
     </row>
-    <row r="802" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="802" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O802" s="12"/>
     </row>
-    <row r="803" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="803" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O803" s="12"/>
     </row>
-    <row r="804" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="804" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O804" s="12"/>
     </row>
-    <row r="805" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="805" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O805" s="12"/>
     </row>
-    <row r="806" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="806" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O806" s="12"/>
     </row>
-    <row r="807" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="807" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O807" s="12"/>
     </row>
-    <row r="808" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="808" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O808" s="12"/>
     </row>
-    <row r="809" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="809" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O809" s="12"/>
     </row>
-    <row r="810" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="810" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O810" s="12"/>
     </row>
-    <row r="811" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="811" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O811" s="12"/>
     </row>
-    <row r="812" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="812" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O812" s="12"/>
     </row>
-    <row r="813" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="813" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O813" s="12"/>
     </row>
-    <row r="814" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="814" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O814" s="12"/>
     </row>
-    <row r="815" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="815" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O815" s="12"/>
     </row>
-    <row r="816" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="816" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O816" s="12"/>
     </row>
-    <row r="817" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="817" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O817" s="12"/>
     </row>
-    <row r="818" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="818" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O818" s="12"/>
     </row>
-    <row r="819" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="819" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O819" s="12"/>
     </row>
-    <row r="820" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="820" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O820" s="12"/>
     </row>
-    <row r="821" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="821" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O821" s="12"/>
     </row>
-    <row r="822" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="822" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O822" s="12"/>
     </row>
-    <row r="823" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="823" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O823" s="12"/>
     </row>
-    <row r="824" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="824" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O824" s="12"/>
     </row>
-    <row r="825" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="825" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O825" s="12"/>
     </row>
-    <row r="826" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="826" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O826" s="12"/>
     </row>
-    <row r="827" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="827" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O827" s="12"/>
     </row>
-    <row r="828" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="828" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O828" s="12"/>
     </row>
-    <row r="829" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="829" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O829" s="12"/>
     </row>
-    <row r="830" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="830" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O830" s="12"/>
     </row>
-    <row r="831" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="831" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O831" s="12"/>
     </row>
-    <row r="832" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="832" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O832" s="12"/>
     </row>
-    <row r="833" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="833" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O833" s="12"/>
     </row>
-    <row r="834" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="834" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O834" s="12"/>
     </row>
-    <row r="835" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="835" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O835" s="12"/>
     </row>
-    <row r="836" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="836" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O836" s="12"/>
     </row>
-    <row r="837" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="837" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O837" s="12"/>
     </row>
-    <row r="838" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="838" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O838" s="12"/>
     </row>
-    <row r="839" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="839" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O839" s="12"/>
     </row>
-    <row r="840" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="840" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O840" s="12"/>
     </row>
-    <row r="841" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="841" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O841" s="12"/>
     </row>
-    <row r="842" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="842" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O842" s="12"/>
     </row>
-    <row r="843" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="843" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O843" s="12"/>
     </row>
-    <row r="844" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="844" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O844" s="12"/>
     </row>
-    <row r="845" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="845" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O845" s="12"/>
     </row>
-    <row r="846" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="846" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O846" s="12"/>
     </row>
-    <row r="847" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="847" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O847" s="12"/>
     </row>
-    <row r="848" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="848" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O848" s="12"/>
     </row>
-    <row r="849" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="849" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O849" s="12"/>
     </row>
-    <row r="850" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="850" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O850" s="12"/>
     </row>
-    <row r="851" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="851" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O851" s="12"/>
     </row>
-    <row r="852" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="852" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O852" s="12"/>
     </row>
-    <row r="853" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="853" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O853" s="12"/>
     </row>
-    <row r="854" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="854" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O854" s="12"/>
     </row>
-    <row r="855" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="855" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O855" s="12"/>
     </row>
-    <row r="856" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="856" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O856" s="12"/>
     </row>
-    <row r="857" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="857" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O857" s="12"/>
     </row>
-    <row r="858" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="858" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O858" s="12"/>
     </row>
-    <row r="859" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="859" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O859" s="12"/>
     </row>
-    <row r="860" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="860" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O860" s="12"/>
     </row>
-    <row r="861" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="861" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O861" s="12"/>
     </row>
-    <row r="862" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="862" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O862" s="12"/>
     </row>
-    <row r="863" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="863" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O863" s="12"/>
     </row>
-    <row r="864" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="864" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O864" s="12"/>
     </row>
-    <row r="865" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="865" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O865" s="12"/>
     </row>
-    <row r="866" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="866" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O866" s="12"/>
     </row>
-    <row r="867" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="867" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O867" s="12"/>
     </row>
-    <row r="868" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="868" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O868" s="12"/>
     </row>
-    <row r="869" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="869" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O869" s="12"/>
     </row>
-    <row r="870" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="870" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O870" s="12"/>
     </row>
-    <row r="871" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="871" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O871" s="12"/>
     </row>
-    <row r="872" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="872" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O872" s="12"/>
     </row>
-    <row r="873" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="873" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O873" s="12"/>
     </row>
-    <row r="874" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="874" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O874" s="12"/>
     </row>
-    <row r="875" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="875" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O875" s="12"/>
     </row>
-    <row r="876" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="876" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O876" s="12"/>
     </row>
-    <row r="877" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="877" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O877" s="12"/>
     </row>
-    <row r="878" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="878" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O878" s="12"/>
     </row>
-    <row r="879" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="879" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O879" s="12"/>
     </row>
-    <row r="880" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="880" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O880" s="12"/>
     </row>
-    <row r="881" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="881" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O881" s="12"/>
     </row>
-    <row r="882" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="882" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O882" s="12"/>
     </row>
-    <row r="883" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="883" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O883" s="12"/>
     </row>
-    <row r="884" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="884" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O884" s="12"/>
     </row>
-    <row r="885" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="885" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O885" s="12"/>
     </row>
-    <row r="886" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="886" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O886" s="12"/>
     </row>
-    <row r="887" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="887" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O887" s="12"/>
     </row>
-    <row r="888" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="888" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O888" s="12"/>
     </row>
-    <row r="889" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="889" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O889" s="12"/>
     </row>
-    <row r="890" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="890" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O890" s="12"/>
     </row>
-    <row r="891" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="891" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O891" s="12"/>
     </row>
-    <row r="892" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="892" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O892" s="12"/>
     </row>
-    <row r="893" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="893" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O893" s="12"/>
     </row>
-    <row r="894" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="894" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O894" s="12"/>
     </row>
-    <row r="895" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="895" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O895" s="12"/>
     </row>
-    <row r="896" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="896" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O896" s="12"/>
     </row>
-    <row r="897" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="897" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O897" s="12"/>
     </row>
-    <row r="898" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="898" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O898" s="12"/>
     </row>
-    <row r="899" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="899" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O899" s="12"/>
     </row>
-    <row r="900" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="900" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O900" s="12"/>
     </row>
-    <row r="901" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="901" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O901" s="12"/>
     </row>
-    <row r="902" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="902" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O902" s="12"/>
     </row>
-    <row r="903" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="903" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O903" s="12"/>
     </row>
-    <row r="904" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="904" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O904" s="12"/>
     </row>
-    <row r="905" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="905" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O905" s="12"/>
     </row>
-    <row r="906" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="906" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O906" s="12"/>
     </row>
-    <row r="907" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="907" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O907" s="12"/>
     </row>
-    <row r="908" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="908" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O908" s="12"/>
     </row>
-    <row r="909" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="909" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O909" s="12"/>
     </row>
-    <row r="910" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="910" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O910" s="12"/>
     </row>
-    <row r="911" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="911" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O911" s="12"/>
     </row>
-    <row r="912" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="912" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O912" s="12"/>
     </row>
-    <row r="913" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="913" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O913" s="12"/>
     </row>
-    <row r="914" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="914" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O914" s="12"/>
     </row>
-    <row r="915" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="915" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O915" s="12"/>
     </row>
-    <row r="916" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="916" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O916" s="12"/>
     </row>
-    <row r="917" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="917" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O917" s="12"/>
     </row>
-    <row r="918" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="918" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O918" s="12"/>
     </row>
-    <row r="919" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="919" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O919" s="12"/>
     </row>
-    <row r="920" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="920" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O920" s="12"/>
     </row>
-    <row r="921" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="921" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O921" s="12"/>
     </row>
-    <row r="922" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="922" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O922" s="12"/>
     </row>
-    <row r="923" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="923" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O923" s="12"/>
     </row>
-    <row r="924" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="924" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O924" s="12"/>
     </row>
-    <row r="925" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="925" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O925" s="12"/>
     </row>
-    <row r="926" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="926" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O926" s="12"/>
     </row>
-    <row r="927" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="927" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O927" s="12"/>
     </row>
-    <row r="928" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="928" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O928" s="12"/>
     </row>
-    <row r="929" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="929" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O929" s="12"/>
     </row>
-    <row r="930" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="930" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O930" s="12"/>
     </row>
-    <row r="931" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="931" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O931" s="12"/>
     </row>
-    <row r="932" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="932" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O932" s="12"/>
     </row>
-    <row r="933" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="933" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O933" s="12"/>
     </row>
-    <row r="934" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="934" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O934" s="12"/>
     </row>
-    <row r="935" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="935" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O935" s="12"/>
     </row>
-    <row r="936" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="936" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O936" s="12"/>
     </row>
-    <row r="937" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="937" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O937" s="12"/>
     </row>
-    <row r="938" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="938" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O938" s="12"/>
     </row>
-    <row r="939" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="939" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O939" s="12"/>
     </row>
-    <row r="940" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="940" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O940" s="12"/>
     </row>
-    <row r="941" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="941" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O941" s="12"/>
     </row>
-    <row r="942" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="942" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O942" s="12"/>
     </row>
-    <row r="943" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="943" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O943" s="12"/>
     </row>
-    <row r="944" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="944" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O944" s="12"/>
     </row>
-    <row r="945" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="945" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O945" s="12"/>
     </row>
-    <row r="946" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="946" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O946" s="12"/>
     </row>
-    <row r="947" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="947" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O947" s="12"/>
     </row>
-    <row r="948" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="948" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O948" s="12"/>
     </row>
-    <row r="949" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="949" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O949" s="12"/>
     </row>
-    <row r="950" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="950" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O950" s="12"/>
     </row>
-    <row r="951" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="951" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O951" s="12"/>
     </row>
-    <row r="952" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="952" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O952" s="12"/>
     </row>
-    <row r="953" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="953" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O953" s="12"/>
     </row>
-    <row r="954" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="954" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O954" s="12"/>
     </row>
-    <row r="955" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="955" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O955" s="12"/>
     </row>
-    <row r="956" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="956" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O956" s="12"/>
     </row>
-    <row r="957" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="957" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O957" s="12"/>
     </row>
-    <row r="958" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="958" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O958" s="12"/>
     </row>
-    <row r="959" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="959" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O959" s="12"/>
     </row>
-    <row r="960" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="960" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O960" s="12"/>
     </row>
-    <row r="961" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="961" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O961" s="12"/>
     </row>
-    <row r="962" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="962" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O962" s="12"/>
     </row>
-    <row r="963" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="963" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O963" s="12"/>
     </row>
-    <row r="964" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="964" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O964" s="12"/>
     </row>
-    <row r="965" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="965" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O965" s="12"/>
     </row>
-    <row r="966" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="966" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O966" s="12"/>
     </row>
-    <row r="967" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="967" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O967" s="12"/>
     </row>
-    <row r="968" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="968" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O968" s="12"/>
     </row>
-    <row r="969" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="969" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O969" s="12"/>
     </row>
-    <row r="970" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="970" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O970" s="12"/>
     </row>
-    <row r="971" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="971" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O971" s="12"/>
     </row>
-    <row r="972" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="972" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O972" s="12"/>
     </row>
-    <row r="973" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="973" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O973" s="12"/>
     </row>
-    <row r="974" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="974" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O974" s="12"/>
     </row>
-    <row r="975" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="975" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O975" s="12"/>
     </row>
-    <row r="976" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="976" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O976" s="12"/>
     </row>
-    <row r="977" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="977" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O977" s="12"/>
     </row>
-    <row r="978" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="978" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O978" s="12"/>
     </row>
-    <row r="979" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="979" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O979" s="12"/>
     </row>
-    <row r="980" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="980" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O980" s="12"/>
     </row>
-    <row r="981" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="981" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O981" s="12"/>
     </row>
-    <row r="982" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="982" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O982" s="12"/>
     </row>
-    <row r="983" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="983" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O983" s="12"/>
     </row>
-    <row r="984" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="984" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O984" s="12"/>
     </row>
-    <row r="985" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="985" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O985" s="12"/>
     </row>
-    <row r="986" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="986" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O986" s="12"/>
     </row>
-    <row r="987" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="987" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O987" s="12"/>
     </row>
-    <row r="988" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="988" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O988" s="12"/>
     </row>
-    <row r="989" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="989" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O989" s="12"/>
     </row>
-    <row r="990" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="990" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O990" s="12"/>
     </row>
-    <row r="991" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="991" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O991" s="12"/>
     </row>
-    <row r="992" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="992" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O992" s="12"/>
     </row>
-    <row r="993" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="993" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O993" s="12"/>
     </row>
-    <row r="994" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="994" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O994" s="12"/>
     </row>
-    <row r="995" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="995" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O995" s="12"/>
     </row>
-    <row r="996" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="996" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O996" s="12"/>
     </row>
-    <row r="997" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="997" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O997" s="12"/>
     </row>
-    <row r="998" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="998" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O998" s="12"/>
     </row>
-    <row r="999" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="999" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O999" s="12"/>
     </row>
-    <row r="1000" spans="15:15" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1000" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="O1000" s="12"/>
     </row>
   </sheetData>
@@ -8093,18 +8264,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3899771F-5C6B-4365-9D1C-2996D10ED7C3}">
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.1328125" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
@@ -8112,7 +8283,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8120,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8128,7 +8299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8136,7 +8307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8144,7 +8315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8152,7 +8323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8160,7 +8331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8168,7 +8339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8176,7 +8347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8184,7 +8355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8192,7 +8363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8200,59 +8371,185 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="16" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="13">
         <v>-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>253</v>
       </c>
       <c r="B18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B19" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="C19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24">
         <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/assets.xlsx
+++ b/assets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\JavaGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cuong\eclipse-workspace\PlatformGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD33730-00EC-4E3A-8FA7-E0039417AF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF516B66-44B8-4565-A333-738C506E16A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="asset" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="272">
   <si>
     <t>Name</t>
   </si>
@@ -1020,7 +1020,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1290,10 +1318,10 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Trang tính1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="firstRowStripe" dxfId="23"/>
-      <tableStyleElement type="secondRowStripe" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="firstRowStripe" dxfId="24"/>
+      <tableStyleElement type="secondRowStripe" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1308,8 +1336,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="item" displayName="item" ref="A1:Q71">
-  <autoFilter ref="A1:Q71" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="item" displayName="item" ref="A1:R71">
+  <autoFilter ref="A1:R71" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1327,22 +1355,26 @@
     <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
     <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="17">
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HP" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DEF" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ATK_UP" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="HP_UP" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DEF_UP" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SPEED_UP" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DMG_UP" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DMG_DOWN" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="HEAL" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="MANA" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Effect" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HP" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DEF" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ATK_UP" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="HP_UP" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DEF_UP" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SPEED_UP" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DMG_UP" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DMG_DOWN" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="HEAL" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="MANA" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Effect" dataDxfId="11">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(",",TRUE,B2:L2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{565B05B9-A401-4100-861F-1276F52618F2}" name="Sell" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> IF(O2&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Slot"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Ability"/>
@@ -1354,7 +1386,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BBFDFE2-02AF-4419-9831-1C144A78DA91}" name="Table3" displayName="Table3" ref="A2:B13" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BBFDFE2-02AF-4419-9831-1C144A78DA91}" name="Table3" displayName="Table3" ref="A2:B13" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A2:B13" xr:uid="{6BBFDFE2-02AF-4419-9831-1C144A78DA91}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1368,7 +1400,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}" name="Table25" displayName="Table25" ref="A15:E19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}" name="Table25" displayName="Table25" ref="A15:E19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A15:E19" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1377,18 +1409,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D769D674-B34F-494C-8038-E3794DD8B6EC}" name="Slot" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{5628AAA4-363B-4FA4-8343-1E99D6F71D56}" name="Value" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{1C8EB72E-5EF1-492E-8BE7-0587E314D85F}" name="Equip/Use" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{78A38015-66C7-4A3E-BC6D-7EB6E7DF082E}" name="Drop" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{2F60684A-BBAF-4052-BFFB-0763531FCA64}" name="Sell" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D769D674-B34F-494C-8038-E3794DD8B6EC}" name="Slot" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{5628AAA4-363B-4FA4-8343-1E99D6F71D56}" name="Value" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{1C8EB72E-5EF1-492E-8BE7-0587E314D85F}" name="Equip/Use" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{78A38015-66C7-4A3E-BC6D-7EB6E7DF082E}" name="Drop" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{2F60684A-BBAF-4052-BFFB-0763531FCA64}" name="Sell" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Trang tính1-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}" name="Table5" displayName="Table5" ref="A21:B31" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}" name="Table5" displayName="Table5" ref="A21:B31" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A21:B31" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1605,11 +1637,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1627,13 +1659,14 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="107.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.5703125" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="141.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1674,19 +1707,22 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1727,20 +1763,24 @@
         <f t="shared" ref="M2:M33" si="0">_xlfn.TEXTJOIN(",",TRUE,B2:L2)</f>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="6">
+        <f t="shared" ref="N2:N33" ca="1" si="1" xml:space="preserve"> IF(O2&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</f>
+        <v>101</v>
+      </c>
+      <c r="O2" s="5">
         <v>-2</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1781,20 +1821,22 @@
         <f t="shared" si="0"/>
         <v>0,50,100,0,0,0,0,0,0.2,0,0</v>
       </c>
-      <c r="N3" s="5">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1835,20 +1877,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="O4" s="17">
         <v>-3</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1889,20 +1935,24 @@
         <f t="shared" si="0"/>
         <v>50,50,50,0,0,0,0,0.2,0.2,0,0</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>371</v>
+      </c>
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1943,20 +1993,24 @@
         <f t="shared" si="0"/>
         <v>0,10,10,0,0,0,0.2,0,0,0,0</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>741</v>
+      </c>
+      <c r="O6" s="5">
         <v>5</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="R6" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1997,20 +2051,24 @@
         <f t="shared" si="0"/>
         <v>0,30,30,0,0,0,0.3,0,0,0,0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>923</v>
+      </c>
+      <c r="O7" s="5">
         <v>5</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="R7" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -2051,20 +2109,24 @@
         <f t="shared" si="0"/>
         <v>80,30,10,0,0,0,0.2,0,0,0,0</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="O8" s="5">
         <v>2</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="R8" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -2105,20 +2167,24 @@
         <f t="shared" si="0"/>
         <v>200,100,100,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="O9" s="5">
         <v>2</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -2159,20 +2225,24 @@
         <f t="shared" si="0"/>
         <v>50,100,100,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="O10" s="5">
         <v>1</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
@@ -2213,20 +2283,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="O11" s="5">
         <v>1</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -2267,20 +2341,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="O12" s="5">
         <v>-2</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="R12" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -2321,20 +2399,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,50,0</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="O13" s="5">
         <v>-1</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="R13" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -2375,20 +2457,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="O14" s="17">
         <v>-3</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="Q14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="R14" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -2429,20 +2515,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="O15" s="17">
         <v>-3</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="R15" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -2483,20 +2573,24 @@
         <f t="shared" si="0"/>
         <v>150,150,100,0,0,0,0,0.5,0.3,0,0</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1036</v>
+      </c>
+      <c r="O16" s="5">
         <v>1</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="Q16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="R16" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -2537,20 +2631,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="O17" s="17">
         <v>-3</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="P17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="Q17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="R17" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
@@ -2591,20 +2689,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="O18" s="17">
         <v>-3</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="R18" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
@@ -2645,20 +2747,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,50,0</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="O19" s="5">
         <v>-1</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="P19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="Q19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="R19" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -2699,20 +2805,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="O20" s="17">
         <v>-3</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="P20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="Q20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="R20" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -2753,20 +2863,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0.2,0,0,0,0</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="O21" s="17">
         <v>-3</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="P21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="Q21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="R21" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -2807,20 +2921,24 @@
         <f t="shared" si="0"/>
         <v>0,50,50,0,0,0,0.3,0.4,0,0,0</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>962</v>
+      </c>
+      <c r="O22" s="5">
         <v>1</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="Q22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="R22" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>90</v>
       </c>
@@ -2861,20 +2979,24 @@
         <f t="shared" si="0"/>
         <v>200,100,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="O23" s="5">
         <v>1</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="Q23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="R23" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>94</v>
       </c>
@@ -2915,20 +3037,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="O24" s="17">
         <v>-3</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="P24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="Q24" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="R24" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
@@ -2969,20 +3095,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="O25" s="17">
         <v>-3</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="Q25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="R25" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>98</v>
       </c>
@@ -3023,20 +3153,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O26" s="17">
         <v>-3</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="Q26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="R26" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>100</v>
       </c>
@@ -3077,20 +3211,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,50,0</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O27" s="5">
         <v>-1</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="P27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="Q27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="R27" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
@@ -3131,20 +3269,24 @@
         <f t="shared" si="0"/>
         <v>30,100,100,0,0,0,0,0,0.2,0,0</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="O28" s="5">
         <v>1</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="P28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="Q28" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="R28" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -3185,20 +3327,24 @@
         <f t="shared" si="0"/>
         <v>100,200,200,0,0,0,0,0,0.5,0,0</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="O29" s="5">
         <v>1</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="P29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="Q29" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="R29" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>111</v>
       </c>
@@ -3239,20 +3385,24 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,150,0</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="O30" s="5">
         <v>-1</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="P30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="Q30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="R30" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>115</v>
       </c>
@@ -3293,20 +3443,24 @@
         <f t="shared" si="0"/>
         <v>100,50,0,0,0,0,0,0.3,0,0,0</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>723</v>
+      </c>
+      <c r="O31" s="5">
         <v>2</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="P31" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="Q31" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="R31" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>119</v>
       </c>
@@ -3347,20 +3501,24 @@
         <f t="shared" si="0"/>
         <v>100,50,0,0,0,0,0,0.3,0,0,0</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>956</v>
+      </c>
+      <c r="O32" s="5">
         <v>2</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="P32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="Q32" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="R32" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>121</v>
       </c>
@@ -3401,20 +3559,24 @@
         <f t="shared" si="0"/>
         <v>100,50,0,0,0,0,0,0.3,0,0,0</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="O33" s="5">
         <v>2</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="P33" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="Q33" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="R33" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
@@ -3452,23 +3614,27 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="str">
-        <f t="shared" ref="M34:M65" si="1">_xlfn.TEXTJOIN(",",TRUE,B34:L34)</f>
+        <f t="shared" ref="M34:M65" si="2">_xlfn.TEXTJOIN(",",TRUE,B34:L34)</f>
         <v>0,0,0,0,0,0,0,0,0,300,0</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="6">
+        <f t="shared" ref="N34:N65" ca="1" si="3" xml:space="preserve"> IF(O34&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</f>
+        <v>89</v>
+      </c>
+      <c r="O34" s="5">
         <v>-1</v>
       </c>
-      <c r="O34" s="6" t="s">
+      <c r="P34" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="Q34" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="Q34" s="7" t="s">
+      <c r="R34" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>127</v>
       </c>
@@ -3506,23 +3672,27 @@
         <v>0</v>
       </c>
       <c r="M35" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20,50,50,0,0,0,0,0,0.3,0,0</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1033</v>
+      </c>
+      <c r="O35" s="5">
         <v>3</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="P35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="Q35" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="Q35" s="7" t="s">
+      <c r="R35" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -3560,23 +3730,27 @@
         <v>0</v>
       </c>
       <c r="M36" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="O36" s="17">
         <v>-3</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="P36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="Q36" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="Q36" s="7" t="s">
+      <c r="R36" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>133</v>
       </c>
@@ -3614,23 +3788,27 @@
         <v>0</v>
       </c>
       <c r="M37" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="17">
         <v>-3</v>
       </c>
-      <c r="O37" s="6" t="s">
+      <c r="P37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P37" s="6" t="s">
+      <c r="Q37" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="Q37" s="7" t="s">
+      <c r="R37" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>135</v>
       </c>
@@ -3668,23 +3846,27 @@
         <v>0</v>
       </c>
       <c r="M38" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,80,50,0,0,0,0,0,0.2,0,0</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="O38" s="5">
         <v>3</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="P38" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="Q38" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Q38" s="7" t="s">
+      <c r="R38" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>138</v>
       </c>
@@ -3722,23 +3904,27 @@
         <v>0</v>
       </c>
       <c r="M39" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,80,50,0,0,0,0,0,0.2,0,0</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="O39" s="5">
         <v>1</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="P39" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="Q39" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q39" s="7" t="s">
+      <c r="R39" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>141</v>
       </c>
@@ -3776,23 +3962,27 @@
         <v>0</v>
       </c>
       <c r="M40" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30,80,30,0,0,0,0.3,0,0,0,0</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>401</v>
+      </c>
+      <c r="O40" s="5">
         <v>5</v>
       </c>
-      <c r="O40" s="6" t="s">
+      <c r="P40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P40" s="6" t="s">
+      <c r="Q40" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q40" s="7" t="s">
+      <c r="R40" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3830,23 +4020,27 @@
         <v>0</v>
       </c>
       <c r="M41" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,30,20,0,0,0,0.1,0,0,0,0</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>931</v>
+      </c>
+      <c r="O41" s="5">
         <v>5</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="P41" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="Q41" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="Q41" s="7" t="s">
+      <c r="R41" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>149</v>
       </c>
@@ -3884,23 +4078,27 @@
         <v>0</v>
       </c>
       <c r="M42" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,50,50,0,0,0,0.3,0,0,0,0</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1074</v>
+      </c>
+      <c r="O42" s="5">
         <v>1</v>
       </c>
-      <c r="O42" s="6" t="s">
+      <c r="P42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P42" s="6" t="s">
+      <c r="Q42" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="Q42" s="7" t="s">
+      <c r="R42" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>152</v>
       </c>
@@ -3938,23 +4136,27 @@
         <v>0</v>
       </c>
       <c r="M43" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N43" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="O43" s="17">
         <v>-3</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="P43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="Q43" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="Q43" s="7" t="s">
+      <c r="R43" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
@@ -3992,23 +4194,27 @@
         <v>0</v>
       </c>
       <c r="M44" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,300,0</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="O44" s="5">
         <v>-1</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="P44" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="Q44" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="Q44" s="7" t="s">
+      <c r="R44" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>157</v>
       </c>
@@ -4046,23 +4252,27 @@
         <v>0</v>
       </c>
       <c r="M45" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50,100,150,0,0,0,0.3,0,0.3,0,0</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="O45" s="5">
         <v>1</v>
       </c>
-      <c r="O45" s="6" t="s">
+      <c r="P45" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="P45" s="6" t="s">
+      <c r="Q45" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="Q45" s="7" t="s">
+      <c r="R45" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>161</v>
       </c>
@@ -4100,23 +4310,27 @@
         <v>0</v>
       </c>
       <c r="M46" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,50,0</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="O46" s="5">
         <v>-1</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="P46" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P46" s="6" t="s">
+      <c r="Q46" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="Q46" s="7" t="s">
+      <c r="R46" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>164</v>
       </c>
@@ -4154,23 +4368,27 @@
         <v>0</v>
       </c>
       <c r="M47" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,50,50,0,0,100,0,0,0,0,0</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>745</v>
+      </c>
+      <c r="O47" s="5">
         <v>7</v>
       </c>
-      <c r="O47" s="6" t="s">
+      <c r="P47" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="P47" s="6" t="s">
+      <c r="Q47" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="Q47" s="7" t="s">
+      <c r="R47" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>168</v>
       </c>
@@ -4208,23 +4426,27 @@
         <v>0</v>
       </c>
       <c r="M48" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,80,80,0,0,200,0,0,0,0,0</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1041</v>
+      </c>
+      <c r="O48" s="5">
         <v>7</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="P48" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="P48" s="6" t="s">
+      <c r="Q48" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="Q48" s="7" t="s">
+      <c r="R48" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>172</v>
       </c>
@@ -4262,23 +4484,27 @@
         <v>0</v>
       </c>
       <c r="M49" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,150,0,0</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="O49" s="5">
         <v>-1</v>
       </c>
-      <c r="O49" s="6" t="s">
+      <c r="P49" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="P49" s="6" t="s">
+      <c r="Q49" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q49" s="7" t="s">
+      <c r="R49" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>175</v>
       </c>
@@ -4316,23 +4542,27 @@
         <v>0</v>
       </c>
       <c r="M50" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="O50" s="5">
         <v>-1</v>
       </c>
-      <c r="O50" s="6" t="s">
+      <c r="P50" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="P50" s="6" t="s">
+      <c r="Q50" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="Q50" s="7" t="s">
+      <c r="R50" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>179</v>
       </c>
@@ -4370,23 +4600,27 @@
         <v>0</v>
       </c>
       <c r="M51" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="O51" s="5">
         <v>-2</v>
       </c>
-      <c r="O51" s="6" t="s">
+      <c r="P51" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="P51" s="6" t="s">
+      <c r="Q51" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Q51" s="7" t="s">
+      <c r="R51" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>183</v>
       </c>
@@ -4424,23 +4658,27 @@
         <v>0</v>
       </c>
       <c r="M52" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,50,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1108</v>
+      </c>
+      <c r="O52" s="5">
         <v>1</v>
       </c>
-      <c r="O52" s="6" t="s">
+      <c r="P52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="Q52" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="Q52" s="7" t="s">
+      <c r="R52" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>186</v>
       </c>
@@ -4478,23 +4716,27 @@
         <v>0</v>
       </c>
       <c r="M53" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50,200,100,0,0,0,0,0,0.4,0,0</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N53" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>607</v>
+      </c>
+      <c r="O53" s="5">
         <v>1</v>
       </c>
-      <c r="O53" s="6" t="s">
+      <c r="P53" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="P53" s="6" t="s">
+      <c r="Q53" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="Q53" s="7" t="s">
+      <c r="R53" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>190</v>
       </c>
@@ -4532,23 +4774,27 @@
         <v>0</v>
       </c>
       <c r="M54" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,150,0</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N54" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="O54" s="5">
         <v>-1</v>
       </c>
-      <c r="O54" s="6" t="s">
+      <c r="P54" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="P54" s="6" t="s">
+      <c r="Q54" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="Q54" s="7" t="s">
+      <c r="R54" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>193</v>
       </c>
@@ -4586,23 +4832,27 @@
         <v>0</v>
       </c>
       <c r="M55" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0.1,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="O55" s="5">
         <v>-1</v>
       </c>
-      <c r="O55" s="6" t="s">
+      <c r="P55" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="P55" s="6" t="s">
+      <c r="Q55" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="Q55" s="7" t="s">
+      <c r="R55" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>197</v>
       </c>
@@ -4640,23 +4890,27 @@
         <v>0</v>
       </c>
       <c r="M56" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,100,100,0,0,0,0,0,0.45,0,0</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>985</v>
+      </c>
+      <c r="O56" s="5">
         <v>8</v>
       </c>
-      <c r="O56" s="6" t="s">
+      <c r="P56" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="P56" s="6" t="s">
+      <c r="Q56" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="Q56" s="7" t="s">
+      <c r="R56" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>201</v>
       </c>
@@ -4694,23 +4948,27 @@
         <v>0</v>
       </c>
       <c r="M57" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80,150,200,0,0,0,0,0,0.45,0,0</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N57" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>595</v>
+      </c>
+      <c r="O57" s="5">
         <v>8</v>
       </c>
-      <c r="O57" s="6" t="s">
+      <c r="P57" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="P57" s="6" t="s">
+      <c r="Q57" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q57" s="7" t="s">
+      <c r="R57" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>205</v>
       </c>
@@ -4748,23 +5006,27 @@
         <v>0</v>
       </c>
       <c r="M58" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250,100,100,0.3,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N58" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>284</v>
+      </c>
+      <c r="O58" s="5">
         <v>2</v>
       </c>
-      <c r="O58" s="6" t="s">
+      <c r="P58" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="Q58" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="Q58" s="7" t="s">
+      <c r="R58" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>209</v>
       </c>
@@ -4802,23 +5064,27 @@
         <v>0</v>
       </c>
       <c r="M59" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200,100,100,0,0,0,0,0.2,0,0,0</v>
       </c>
-      <c r="N59" s="5">
+      <c r="N59" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>379</v>
+      </c>
+      <c r="O59" s="5">
         <v>2</v>
       </c>
-      <c r="O59" s="6" t="s">
+      <c r="P59" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="P59" s="6" t="s">
+      <c r="Q59" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="Q59" s="7" t="s">
+      <c r="R59" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>212</v>
       </c>
@@ -4856,23 +5122,27 @@
         <v>0</v>
       </c>
       <c r="M60" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250,80,80,0.3,0,0,0,0.45,0,0,0</v>
       </c>
-      <c r="N60" s="5">
-        <v>0</v>
-      </c>
-      <c r="O60" s="6" t="s">
+      <c r="N60" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>335</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0</v>
+      </c>
+      <c r="P60" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="P60" s="6" t="s">
+      <c r="Q60" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="Q60" s="7" t="s">
+      <c r="R60" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>216</v>
       </c>
@@ -4910,23 +5180,27 @@
         <v>0</v>
       </c>
       <c r="M61" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N61" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="O61" s="17">
         <v>-3</v>
       </c>
-      <c r="O61" s="6" t="s">
+      <c r="P61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P61" s="6" t="s">
+      <c r="Q61" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="Q61" s="7" t="s">
+      <c r="R61" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>218</v>
       </c>
@@ -4964,23 +5238,27 @@
         <v>0</v>
       </c>
       <c r="M62" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150,80,80,0,0,0,0,0.2,0,0,0</v>
       </c>
-      <c r="N62" s="5">
-        <v>0</v>
-      </c>
-      <c r="O62" s="6" t="s">
+      <c r="N62" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>483</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="P62" s="6" t="s">
+      <c r="Q62" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="Q62" s="7" t="s">
+      <c r="R62" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>220</v>
       </c>
@@ -5018,23 +5296,27 @@
         <v>0</v>
       </c>
       <c r="M63" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250,100,100,0.3,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N63" s="5">
-        <v>0</v>
-      </c>
-      <c r="O63" s="6" t="s">
+      <c r="N63" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0</v>
+      </c>
+      <c r="P63" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="Q63" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q63" s="7" t="s">
+      <c r="R63" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>222</v>
       </c>
@@ -5072,23 +5354,27 @@
         <v>0</v>
       </c>
       <c r="M64" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150,150,150,0,0,0,0,0.15,0,0,0</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N64" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1043</v>
+      </c>
+      <c r="O64" s="5">
         <v>1</v>
       </c>
-      <c r="O64" s="6" t="s">
+      <c r="P64" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="P64" s="6" t="s">
+      <c r="Q64" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q64" s="7" t="s">
+      <c r="R64" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>227</v>
       </c>
@@ -5126,23 +5412,27 @@
         <v>0</v>
       </c>
       <c r="M65" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,100,0</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N65" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="O65" s="5">
         <v>-1</v>
       </c>
-      <c r="O65" s="6" t="s">
+      <c r="P65" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="P65" s="6" t="s">
+      <c r="Q65" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q65" s="7" t="s">
+      <c r="R65" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>231</v>
       </c>
@@ -5180,23 +5470,27 @@
         <v>0</v>
       </c>
       <c r="M66" s="6" t="str">
-        <f t="shared" ref="M66:M71" si="2">_xlfn.TEXTJOIN(",",TRUE,B66:L66)</f>
+        <f t="shared" ref="M66:M71" si="4">_xlfn.TEXTJOIN(",",TRUE,B66:L66)</f>
         <v>100,200,80,0.3,0,0.3,0,0,0,0,0</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66" s="6">
+        <f t="shared" ref="N66:N97" ca="1" si="5" xml:space="preserve"> IF(O66&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</f>
+        <v>939</v>
+      </c>
+      <c r="O66" s="5">
         <v>2</v>
       </c>
-      <c r="O66" s="6" t="s">
+      <c r="P66" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="P66" s="6" t="s">
+      <c r="Q66" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q66" s="7" t="s">
+      <c r="R66" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>235</v>
       </c>
@@ -5234,23 +5528,27 @@
         <v>0</v>
       </c>
       <c r="M67" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>200,300,150,0.45,0,0.45,0,0,0,0,0</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>122</v>
+      </c>
+      <c r="O67" s="5">
         <v>2</v>
       </c>
-      <c r="O67" s="6" t="s">
+      <c r="P67" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="P67" s="6" t="s">
+      <c r="Q67" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="Q67" s="7" t="s">
+      <c r="R67" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>239</v>
       </c>
@@ -5288,23 +5586,27 @@
         <v>0</v>
       </c>
       <c r="M68" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N68" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="O68" s="5">
         <v>-2</v>
       </c>
-      <c r="O68" s="6" t="s">
+      <c r="P68" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P68" s="6" t="s">
+      <c r="Q68" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="Q68" s="7" t="s">
+      <c r="R68" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>242</v>
       </c>
@@ -5342,23 +5644,27 @@
         <v>0</v>
       </c>
       <c r="M69" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,100,0</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N69" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="O69" s="5">
         <v>-1</v>
       </c>
-      <c r="O69" s="6" t="s">
+      <c r="P69" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="P69" s="6" t="s">
+      <c r="Q69" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="Q69" s="7" t="s">
+      <c r="R69" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>245</v>
       </c>
@@ -5396,23 +5702,27 @@
         <v>0</v>
       </c>
       <c r="M70" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N70" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="O70" s="5">
         <v>-1</v>
       </c>
-      <c r="O70" s="6" t="s">
+      <c r="P70" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="P70" s="6" t="s">
+      <c r="Q70" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="Q70" s="7" t="s">
+      <c r="R70" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>249</v>
       </c>
@@ -5450,2808 +5760,2812 @@
         <v>0</v>
       </c>
       <c r="M71" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20,100,100,0,0,0,0,0,0.2,0,0</v>
       </c>
-      <c r="N71" s="9">
+      <c r="N71" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="O71" s="9">
         <v>8</v>
       </c>
-      <c r="O71" s="10" t="s">
+      <c r="P71" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P71" s="10" t="s">
+      <c r="Q71" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="R71" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O72" s="12"/>
-    </row>
-    <row r="73" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O73" s="12"/>
-    </row>
-    <row r="74" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O74" s="12"/>
-    </row>
-    <row r="75" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O75" s="12"/>
-    </row>
-    <row r="76" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O76" s="12"/>
-    </row>
-    <row r="77" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O77" s="12"/>
-    </row>
-    <row r="78" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O78" s="12"/>
-    </row>
-    <row r="79" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O79" s="12"/>
-    </row>
-    <row r="80" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O80" s="12"/>
-    </row>
-    <row r="81" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O81" s="12"/>
-    </row>
-    <row r="82" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O82" s="12"/>
-    </row>
-    <row r="83" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O83" s="12"/>
-    </row>
-    <row r="84" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O84" s="12"/>
-    </row>
-    <row r="85" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O85" s="12"/>
-    </row>
-    <row r="86" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O86" s="12"/>
-    </row>
-    <row r="87" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O87" s="12"/>
-    </row>
-    <row r="88" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O88" s="12"/>
-    </row>
-    <row r="89" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O89" s="12"/>
-    </row>
-    <row r="90" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O90" s="12"/>
-    </row>
-    <row r="91" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O91" s="12"/>
-    </row>
-    <row r="92" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O92" s="12"/>
-    </row>
-    <row r="93" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O93" s="12"/>
-    </row>
-    <row r="94" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O94" s="12"/>
-    </row>
-    <row r="95" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O95" s="12"/>
-    </row>
-    <row r="96" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O96" s="12"/>
-    </row>
-    <row r="97" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O97" s="12"/>
-    </row>
-    <row r="98" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O98" s="12"/>
-    </row>
-    <row r="99" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O99" s="12"/>
-    </row>
-    <row r="100" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O100" s="12"/>
-    </row>
-    <row r="101" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O101" s="12"/>
-    </row>
-    <row r="102" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O102" s="12"/>
-    </row>
-    <row r="103" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O103" s="12"/>
-    </row>
-    <row r="104" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O104" s="12"/>
-    </row>
-    <row r="105" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O105" s="12"/>
-    </row>
-    <row r="106" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O106" s="12"/>
-    </row>
-    <row r="107" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O107" s="12"/>
-    </row>
-    <row r="108" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O108" s="12"/>
-    </row>
-    <row r="109" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O109" s="12"/>
-    </row>
-    <row r="110" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O110" s="12"/>
-    </row>
-    <row r="111" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O111" s="12"/>
-    </row>
-    <row r="112" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O112" s="12"/>
-    </row>
-    <row r="113" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O113" s="12"/>
-    </row>
-    <row r="114" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O114" s="12"/>
-    </row>
-    <row r="115" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O115" s="12"/>
-    </row>
-    <row r="116" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O116" s="12"/>
-    </row>
-    <row r="117" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O117" s="12"/>
-    </row>
-    <row r="118" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O118" s="12"/>
-    </row>
-    <row r="119" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O119" s="12"/>
-    </row>
-    <row r="120" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O120" s="12"/>
-    </row>
-    <row r="121" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O121" s="12"/>
-    </row>
-    <row r="122" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O122" s="12"/>
-    </row>
-    <row r="123" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O123" s="12"/>
-    </row>
-    <row r="124" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O124" s="12"/>
-    </row>
-    <row r="125" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O125" s="12"/>
-    </row>
-    <row r="126" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O126" s="12"/>
-    </row>
-    <row r="127" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O127" s="12"/>
-    </row>
-    <row r="128" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O128" s="12"/>
-    </row>
-    <row r="129" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O129" s="12"/>
-    </row>
-    <row r="130" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O130" s="12"/>
-    </row>
-    <row r="131" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O131" s="12"/>
-    </row>
-    <row r="132" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O132" s="12"/>
-    </row>
-    <row r="133" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O133" s="12"/>
-    </row>
-    <row r="134" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O134" s="12"/>
-    </row>
-    <row r="135" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O135" s="12"/>
-    </row>
-    <row r="136" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O136" s="12"/>
-    </row>
-    <row r="137" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O137" s="12"/>
-    </row>
-    <row r="138" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O138" s="12"/>
-    </row>
-    <row r="139" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O139" s="12"/>
-    </row>
-    <row r="140" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O140" s="12"/>
-    </row>
-    <row r="141" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O141" s="12"/>
-    </row>
-    <row r="142" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O142" s="12"/>
-    </row>
-    <row r="143" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O143" s="12"/>
-    </row>
-    <row r="144" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O144" s="12"/>
-    </row>
-    <row r="145" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O145" s="12"/>
-    </row>
-    <row r="146" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O146" s="12"/>
-    </row>
-    <row r="147" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O147" s="12"/>
-    </row>
-    <row r="148" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O148" s="12"/>
-    </row>
-    <row r="149" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O149" s="12"/>
-    </row>
-    <row r="150" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O150" s="12"/>
-    </row>
-    <row r="151" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O151" s="12"/>
-    </row>
-    <row r="152" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O152" s="12"/>
-    </row>
-    <row r="153" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O153" s="12"/>
-    </row>
-    <row r="154" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O154" s="12"/>
-    </row>
-    <row r="155" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O155" s="12"/>
-    </row>
-    <row r="156" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O156" s="12"/>
-    </row>
-    <row r="157" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O157" s="12"/>
-    </row>
-    <row r="158" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O158" s="12"/>
-    </row>
-    <row r="159" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O159" s="12"/>
-    </row>
-    <row r="160" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O160" s="12"/>
-    </row>
-    <row r="161" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O161" s="12"/>
-    </row>
-    <row r="162" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O162" s="12"/>
-    </row>
-    <row r="163" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O163" s="12"/>
-    </row>
-    <row r="164" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O164" s="12"/>
-    </row>
-    <row r="165" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O165" s="12"/>
-    </row>
-    <row r="166" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O166" s="12"/>
-    </row>
-    <row r="167" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O167" s="12"/>
-    </row>
-    <row r="168" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O168" s="12"/>
-    </row>
-    <row r="169" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O169" s="12"/>
-    </row>
-    <row r="170" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O170" s="12"/>
-    </row>
-    <row r="171" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O171" s="12"/>
-    </row>
-    <row r="172" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O172" s="12"/>
-    </row>
-    <row r="173" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O173" s="12"/>
-    </row>
-    <row r="174" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O174" s="12"/>
-    </row>
-    <row r="175" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O175" s="12"/>
-    </row>
-    <row r="176" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O176" s="12"/>
-    </row>
-    <row r="177" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O177" s="12"/>
-    </row>
-    <row r="178" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O178" s="12"/>
-    </row>
-    <row r="179" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O179" s="12"/>
-    </row>
-    <row r="180" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O180" s="12"/>
-    </row>
-    <row r="181" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O181" s="12"/>
-    </row>
-    <row r="182" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O182" s="12"/>
-    </row>
-    <row r="183" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O183" s="12"/>
-    </row>
-    <row r="184" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O184" s="12"/>
-    </row>
-    <row r="185" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O185" s="12"/>
-    </row>
-    <row r="186" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O186" s="12"/>
-    </row>
-    <row r="187" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O187" s="12"/>
-    </row>
-    <row r="188" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O188" s="12"/>
-    </row>
-    <row r="189" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O189" s="12"/>
-    </row>
-    <row r="190" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O190" s="12"/>
-    </row>
-    <row r="191" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O191" s="12"/>
-    </row>
-    <row r="192" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O192" s="12"/>
-    </row>
-    <row r="193" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O193" s="12"/>
-    </row>
-    <row r="194" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O194" s="12"/>
-    </row>
-    <row r="195" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O195" s="12"/>
-    </row>
-    <row r="196" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O196" s="12"/>
-    </row>
-    <row r="197" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O197" s="12"/>
-    </row>
-    <row r="198" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O198" s="12"/>
-    </row>
-    <row r="199" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O199" s="12"/>
-    </row>
-    <row r="200" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O200" s="12"/>
-    </row>
-    <row r="201" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O201" s="12"/>
-    </row>
-    <row r="202" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O202" s="12"/>
-    </row>
-    <row r="203" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O203" s="12"/>
-    </row>
-    <row r="204" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O204" s="12"/>
-    </row>
-    <row r="205" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O205" s="12"/>
-    </row>
-    <row r="206" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O206" s="12"/>
-    </row>
-    <row r="207" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O207" s="12"/>
-    </row>
-    <row r="208" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O208" s="12"/>
-    </row>
-    <row r="209" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O209" s="12"/>
-    </row>
-    <row r="210" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O210" s="12"/>
-    </row>
-    <row r="211" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O211" s="12"/>
-    </row>
-    <row r="212" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O212" s="12"/>
-    </row>
-    <row r="213" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O213" s="12"/>
-    </row>
-    <row r="214" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O214" s="12"/>
-    </row>
-    <row r="215" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O215" s="12"/>
-    </row>
-    <row r="216" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O216" s="12"/>
-    </row>
-    <row r="217" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O217" s="12"/>
-    </row>
-    <row r="218" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O218" s="12"/>
-    </row>
-    <row r="219" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O219" s="12"/>
-    </row>
-    <row r="220" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O220" s="12"/>
-    </row>
-    <row r="221" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O221" s="12"/>
-    </row>
-    <row r="222" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O222" s="12"/>
-    </row>
-    <row r="223" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O223" s="12"/>
-    </row>
-    <row r="224" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O224" s="12"/>
-    </row>
-    <row r="225" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O225" s="12"/>
-    </row>
-    <row r="226" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O226" s="12"/>
-    </row>
-    <row r="227" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O227" s="12"/>
-    </row>
-    <row r="228" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O228" s="12"/>
-    </row>
-    <row r="229" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O229" s="12"/>
-    </row>
-    <row r="230" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O230" s="12"/>
-    </row>
-    <row r="231" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O231" s="12"/>
-    </row>
-    <row r="232" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O232" s="12"/>
-    </row>
-    <row r="233" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O233" s="12"/>
-    </row>
-    <row r="234" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O234" s="12"/>
-    </row>
-    <row r="235" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O235" s="12"/>
-    </row>
-    <row r="236" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O236" s="12"/>
-    </row>
-    <row r="237" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O237" s="12"/>
-    </row>
-    <row r="238" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O238" s="12"/>
-    </row>
-    <row r="239" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O239" s="12"/>
-    </row>
-    <row r="240" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O240" s="12"/>
-    </row>
-    <row r="241" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O241" s="12"/>
-    </row>
-    <row r="242" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O242" s="12"/>
-    </row>
-    <row r="243" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O243" s="12"/>
-    </row>
-    <row r="244" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O244" s="12"/>
-    </row>
-    <row r="245" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O245" s="12"/>
-    </row>
-    <row r="246" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O246" s="12"/>
-    </row>
-    <row r="247" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O247" s="12"/>
-    </row>
-    <row r="248" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O248" s="12"/>
-    </row>
-    <row r="249" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O249" s="12"/>
-    </row>
-    <row r="250" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O250" s="12"/>
-    </row>
-    <row r="251" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O251" s="12"/>
-    </row>
-    <row r="252" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O252" s="12"/>
-    </row>
-    <row r="253" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O253" s="12"/>
-    </row>
-    <row r="254" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O254" s="12"/>
-    </row>
-    <row r="255" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O255" s="12"/>
-    </row>
-    <row r="256" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O256" s="12"/>
-    </row>
-    <row r="257" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O257" s="12"/>
-    </row>
-    <row r="258" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O258" s="12"/>
-    </row>
-    <row r="259" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O259" s="12"/>
-    </row>
-    <row r="260" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O260" s="12"/>
-    </row>
-    <row r="261" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O261" s="12"/>
-    </row>
-    <row r="262" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O262" s="12"/>
-    </row>
-    <row r="263" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O263" s="12"/>
-    </row>
-    <row r="264" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O264" s="12"/>
-    </row>
-    <row r="265" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O265" s="12"/>
-    </row>
-    <row r="266" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O266" s="12"/>
-    </row>
-    <row r="267" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O267" s="12"/>
-    </row>
-    <row r="268" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O268" s="12"/>
-    </row>
-    <row r="269" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O269" s="12"/>
-    </row>
-    <row r="270" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O270" s="12"/>
-    </row>
-    <row r="271" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O271" s="12"/>
-    </row>
-    <row r="272" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O272" s="12"/>
-    </row>
-    <row r="273" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O273" s="12"/>
-    </row>
-    <row r="274" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O274" s="12"/>
-    </row>
-    <row r="275" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O275" s="12"/>
-    </row>
-    <row r="276" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O276" s="12"/>
-    </row>
-    <row r="277" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O277" s="12"/>
-    </row>
-    <row r="278" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O278" s="12"/>
-    </row>
-    <row r="279" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O279" s="12"/>
-    </row>
-    <row r="280" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O280" s="12"/>
-    </row>
-    <row r="281" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O281" s="12"/>
-    </row>
-    <row r="282" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O282" s="12"/>
-    </row>
-    <row r="283" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O283" s="12"/>
-    </row>
-    <row r="284" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O284" s="12"/>
-    </row>
-    <row r="285" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O285" s="12"/>
-    </row>
-    <row r="286" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O286" s="12"/>
-    </row>
-    <row r="287" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O287" s="12"/>
-    </row>
-    <row r="288" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O288" s="12"/>
-    </row>
-    <row r="289" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O289" s="12"/>
-    </row>
-    <row r="290" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O290" s="12"/>
-    </row>
-    <row r="291" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O291" s="12"/>
-    </row>
-    <row r="292" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O292" s="12"/>
-    </row>
-    <row r="293" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O293" s="12"/>
-    </row>
-    <row r="294" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O294" s="12"/>
-    </row>
-    <row r="295" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O295" s="12"/>
-    </row>
-    <row r="296" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O296" s="12"/>
-    </row>
-    <row r="297" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O297" s="12"/>
-    </row>
-    <row r="298" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O298" s="12"/>
-    </row>
-    <row r="299" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O299" s="12"/>
-    </row>
-    <row r="300" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O300" s="12"/>
-    </row>
-    <row r="301" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O301" s="12"/>
-    </row>
-    <row r="302" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O302" s="12"/>
-    </row>
-    <row r="303" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O303" s="12"/>
-    </row>
-    <row r="304" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O304" s="12"/>
-    </row>
-    <row r="305" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O305" s="12"/>
-    </row>
-    <row r="306" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O306" s="12"/>
-    </row>
-    <row r="307" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O307" s="12"/>
-    </row>
-    <row r="308" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O308" s="12"/>
-    </row>
-    <row r="309" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O309" s="12"/>
-    </row>
-    <row r="310" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O310" s="12"/>
-    </row>
-    <row r="311" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O311" s="12"/>
-    </row>
-    <row r="312" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O312" s="12"/>
-    </row>
-    <row r="313" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O313" s="12"/>
-    </row>
-    <row r="314" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O314" s="12"/>
-    </row>
-    <row r="315" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O315" s="12"/>
-    </row>
-    <row r="316" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O316" s="12"/>
-    </row>
-    <row r="317" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O317" s="12"/>
-    </row>
-    <row r="318" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O318" s="12"/>
-    </row>
-    <row r="319" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O319" s="12"/>
-    </row>
-    <row r="320" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O320" s="12"/>
-    </row>
-    <row r="321" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O321" s="12"/>
-    </row>
-    <row r="322" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O322" s="12"/>
-    </row>
-    <row r="323" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O323" s="12"/>
-    </row>
-    <row r="324" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O324" s="12"/>
-    </row>
-    <row r="325" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O325" s="12"/>
-    </row>
-    <row r="326" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O326" s="12"/>
-    </row>
-    <row r="327" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O327" s="12"/>
-    </row>
-    <row r="328" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O328" s="12"/>
-    </row>
-    <row r="329" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O329" s="12"/>
-    </row>
-    <row r="330" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O330" s="12"/>
-    </row>
-    <row r="331" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O331" s="12"/>
-    </row>
-    <row r="332" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O332" s="12"/>
-    </row>
-    <row r="333" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O333" s="12"/>
-    </row>
-    <row r="334" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O334" s="12"/>
-    </row>
-    <row r="335" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O335" s="12"/>
-    </row>
-    <row r="336" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O336" s="12"/>
-    </row>
-    <row r="337" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O337" s="12"/>
-    </row>
-    <row r="338" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O338" s="12"/>
-    </row>
-    <row r="339" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O339" s="12"/>
-    </row>
-    <row r="340" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O340" s="12"/>
-    </row>
-    <row r="341" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O341" s="12"/>
-    </row>
-    <row r="342" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O342" s="12"/>
-    </row>
-    <row r="343" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O343" s="12"/>
-    </row>
-    <row r="344" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O344" s="12"/>
-    </row>
-    <row r="345" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O345" s="12"/>
-    </row>
-    <row r="346" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O346" s="12"/>
-    </row>
-    <row r="347" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O347" s="12"/>
-    </row>
-    <row r="348" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O348" s="12"/>
-    </row>
-    <row r="349" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O349" s="12"/>
-    </row>
-    <row r="350" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O350" s="12"/>
-    </row>
-    <row r="351" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O351" s="12"/>
-    </row>
-    <row r="352" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O352" s="12"/>
-    </row>
-    <row r="353" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O353" s="12"/>
-    </row>
-    <row r="354" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O354" s="12"/>
-    </row>
-    <row r="355" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O355" s="12"/>
-    </row>
-    <row r="356" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O356" s="12"/>
-    </row>
-    <row r="357" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O357" s="12"/>
-    </row>
-    <row r="358" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O358" s="12"/>
-    </row>
-    <row r="359" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O359" s="12"/>
-    </row>
-    <row r="360" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O360" s="12"/>
-    </row>
-    <row r="361" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O361" s="12"/>
-    </row>
-    <row r="362" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O362" s="12"/>
-    </row>
-    <row r="363" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O363" s="12"/>
-    </row>
-    <row r="364" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O364" s="12"/>
-    </row>
-    <row r="365" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O365" s="12"/>
-    </row>
-    <row r="366" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O366" s="12"/>
-    </row>
-    <row r="367" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O367" s="12"/>
-    </row>
-    <row r="368" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O368" s="12"/>
-    </row>
-    <row r="369" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O369" s="12"/>
-    </row>
-    <row r="370" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O370" s="12"/>
-    </row>
-    <row r="371" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O371" s="12"/>
-    </row>
-    <row r="372" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O372" s="12"/>
-    </row>
-    <row r="373" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O373" s="12"/>
-    </row>
-    <row r="374" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O374" s="12"/>
-    </row>
-    <row r="375" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O375" s="12"/>
-    </row>
-    <row r="376" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O376" s="12"/>
-    </row>
-    <row r="377" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O377" s="12"/>
-    </row>
-    <row r="378" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O378" s="12"/>
-    </row>
-    <row r="379" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O379" s="12"/>
-    </row>
-    <row r="380" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O380" s="12"/>
-    </row>
-    <row r="381" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O381" s="12"/>
-    </row>
-    <row r="382" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O382" s="12"/>
-    </row>
-    <row r="383" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O383" s="12"/>
-    </row>
-    <row r="384" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O384" s="12"/>
-    </row>
-    <row r="385" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O385" s="12"/>
-    </row>
-    <row r="386" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O386" s="12"/>
-    </row>
-    <row r="387" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O387" s="12"/>
-    </row>
-    <row r="388" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O388" s="12"/>
-    </row>
-    <row r="389" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O389" s="12"/>
-    </row>
-    <row r="390" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O390" s="12"/>
-    </row>
-    <row r="391" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O391" s="12"/>
-    </row>
-    <row r="392" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O392" s="12"/>
-    </row>
-    <row r="393" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O393" s="12"/>
-    </row>
-    <row r="394" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O394" s="12"/>
-    </row>
-    <row r="395" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O395" s="12"/>
-    </row>
-    <row r="396" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O396" s="12"/>
-    </row>
-    <row r="397" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O397" s="12"/>
-    </row>
-    <row r="398" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O398" s="12"/>
-    </row>
-    <row r="399" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O399" s="12"/>
-    </row>
-    <row r="400" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O400" s="12"/>
-    </row>
-    <row r="401" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O401" s="12"/>
-    </row>
-    <row r="402" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O402" s="12"/>
-    </row>
-    <row r="403" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O403" s="12"/>
-    </row>
-    <row r="404" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O404" s="12"/>
-    </row>
-    <row r="405" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O405" s="12"/>
-    </row>
-    <row r="406" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O406" s="12"/>
-    </row>
-    <row r="407" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O407" s="12"/>
-    </row>
-    <row r="408" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O408" s="12"/>
-    </row>
-    <row r="409" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O409" s="12"/>
-    </row>
-    <row r="410" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O410" s="12"/>
-    </row>
-    <row r="411" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O411" s="12"/>
-    </row>
-    <row r="412" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O412" s="12"/>
-    </row>
-    <row r="413" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O413" s="12"/>
-    </row>
-    <row r="414" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O414" s="12"/>
-    </row>
-    <row r="415" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O415" s="12"/>
-    </row>
-    <row r="416" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O416" s="12"/>
-    </row>
-    <row r="417" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O417" s="12"/>
-    </row>
-    <row r="418" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O418" s="12"/>
-    </row>
-    <row r="419" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O419" s="12"/>
-    </row>
-    <row r="420" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O420" s="12"/>
-    </row>
-    <row r="421" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O421" s="12"/>
-    </row>
-    <row r="422" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O422" s="12"/>
-    </row>
-    <row r="423" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O423" s="12"/>
-    </row>
-    <row r="424" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O424" s="12"/>
-    </row>
-    <row r="425" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O425" s="12"/>
-    </row>
-    <row r="426" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O426" s="12"/>
-    </row>
-    <row r="427" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O427" s="12"/>
-    </row>
-    <row r="428" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O428" s="12"/>
-    </row>
-    <row r="429" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O429" s="12"/>
-    </row>
-    <row r="430" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O430" s="12"/>
-    </row>
-    <row r="431" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O431" s="12"/>
-    </row>
-    <row r="432" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O432" s="12"/>
-    </row>
-    <row r="433" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O433" s="12"/>
-    </row>
-    <row r="434" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O434" s="12"/>
-    </row>
-    <row r="435" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O435" s="12"/>
-    </row>
-    <row r="436" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O436" s="12"/>
-    </row>
-    <row r="437" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O437" s="12"/>
-    </row>
-    <row r="438" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O438" s="12"/>
-    </row>
-    <row r="439" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O439" s="12"/>
-    </row>
-    <row r="440" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O440" s="12"/>
-    </row>
-    <row r="441" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O441" s="12"/>
-    </row>
-    <row r="442" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O442" s="12"/>
-    </row>
-    <row r="443" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O443" s="12"/>
-    </row>
-    <row r="444" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O444" s="12"/>
-    </row>
-    <row r="445" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O445" s="12"/>
-    </row>
-    <row r="446" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O446" s="12"/>
-    </row>
-    <row r="447" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O447" s="12"/>
-    </row>
-    <row r="448" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O448" s="12"/>
-    </row>
-    <row r="449" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O449" s="12"/>
-    </row>
-    <row r="450" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O450" s="12"/>
-    </row>
-    <row r="451" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O451" s="12"/>
-    </row>
-    <row r="452" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O452" s="12"/>
-    </row>
-    <row r="453" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O453" s="12"/>
-    </row>
-    <row r="454" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O454" s="12"/>
-    </row>
-    <row r="455" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O455" s="12"/>
-    </row>
-    <row r="456" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O456" s="12"/>
-    </row>
-    <row r="457" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O457" s="12"/>
-    </row>
-    <row r="458" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O458" s="12"/>
-    </row>
-    <row r="459" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O459" s="12"/>
-    </row>
-    <row r="460" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O460" s="12"/>
-    </row>
-    <row r="461" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O461" s="12"/>
-    </row>
-    <row r="462" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O462" s="12"/>
-    </row>
-    <row r="463" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O463" s="12"/>
-    </row>
-    <row r="464" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O464" s="12"/>
-    </row>
-    <row r="465" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O465" s="12"/>
-    </row>
-    <row r="466" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O466" s="12"/>
-    </row>
-    <row r="467" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O467" s="12"/>
-    </row>
-    <row r="468" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O468" s="12"/>
-    </row>
-    <row r="469" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O469" s="12"/>
-    </row>
-    <row r="470" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O470" s="12"/>
-    </row>
-    <row r="471" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O471" s="12"/>
-    </row>
-    <row r="472" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O472" s="12"/>
-    </row>
-    <row r="473" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O473" s="12"/>
-    </row>
-    <row r="474" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O474" s="12"/>
-    </row>
-    <row r="475" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O475" s="12"/>
-    </row>
-    <row r="476" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O476" s="12"/>
-    </row>
-    <row r="477" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O477" s="12"/>
-    </row>
-    <row r="478" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O478" s="12"/>
-    </row>
-    <row r="479" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O479" s="12"/>
-    </row>
-    <row r="480" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O480" s="12"/>
-    </row>
-    <row r="481" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O481" s="12"/>
-    </row>
-    <row r="482" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O482" s="12"/>
-    </row>
-    <row r="483" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O483" s="12"/>
-    </row>
-    <row r="484" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O484" s="12"/>
-    </row>
-    <row r="485" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O485" s="12"/>
-    </row>
-    <row r="486" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O486" s="12"/>
-    </row>
-    <row r="487" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O487" s="12"/>
-    </row>
-    <row r="488" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O488" s="12"/>
-    </row>
-    <row r="489" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O489" s="12"/>
-    </row>
-    <row r="490" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O490" s="12"/>
-    </row>
-    <row r="491" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O491" s="12"/>
-    </row>
-    <row r="492" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O492" s="12"/>
-    </row>
-    <row r="493" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O493" s="12"/>
-    </row>
-    <row r="494" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O494" s="12"/>
-    </row>
-    <row r="495" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O495" s="12"/>
-    </row>
-    <row r="496" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O496" s="12"/>
-    </row>
-    <row r="497" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O497" s="12"/>
-    </row>
-    <row r="498" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O498" s="12"/>
-    </row>
-    <row r="499" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O499" s="12"/>
-    </row>
-    <row r="500" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O500" s="12"/>
-    </row>
-    <row r="501" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O501" s="12"/>
-    </row>
-    <row r="502" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O502" s="12"/>
-    </row>
-    <row r="503" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O503" s="12"/>
-    </row>
-    <row r="504" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O504" s="12"/>
-    </row>
-    <row r="505" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O505" s="12"/>
-    </row>
-    <row r="506" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O506" s="12"/>
-    </row>
-    <row r="507" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O507" s="12"/>
-    </row>
-    <row r="508" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O508" s="12"/>
-    </row>
-    <row r="509" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O509" s="12"/>
-    </row>
-    <row r="510" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O510" s="12"/>
-    </row>
-    <row r="511" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O511" s="12"/>
-    </row>
-    <row r="512" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O512" s="12"/>
-    </row>
-    <row r="513" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O513" s="12"/>
-    </row>
-    <row r="514" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O514" s="12"/>
-    </row>
-    <row r="515" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O515" s="12"/>
-    </row>
-    <row r="516" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O516" s="12"/>
-    </row>
-    <row r="517" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O517" s="12"/>
-    </row>
-    <row r="518" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O518" s="12"/>
-    </row>
-    <row r="519" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O519" s="12"/>
-    </row>
-    <row r="520" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O520" s="12"/>
-    </row>
-    <row r="521" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O521" s="12"/>
-    </row>
-    <row r="522" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O522" s="12"/>
-    </row>
-    <row r="523" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O523" s="12"/>
-    </row>
-    <row r="524" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O524" s="12"/>
-    </row>
-    <row r="525" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O525" s="12"/>
-    </row>
-    <row r="526" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O526" s="12"/>
-    </row>
-    <row r="527" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O527" s="12"/>
-    </row>
-    <row r="528" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O528" s="12"/>
-    </row>
-    <row r="529" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O529" s="12"/>
-    </row>
-    <row r="530" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O530" s="12"/>
-    </row>
-    <row r="531" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O531" s="12"/>
-    </row>
-    <row r="532" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O532" s="12"/>
-    </row>
-    <row r="533" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O533" s="12"/>
-    </row>
-    <row r="534" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O534" s="12"/>
-    </row>
-    <row r="535" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O535" s="12"/>
-    </row>
-    <row r="536" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O536" s="12"/>
-    </row>
-    <row r="537" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O537" s="12"/>
-    </row>
-    <row r="538" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O538" s="12"/>
-    </row>
-    <row r="539" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O539" s="12"/>
-    </row>
-    <row r="540" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O540" s="12"/>
-    </row>
-    <row r="541" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O541" s="12"/>
-    </row>
-    <row r="542" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O542" s="12"/>
-    </row>
-    <row r="543" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O543" s="12"/>
-    </row>
-    <row r="544" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O544" s="12"/>
-    </row>
-    <row r="545" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O545" s="12"/>
-    </row>
-    <row r="546" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O546" s="12"/>
-    </row>
-    <row r="547" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O547" s="12"/>
-    </row>
-    <row r="548" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O548" s="12"/>
-    </row>
-    <row r="549" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O549" s="12"/>
-    </row>
-    <row r="550" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O550" s="12"/>
-    </row>
-    <row r="551" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O551" s="12"/>
-    </row>
-    <row r="552" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O552" s="12"/>
-    </row>
-    <row r="553" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O553" s="12"/>
-    </row>
-    <row r="554" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O554" s="12"/>
-    </row>
-    <row r="555" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O555" s="12"/>
-    </row>
-    <row r="556" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O556" s="12"/>
-    </row>
-    <row r="557" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O557" s="12"/>
-    </row>
-    <row r="558" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O558" s="12"/>
-    </row>
-    <row r="559" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O559" s="12"/>
-    </row>
-    <row r="560" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O560" s="12"/>
-    </row>
-    <row r="561" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O561" s="12"/>
-    </row>
-    <row r="562" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O562" s="12"/>
-    </row>
-    <row r="563" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O563" s="12"/>
-    </row>
-    <row r="564" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O564" s="12"/>
-    </row>
-    <row r="565" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O565" s="12"/>
-    </row>
-    <row r="566" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O566" s="12"/>
-    </row>
-    <row r="567" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O567" s="12"/>
-    </row>
-    <row r="568" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O568" s="12"/>
-    </row>
-    <row r="569" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O569" s="12"/>
-    </row>
-    <row r="570" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O570" s="12"/>
-    </row>
-    <row r="571" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O571" s="12"/>
-    </row>
-    <row r="572" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O572" s="12"/>
-    </row>
-    <row r="573" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O573" s="12"/>
-    </row>
-    <row r="574" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O574" s="12"/>
-    </row>
-    <row r="575" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O575" s="12"/>
-    </row>
-    <row r="576" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O576" s="12"/>
-    </row>
-    <row r="577" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O577" s="12"/>
-    </row>
-    <row r="578" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O578" s="12"/>
-    </row>
-    <row r="579" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O579" s="12"/>
-    </row>
-    <row r="580" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O580" s="12"/>
-    </row>
-    <row r="581" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O581" s="12"/>
-    </row>
-    <row r="582" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O582" s="12"/>
-    </row>
-    <row r="583" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O583" s="12"/>
-    </row>
-    <row r="584" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O584" s="12"/>
-    </row>
-    <row r="585" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O585" s="12"/>
-    </row>
-    <row r="586" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O586" s="12"/>
-    </row>
-    <row r="587" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O587" s="12"/>
-    </row>
-    <row r="588" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O588" s="12"/>
-    </row>
-    <row r="589" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O589" s="12"/>
-    </row>
-    <row r="590" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O590" s="12"/>
-    </row>
-    <row r="591" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O591" s="12"/>
-    </row>
-    <row r="592" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O592" s="12"/>
-    </row>
-    <row r="593" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O593" s="12"/>
-    </row>
-    <row r="594" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O594" s="12"/>
-    </row>
-    <row r="595" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O595" s="12"/>
-    </row>
-    <row r="596" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O596" s="12"/>
-    </row>
-    <row r="597" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O597" s="12"/>
-    </row>
-    <row r="598" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O598" s="12"/>
-    </row>
-    <row r="599" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O599" s="12"/>
-    </row>
-    <row r="600" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O600" s="12"/>
-    </row>
-    <row r="601" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O601" s="12"/>
-    </row>
-    <row r="602" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O602" s="12"/>
-    </row>
-    <row r="603" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O603" s="12"/>
-    </row>
-    <row r="604" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O604" s="12"/>
-    </row>
-    <row r="605" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O605" s="12"/>
-    </row>
-    <row r="606" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O606" s="12"/>
-    </row>
-    <row r="607" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O607" s="12"/>
-    </row>
-    <row r="608" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O608" s="12"/>
-    </row>
-    <row r="609" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O609" s="12"/>
-    </row>
-    <row r="610" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O610" s="12"/>
-    </row>
-    <row r="611" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O611" s="12"/>
-    </row>
-    <row r="612" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O612" s="12"/>
-    </row>
-    <row r="613" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O613" s="12"/>
-    </row>
-    <row r="614" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O614" s="12"/>
-    </row>
-    <row r="615" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O615" s="12"/>
-    </row>
-    <row r="616" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O616" s="12"/>
-    </row>
-    <row r="617" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O617" s="12"/>
-    </row>
-    <row r="618" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O618" s="12"/>
-    </row>
-    <row r="619" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O619" s="12"/>
-    </row>
-    <row r="620" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O620" s="12"/>
-    </row>
-    <row r="621" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O621" s="12"/>
-    </row>
-    <row r="622" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O622" s="12"/>
-    </row>
-    <row r="623" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O623" s="12"/>
-    </row>
-    <row r="624" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O624" s="12"/>
-    </row>
-    <row r="625" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O625" s="12"/>
-    </row>
-    <row r="626" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O626" s="12"/>
-    </row>
-    <row r="627" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O627" s="12"/>
-    </row>
-    <row r="628" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O628" s="12"/>
-    </row>
-    <row r="629" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O629" s="12"/>
-    </row>
-    <row r="630" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O630" s="12"/>
-    </row>
-    <row r="631" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O631" s="12"/>
-    </row>
-    <row r="632" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O632" s="12"/>
-    </row>
-    <row r="633" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O633" s="12"/>
-    </row>
-    <row r="634" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O634" s="12"/>
-    </row>
-    <row r="635" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O635" s="12"/>
-    </row>
-    <row r="636" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O636" s="12"/>
-    </row>
-    <row r="637" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O637" s="12"/>
-    </row>
-    <row r="638" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O638" s="12"/>
-    </row>
-    <row r="639" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O639" s="12"/>
-    </row>
-    <row r="640" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O640" s="12"/>
-    </row>
-    <row r="641" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O641" s="12"/>
-    </row>
-    <row r="642" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O642" s="12"/>
-    </row>
-    <row r="643" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O643" s="12"/>
-    </row>
-    <row r="644" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O644" s="12"/>
-    </row>
-    <row r="645" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O645" s="12"/>
-    </row>
-    <row r="646" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O646" s="12"/>
-    </row>
-    <row r="647" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O647" s="12"/>
-    </row>
-    <row r="648" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O648" s="12"/>
-    </row>
-    <row r="649" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O649" s="12"/>
-    </row>
-    <row r="650" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O650" s="12"/>
-    </row>
-    <row r="651" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O651" s="12"/>
-    </row>
-    <row r="652" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O652" s="12"/>
-    </row>
-    <row r="653" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O653" s="12"/>
-    </row>
-    <row r="654" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O654" s="12"/>
-    </row>
-    <row r="655" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O655" s="12"/>
-    </row>
-    <row r="656" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O656" s="12"/>
-    </row>
-    <row r="657" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O657" s="12"/>
-    </row>
-    <row r="658" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O658" s="12"/>
-    </row>
-    <row r="659" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O659" s="12"/>
-    </row>
-    <row r="660" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O660" s="12"/>
-    </row>
-    <row r="661" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O661" s="12"/>
-    </row>
-    <row r="662" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O662" s="12"/>
-    </row>
-    <row r="663" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O663" s="12"/>
-    </row>
-    <row r="664" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O664" s="12"/>
-    </row>
-    <row r="665" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O665" s="12"/>
-    </row>
-    <row r="666" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O666" s="12"/>
-    </row>
-    <row r="667" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O667" s="12"/>
-    </row>
-    <row r="668" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O668" s="12"/>
-    </row>
-    <row r="669" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O669" s="12"/>
-    </row>
-    <row r="670" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O670" s="12"/>
-    </row>
-    <row r="671" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O671" s="12"/>
-    </row>
-    <row r="672" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O672" s="12"/>
-    </row>
-    <row r="673" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O673" s="12"/>
-    </row>
-    <row r="674" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O674" s="12"/>
-    </row>
-    <row r="675" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O675" s="12"/>
-    </row>
-    <row r="676" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O676" s="12"/>
-    </row>
-    <row r="677" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O677" s="12"/>
-    </row>
-    <row r="678" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O678" s="12"/>
-    </row>
-    <row r="679" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O679" s="12"/>
-    </row>
-    <row r="680" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O680" s="12"/>
-    </row>
-    <row r="681" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O681" s="12"/>
-    </row>
-    <row r="682" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O682" s="12"/>
-    </row>
-    <row r="683" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O683" s="12"/>
-    </row>
-    <row r="684" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O684" s="12"/>
-    </row>
-    <row r="685" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O685" s="12"/>
-    </row>
-    <row r="686" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O686" s="12"/>
-    </row>
-    <row r="687" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O687" s="12"/>
-    </row>
-    <row r="688" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O688" s="12"/>
-    </row>
-    <row r="689" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O689" s="12"/>
-    </row>
-    <row r="690" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O690" s="12"/>
-    </row>
-    <row r="691" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O691" s="12"/>
-    </row>
-    <row r="692" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O692" s="12"/>
-    </row>
-    <row r="693" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O693" s="12"/>
-    </row>
-    <row r="694" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O694" s="12"/>
-    </row>
-    <row r="695" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O695" s="12"/>
-    </row>
-    <row r="696" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O696" s="12"/>
-    </row>
-    <row r="697" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O697" s="12"/>
-    </row>
-    <row r="698" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O698" s="12"/>
-    </row>
-    <row r="699" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O699" s="12"/>
-    </row>
-    <row r="700" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O700" s="12"/>
-    </row>
-    <row r="701" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O701" s="12"/>
-    </row>
-    <row r="702" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O702" s="12"/>
-    </row>
-    <row r="703" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O703" s="12"/>
-    </row>
-    <row r="704" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O704" s="12"/>
-    </row>
-    <row r="705" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O705" s="12"/>
-    </row>
-    <row r="706" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O706" s="12"/>
-    </row>
-    <row r="707" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O707" s="12"/>
-    </row>
-    <row r="708" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O708" s="12"/>
-    </row>
-    <row r="709" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O709" s="12"/>
-    </row>
-    <row r="710" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O710" s="12"/>
-    </row>
-    <row r="711" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O711" s="12"/>
-    </row>
-    <row r="712" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O712" s="12"/>
-    </row>
-    <row r="713" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O713" s="12"/>
-    </row>
-    <row r="714" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O714" s="12"/>
-    </row>
-    <row r="715" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O715" s="12"/>
-    </row>
-    <row r="716" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O716" s="12"/>
-    </row>
-    <row r="717" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O717" s="12"/>
-    </row>
-    <row r="718" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O718" s="12"/>
-    </row>
-    <row r="719" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O719" s="12"/>
-    </row>
-    <row r="720" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O720" s="12"/>
-    </row>
-    <row r="721" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O721" s="12"/>
-    </row>
-    <row r="722" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O722" s="12"/>
-    </row>
-    <row r="723" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O723" s="12"/>
-    </row>
-    <row r="724" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O724" s="12"/>
-    </row>
-    <row r="725" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O725" s="12"/>
-    </row>
-    <row r="726" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O726" s="12"/>
-    </row>
-    <row r="727" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O727" s="12"/>
-    </row>
-    <row r="728" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O728" s="12"/>
-    </row>
-    <row r="729" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O729" s="12"/>
-    </row>
-    <row r="730" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O730" s="12"/>
-    </row>
-    <row r="731" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O731" s="12"/>
-    </row>
-    <row r="732" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O732" s="12"/>
-    </row>
-    <row r="733" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O733" s="12"/>
-    </row>
-    <row r="734" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O734" s="12"/>
-    </row>
-    <row r="735" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O735" s="12"/>
-    </row>
-    <row r="736" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O736" s="12"/>
-    </row>
-    <row r="737" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O737" s="12"/>
-    </row>
-    <row r="738" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O738" s="12"/>
-    </row>
-    <row r="739" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O739" s="12"/>
-    </row>
-    <row r="740" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O740" s="12"/>
-    </row>
-    <row r="741" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O741" s="12"/>
-    </row>
-    <row r="742" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O742" s="12"/>
-    </row>
-    <row r="743" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O743" s="12"/>
-    </row>
-    <row r="744" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O744" s="12"/>
-    </row>
-    <row r="745" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O745" s="12"/>
-    </row>
-    <row r="746" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O746" s="12"/>
-    </row>
-    <row r="747" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O747" s="12"/>
-    </row>
-    <row r="748" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O748" s="12"/>
-    </row>
-    <row r="749" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O749" s="12"/>
-    </row>
-    <row r="750" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O750" s="12"/>
-    </row>
-    <row r="751" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O751" s="12"/>
-    </row>
-    <row r="752" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O752" s="12"/>
-    </row>
-    <row r="753" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O753" s="12"/>
-    </row>
-    <row r="754" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O754" s="12"/>
-    </row>
-    <row r="755" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O755" s="12"/>
-    </row>
-    <row r="756" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O756" s="12"/>
-    </row>
-    <row r="757" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O757" s="12"/>
-    </row>
-    <row r="758" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O758" s="12"/>
-    </row>
-    <row r="759" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O759" s="12"/>
-    </row>
-    <row r="760" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O760" s="12"/>
-    </row>
-    <row r="761" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O761" s="12"/>
-    </row>
-    <row r="762" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O762" s="12"/>
-    </row>
-    <row r="763" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O763" s="12"/>
-    </row>
-    <row r="764" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O764" s="12"/>
-    </row>
-    <row r="765" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O765" s="12"/>
-    </row>
-    <row r="766" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O766" s="12"/>
-    </row>
-    <row r="767" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O767" s="12"/>
-    </row>
-    <row r="768" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O768" s="12"/>
-    </row>
-    <row r="769" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O769" s="12"/>
-    </row>
-    <row r="770" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O770" s="12"/>
-    </row>
-    <row r="771" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O771" s="12"/>
-    </row>
-    <row r="772" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O772" s="12"/>
-    </row>
-    <row r="773" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O773" s="12"/>
-    </row>
-    <row r="774" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O774" s="12"/>
-    </row>
-    <row r="775" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O775" s="12"/>
-    </row>
-    <row r="776" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O776" s="12"/>
-    </row>
-    <row r="777" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O777" s="12"/>
-    </row>
-    <row r="778" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O778" s="12"/>
-    </row>
-    <row r="779" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O779" s="12"/>
-    </row>
-    <row r="780" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O780" s="12"/>
-    </row>
-    <row r="781" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O781" s="12"/>
-    </row>
-    <row r="782" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O782" s="12"/>
-    </row>
-    <row r="783" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O783" s="12"/>
-    </row>
-    <row r="784" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O784" s="12"/>
-    </row>
-    <row r="785" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O785" s="12"/>
-    </row>
-    <row r="786" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O786" s="12"/>
-    </row>
-    <row r="787" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O787" s="12"/>
-    </row>
-    <row r="788" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O788" s="12"/>
-    </row>
-    <row r="789" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O789" s="12"/>
-    </row>
-    <row r="790" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O790" s="12"/>
-    </row>
-    <row r="791" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O791" s="12"/>
-    </row>
-    <row r="792" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O792" s="12"/>
-    </row>
-    <row r="793" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O793" s="12"/>
-    </row>
-    <row r="794" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O794" s="12"/>
-    </row>
-    <row r="795" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O795" s="12"/>
-    </row>
-    <row r="796" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O796" s="12"/>
-    </row>
-    <row r="797" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O797" s="12"/>
-    </row>
-    <row r="798" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O798" s="12"/>
-    </row>
-    <row r="799" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O799" s="12"/>
-    </row>
-    <row r="800" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O800" s="12"/>
-    </row>
-    <row r="801" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O801" s="12"/>
-    </row>
-    <row r="802" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O802" s="12"/>
-    </row>
-    <row r="803" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O803" s="12"/>
-    </row>
-    <row r="804" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O804" s="12"/>
-    </row>
-    <row r="805" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O805" s="12"/>
-    </row>
-    <row r="806" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O806" s="12"/>
-    </row>
-    <row r="807" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O807" s="12"/>
-    </row>
-    <row r="808" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O808" s="12"/>
-    </row>
-    <row r="809" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O809" s="12"/>
-    </row>
-    <row r="810" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O810" s="12"/>
-    </row>
-    <row r="811" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O811" s="12"/>
-    </row>
-    <row r="812" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O812" s="12"/>
-    </row>
-    <row r="813" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O813" s="12"/>
-    </row>
-    <row r="814" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O814" s="12"/>
-    </row>
-    <row r="815" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O815" s="12"/>
-    </row>
-    <row r="816" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O816" s="12"/>
-    </row>
-    <row r="817" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O817" s="12"/>
-    </row>
-    <row r="818" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O818" s="12"/>
-    </row>
-    <row r="819" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O819" s="12"/>
-    </row>
-    <row r="820" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O820" s="12"/>
-    </row>
-    <row r="821" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O821" s="12"/>
-    </row>
-    <row r="822" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O822" s="12"/>
-    </row>
-    <row r="823" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O823" s="12"/>
-    </row>
-    <row r="824" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O824" s="12"/>
-    </row>
-    <row r="825" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O825" s="12"/>
-    </row>
-    <row r="826" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O826" s="12"/>
-    </row>
-    <row r="827" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O827" s="12"/>
-    </row>
-    <row r="828" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O828" s="12"/>
-    </row>
-    <row r="829" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O829" s="12"/>
-    </row>
-    <row r="830" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O830" s="12"/>
-    </row>
-    <row r="831" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O831" s="12"/>
-    </row>
-    <row r="832" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O832" s="12"/>
-    </row>
-    <row r="833" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O833" s="12"/>
-    </row>
-    <row r="834" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O834" s="12"/>
-    </row>
-    <row r="835" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O835" s="12"/>
-    </row>
-    <row r="836" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O836" s="12"/>
-    </row>
-    <row r="837" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O837" s="12"/>
-    </row>
-    <row r="838" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O838" s="12"/>
-    </row>
-    <row r="839" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O839" s="12"/>
-    </row>
-    <row r="840" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O840" s="12"/>
-    </row>
-    <row r="841" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O841" s="12"/>
-    </row>
-    <row r="842" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O842" s="12"/>
-    </row>
-    <row r="843" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O843" s="12"/>
-    </row>
-    <row r="844" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O844" s="12"/>
-    </row>
-    <row r="845" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O845" s="12"/>
-    </row>
-    <row r="846" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O846" s="12"/>
-    </row>
-    <row r="847" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O847" s="12"/>
-    </row>
-    <row r="848" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O848" s="12"/>
-    </row>
-    <row r="849" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O849" s="12"/>
-    </row>
-    <row r="850" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O850" s="12"/>
-    </row>
-    <row r="851" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O851" s="12"/>
-    </row>
-    <row r="852" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O852" s="12"/>
-    </row>
-    <row r="853" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O853" s="12"/>
-    </row>
-    <row r="854" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O854" s="12"/>
-    </row>
-    <row r="855" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O855" s="12"/>
-    </row>
-    <row r="856" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O856" s="12"/>
-    </row>
-    <row r="857" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O857" s="12"/>
-    </row>
-    <row r="858" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O858" s="12"/>
-    </row>
-    <row r="859" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O859" s="12"/>
-    </row>
-    <row r="860" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O860" s="12"/>
-    </row>
-    <row r="861" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O861" s="12"/>
-    </row>
-    <row r="862" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O862" s="12"/>
-    </row>
-    <row r="863" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O863" s="12"/>
-    </row>
-    <row r="864" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O864" s="12"/>
-    </row>
-    <row r="865" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O865" s="12"/>
-    </row>
-    <row r="866" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O866" s="12"/>
-    </row>
-    <row r="867" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O867" s="12"/>
-    </row>
-    <row r="868" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O868" s="12"/>
-    </row>
-    <row r="869" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O869" s="12"/>
-    </row>
-    <row r="870" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O870" s="12"/>
-    </row>
-    <row r="871" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O871" s="12"/>
-    </row>
-    <row r="872" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O872" s="12"/>
-    </row>
-    <row r="873" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O873" s="12"/>
-    </row>
-    <row r="874" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O874" s="12"/>
-    </row>
-    <row r="875" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O875" s="12"/>
-    </row>
-    <row r="876" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O876" s="12"/>
-    </row>
-    <row r="877" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O877" s="12"/>
-    </row>
-    <row r="878" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O878" s="12"/>
-    </row>
-    <row r="879" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O879" s="12"/>
-    </row>
-    <row r="880" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O880" s="12"/>
-    </row>
-    <row r="881" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O881" s="12"/>
-    </row>
-    <row r="882" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O882" s="12"/>
-    </row>
-    <row r="883" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O883" s="12"/>
-    </row>
-    <row r="884" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O884" s="12"/>
-    </row>
-    <row r="885" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O885" s="12"/>
-    </row>
-    <row r="886" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O886" s="12"/>
-    </row>
-    <row r="887" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O887" s="12"/>
-    </row>
-    <row r="888" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O888" s="12"/>
-    </row>
-    <row r="889" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O889" s="12"/>
-    </row>
-    <row r="890" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O890" s="12"/>
-    </row>
-    <row r="891" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O891" s="12"/>
-    </row>
-    <row r="892" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O892" s="12"/>
-    </row>
-    <row r="893" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O893" s="12"/>
-    </row>
-    <row r="894" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O894" s="12"/>
-    </row>
-    <row r="895" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O895" s="12"/>
-    </row>
-    <row r="896" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O896" s="12"/>
-    </row>
-    <row r="897" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O897" s="12"/>
-    </row>
-    <row r="898" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O898" s="12"/>
-    </row>
-    <row r="899" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O899" s="12"/>
-    </row>
-    <row r="900" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O900" s="12"/>
-    </row>
-    <row r="901" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O901" s="12"/>
-    </row>
-    <row r="902" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O902" s="12"/>
-    </row>
-    <row r="903" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O903" s="12"/>
-    </row>
-    <row r="904" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O904" s="12"/>
-    </row>
-    <row r="905" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O905" s="12"/>
-    </row>
-    <row r="906" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O906" s="12"/>
-    </row>
-    <row r="907" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O907" s="12"/>
-    </row>
-    <row r="908" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O908" s="12"/>
-    </row>
-    <row r="909" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O909" s="12"/>
-    </row>
-    <row r="910" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O910" s="12"/>
-    </row>
-    <row r="911" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O911" s="12"/>
-    </row>
-    <row r="912" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O912" s="12"/>
-    </row>
-    <row r="913" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O913" s="12"/>
-    </row>
-    <row r="914" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O914" s="12"/>
-    </row>
-    <row r="915" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O915" s="12"/>
-    </row>
-    <row r="916" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O916" s="12"/>
-    </row>
-    <row r="917" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O917" s="12"/>
-    </row>
-    <row r="918" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O918" s="12"/>
-    </row>
-    <row r="919" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O919" s="12"/>
-    </row>
-    <row r="920" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O920" s="12"/>
-    </row>
-    <row r="921" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O921" s="12"/>
-    </row>
-    <row r="922" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O922" s="12"/>
-    </row>
-    <row r="923" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O923" s="12"/>
-    </row>
-    <row r="924" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O924" s="12"/>
-    </row>
-    <row r="925" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O925" s="12"/>
-    </row>
-    <row r="926" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O926" s="12"/>
-    </row>
-    <row r="927" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O927" s="12"/>
-    </row>
-    <row r="928" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O928" s="12"/>
-    </row>
-    <row r="929" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O929" s="12"/>
-    </row>
-    <row r="930" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O930" s="12"/>
-    </row>
-    <row r="931" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O931" s="12"/>
-    </row>
-    <row r="932" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O932" s="12"/>
-    </row>
-    <row r="933" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O933" s="12"/>
-    </row>
-    <row r="934" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O934" s="12"/>
-    </row>
-    <row r="935" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O935" s="12"/>
-    </row>
-    <row r="936" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O936" s="12"/>
-    </row>
-    <row r="937" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O937" s="12"/>
-    </row>
-    <row r="938" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O938" s="12"/>
-    </row>
-    <row r="939" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O939" s="12"/>
-    </row>
-    <row r="940" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O940" s="12"/>
-    </row>
-    <row r="941" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O941" s="12"/>
-    </row>
-    <row r="942" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O942" s="12"/>
-    </row>
-    <row r="943" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O943" s="12"/>
-    </row>
-    <row r="944" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O944" s="12"/>
-    </row>
-    <row r="945" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O945" s="12"/>
-    </row>
-    <row r="946" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O946" s="12"/>
-    </row>
-    <row r="947" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O947" s="12"/>
-    </row>
-    <row r="948" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O948" s="12"/>
-    </row>
-    <row r="949" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O949" s="12"/>
-    </row>
-    <row r="950" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O950" s="12"/>
-    </row>
-    <row r="951" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O951" s="12"/>
-    </row>
-    <row r="952" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O952" s="12"/>
-    </row>
-    <row r="953" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O953" s="12"/>
-    </row>
-    <row r="954" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O954" s="12"/>
-    </row>
-    <row r="955" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O955" s="12"/>
-    </row>
-    <row r="956" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O956" s="12"/>
-    </row>
-    <row r="957" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O957" s="12"/>
-    </row>
-    <row r="958" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O958" s="12"/>
-    </row>
-    <row r="959" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O959" s="12"/>
-    </row>
-    <row r="960" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O960" s="12"/>
-    </row>
-    <row r="961" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O961" s="12"/>
-    </row>
-    <row r="962" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O962" s="12"/>
-    </row>
-    <row r="963" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O963" s="12"/>
-    </row>
-    <row r="964" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O964" s="12"/>
-    </row>
-    <row r="965" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O965" s="12"/>
-    </row>
-    <row r="966" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O966" s="12"/>
-    </row>
-    <row r="967" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O967" s="12"/>
-    </row>
-    <row r="968" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O968" s="12"/>
-    </row>
-    <row r="969" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O969" s="12"/>
-    </row>
-    <row r="970" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O970" s="12"/>
-    </row>
-    <row r="971" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O971" s="12"/>
-    </row>
-    <row r="972" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O972" s="12"/>
-    </row>
-    <row r="973" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O973" s="12"/>
-    </row>
-    <row r="974" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O974" s="12"/>
-    </row>
-    <row r="975" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O975" s="12"/>
-    </row>
-    <row r="976" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O976" s="12"/>
-    </row>
-    <row r="977" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O977" s="12"/>
-    </row>
-    <row r="978" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O978" s="12"/>
-    </row>
-    <row r="979" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O979" s="12"/>
-    </row>
-    <row r="980" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O980" s="12"/>
-    </row>
-    <row r="981" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O981" s="12"/>
-    </row>
-    <row r="982" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O982" s="12"/>
-    </row>
-    <row r="983" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O983" s="12"/>
-    </row>
-    <row r="984" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O984" s="12"/>
-    </row>
-    <row r="985" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O985" s="12"/>
-    </row>
-    <row r="986" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O986" s="12"/>
-    </row>
-    <row r="987" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O987" s="12"/>
-    </row>
-    <row r="988" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O988" s="12"/>
-    </row>
-    <row r="989" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O989" s="12"/>
-    </row>
-    <row r="990" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O990" s="12"/>
-    </row>
-    <row r="991" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O991" s="12"/>
-    </row>
-    <row r="992" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O992" s="12"/>
-    </row>
-    <row r="993" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O993" s="12"/>
-    </row>
-    <row r="994" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O994" s="12"/>
-    </row>
-    <row r="995" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O995" s="12"/>
-    </row>
-    <row r="996" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O996" s="12"/>
-    </row>
-    <row r="997" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O997" s="12"/>
-    </row>
-    <row r="998" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O998" s="12"/>
-    </row>
-    <row r="999" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O999" s="12"/>
-    </row>
-    <row r="1000" spans="15:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="O1000" s="12"/>
+    <row r="72" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P72" s="12"/>
+    </row>
+    <row r="73" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P73" s="12"/>
+    </row>
+    <row r="74" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P74" s="12"/>
+    </row>
+    <row r="75" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P75" s="12"/>
+    </row>
+    <row r="76" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P76" s="12"/>
+    </row>
+    <row r="77" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P77" s="12"/>
+    </row>
+    <row r="78" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P78" s="12"/>
+    </row>
+    <row r="79" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P79" s="12"/>
+    </row>
+    <row r="80" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P80" s="12"/>
+    </row>
+    <row r="81" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P81" s="12"/>
+    </row>
+    <row r="82" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P82" s="12"/>
+    </row>
+    <row r="83" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P83" s="12"/>
+    </row>
+    <row r="84" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P84" s="12"/>
+    </row>
+    <row r="85" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P85" s="12"/>
+    </row>
+    <row r="86" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P86" s="12"/>
+    </row>
+    <row r="87" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P87" s="12"/>
+    </row>
+    <row r="88" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P88" s="12"/>
+    </row>
+    <row r="89" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P89" s="12"/>
+    </row>
+    <row r="90" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P90" s="12"/>
+    </row>
+    <row r="91" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P91" s="12"/>
+    </row>
+    <row r="92" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P92" s="12"/>
+    </row>
+    <row r="93" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P93" s="12"/>
+    </row>
+    <row r="94" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P94" s="12"/>
+    </row>
+    <row r="95" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P95" s="12"/>
+    </row>
+    <row r="96" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P96" s="12"/>
+    </row>
+    <row r="97" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P97" s="12"/>
+    </row>
+    <row r="98" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P98" s="12"/>
+    </row>
+    <row r="99" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P99" s="12"/>
+    </row>
+    <row r="100" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P100" s="12"/>
+    </row>
+    <row r="101" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P101" s="12"/>
+    </row>
+    <row r="102" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P102" s="12"/>
+    </row>
+    <row r="103" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P103" s="12"/>
+    </row>
+    <row r="104" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P104" s="12"/>
+    </row>
+    <row r="105" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P105" s="12"/>
+    </row>
+    <row r="106" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P106" s="12"/>
+    </row>
+    <row r="107" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P107" s="12"/>
+    </row>
+    <row r="108" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P108" s="12"/>
+    </row>
+    <row r="109" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P109" s="12"/>
+    </row>
+    <row r="110" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P110" s="12"/>
+    </row>
+    <row r="111" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P111" s="12"/>
+    </row>
+    <row r="112" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P112" s="12"/>
+    </row>
+    <row r="113" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P113" s="12"/>
+    </row>
+    <row r="114" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P114" s="12"/>
+    </row>
+    <row r="115" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P115" s="12"/>
+    </row>
+    <row r="116" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P116" s="12"/>
+    </row>
+    <row r="117" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P117" s="12"/>
+    </row>
+    <row r="118" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P118" s="12"/>
+    </row>
+    <row r="119" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P119" s="12"/>
+    </row>
+    <row r="120" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P120" s="12"/>
+    </row>
+    <row r="121" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P121" s="12"/>
+    </row>
+    <row r="122" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P122" s="12"/>
+    </row>
+    <row r="123" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P123" s="12"/>
+    </row>
+    <row r="124" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P124" s="12"/>
+    </row>
+    <row r="125" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P125" s="12"/>
+    </row>
+    <row r="126" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P126" s="12"/>
+    </row>
+    <row r="127" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P127" s="12"/>
+    </row>
+    <row r="128" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P128" s="12"/>
+    </row>
+    <row r="129" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P129" s="12"/>
+    </row>
+    <row r="130" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P130" s="12"/>
+    </row>
+    <row r="131" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P131" s="12"/>
+    </row>
+    <row r="132" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P132" s="12"/>
+    </row>
+    <row r="133" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P133" s="12"/>
+    </row>
+    <row r="134" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P134" s="12"/>
+    </row>
+    <row r="135" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P135" s="12"/>
+    </row>
+    <row r="136" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P136" s="12"/>
+    </row>
+    <row r="137" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P137" s="12"/>
+    </row>
+    <row r="138" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P138" s="12"/>
+    </row>
+    <row r="139" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P139" s="12"/>
+    </row>
+    <row r="140" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P140" s="12"/>
+    </row>
+    <row r="141" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P141" s="12"/>
+    </row>
+    <row r="142" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P142" s="12"/>
+    </row>
+    <row r="143" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P143" s="12"/>
+    </row>
+    <row r="144" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P144" s="12"/>
+    </row>
+    <row r="145" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P145" s="12"/>
+    </row>
+    <row r="146" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P146" s="12"/>
+    </row>
+    <row r="147" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P147" s="12"/>
+    </row>
+    <row r="148" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P148" s="12"/>
+    </row>
+    <row r="149" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P149" s="12"/>
+    </row>
+    <row r="150" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P150" s="12"/>
+    </row>
+    <row r="151" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P151" s="12"/>
+    </row>
+    <row r="152" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P152" s="12"/>
+    </row>
+    <row r="153" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P153" s="12"/>
+    </row>
+    <row r="154" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P154" s="12"/>
+    </row>
+    <row r="155" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P155" s="12"/>
+    </row>
+    <row r="156" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P156" s="12"/>
+    </row>
+    <row r="157" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P157" s="12"/>
+    </row>
+    <row r="158" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P158" s="12"/>
+    </row>
+    <row r="159" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P159" s="12"/>
+    </row>
+    <row r="160" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P160" s="12"/>
+    </row>
+    <row r="161" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P161" s="12"/>
+    </row>
+    <row r="162" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P162" s="12"/>
+    </row>
+    <row r="163" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P163" s="12"/>
+    </row>
+    <row r="164" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P164" s="12"/>
+    </row>
+    <row r="165" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P165" s="12"/>
+    </row>
+    <row r="166" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P166" s="12"/>
+    </row>
+    <row r="167" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P167" s="12"/>
+    </row>
+    <row r="168" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P168" s="12"/>
+    </row>
+    <row r="169" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P169" s="12"/>
+    </row>
+    <row r="170" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P170" s="12"/>
+    </row>
+    <row r="171" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P171" s="12"/>
+    </row>
+    <row r="172" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P172" s="12"/>
+    </row>
+    <row r="173" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P173" s="12"/>
+    </row>
+    <row r="174" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P174" s="12"/>
+    </row>
+    <row r="175" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P175" s="12"/>
+    </row>
+    <row r="176" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P176" s="12"/>
+    </row>
+    <row r="177" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P177" s="12"/>
+    </row>
+    <row r="178" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P178" s="12"/>
+    </row>
+    <row r="179" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P179" s="12"/>
+    </row>
+    <row r="180" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P180" s="12"/>
+    </row>
+    <row r="181" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P181" s="12"/>
+    </row>
+    <row r="182" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P182" s="12"/>
+    </row>
+    <row r="183" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P183" s="12"/>
+    </row>
+    <row r="184" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P184" s="12"/>
+    </row>
+    <row r="185" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P185" s="12"/>
+    </row>
+    <row r="186" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P186" s="12"/>
+    </row>
+    <row r="187" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P187" s="12"/>
+    </row>
+    <row r="188" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P188" s="12"/>
+    </row>
+    <row r="189" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P189" s="12"/>
+    </row>
+    <row r="190" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P190" s="12"/>
+    </row>
+    <row r="191" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P191" s="12"/>
+    </row>
+    <row r="192" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P192" s="12"/>
+    </row>
+    <row r="193" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P193" s="12"/>
+    </row>
+    <row r="194" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P194" s="12"/>
+    </row>
+    <row r="195" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P195" s="12"/>
+    </row>
+    <row r="196" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P196" s="12"/>
+    </row>
+    <row r="197" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P197" s="12"/>
+    </row>
+    <row r="198" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P198" s="12"/>
+    </row>
+    <row r="199" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P199" s="12"/>
+    </row>
+    <row r="200" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P200" s="12"/>
+    </row>
+    <row r="201" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P201" s="12"/>
+    </row>
+    <row r="202" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P202" s="12"/>
+    </row>
+    <row r="203" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P203" s="12"/>
+    </row>
+    <row r="204" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P204" s="12"/>
+    </row>
+    <row r="205" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P205" s="12"/>
+    </row>
+    <row r="206" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P206" s="12"/>
+    </row>
+    <row r="207" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P207" s="12"/>
+    </row>
+    <row r="208" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P208" s="12"/>
+    </row>
+    <row r="209" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P209" s="12"/>
+    </row>
+    <row r="210" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P210" s="12"/>
+    </row>
+    <row r="211" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P211" s="12"/>
+    </row>
+    <row r="212" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P212" s="12"/>
+    </row>
+    <row r="213" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P213" s="12"/>
+    </row>
+    <row r="214" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P214" s="12"/>
+    </row>
+    <row r="215" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P215" s="12"/>
+    </row>
+    <row r="216" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P216" s="12"/>
+    </row>
+    <row r="217" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P217" s="12"/>
+    </row>
+    <row r="218" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P218" s="12"/>
+    </row>
+    <row r="219" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P219" s="12"/>
+    </row>
+    <row r="220" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P220" s="12"/>
+    </row>
+    <row r="221" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P221" s="12"/>
+    </row>
+    <row r="222" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P222" s="12"/>
+    </row>
+    <row r="223" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P223" s="12"/>
+    </row>
+    <row r="224" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P224" s="12"/>
+    </row>
+    <row r="225" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P225" s="12"/>
+    </row>
+    <row r="226" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P226" s="12"/>
+    </row>
+    <row r="227" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P227" s="12"/>
+    </row>
+    <row r="228" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P228" s="12"/>
+    </row>
+    <row r="229" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P229" s="12"/>
+    </row>
+    <row r="230" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P230" s="12"/>
+    </row>
+    <row r="231" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P231" s="12"/>
+    </row>
+    <row r="232" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P232" s="12"/>
+    </row>
+    <row r="233" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P233" s="12"/>
+    </row>
+    <row r="234" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P234" s="12"/>
+    </row>
+    <row r="235" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P235" s="12"/>
+    </row>
+    <row r="236" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P236" s="12"/>
+    </row>
+    <row r="237" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P237" s="12"/>
+    </row>
+    <row r="238" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P238" s="12"/>
+    </row>
+    <row r="239" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P239" s="12"/>
+    </row>
+    <row r="240" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P240" s="12"/>
+    </row>
+    <row r="241" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P241" s="12"/>
+    </row>
+    <row r="242" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P242" s="12"/>
+    </row>
+    <row r="243" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P243" s="12"/>
+    </row>
+    <row r="244" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P244" s="12"/>
+    </row>
+    <row r="245" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P245" s="12"/>
+    </row>
+    <row r="246" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P246" s="12"/>
+    </row>
+    <row r="247" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P247" s="12"/>
+    </row>
+    <row r="248" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P248" s="12"/>
+    </row>
+    <row r="249" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P249" s="12"/>
+    </row>
+    <row r="250" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P250" s="12"/>
+    </row>
+    <row r="251" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P251" s="12"/>
+    </row>
+    <row r="252" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P252" s="12"/>
+    </row>
+    <row r="253" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P253" s="12"/>
+    </row>
+    <row r="254" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P254" s="12"/>
+    </row>
+    <row r="255" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P255" s="12"/>
+    </row>
+    <row r="256" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P256" s="12"/>
+    </row>
+    <row r="257" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P257" s="12"/>
+    </row>
+    <row r="258" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P258" s="12"/>
+    </row>
+    <row r="259" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P259" s="12"/>
+    </row>
+    <row r="260" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P260" s="12"/>
+    </row>
+    <row r="261" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P261" s="12"/>
+    </row>
+    <row r="262" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P262" s="12"/>
+    </row>
+    <row r="263" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P263" s="12"/>
+    </row>
+    <row r="264" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P264" s="12"/>
+    </row>
+    <row r="265" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P265" s="12"/>
+    </row>
+    <row r="266" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P266" s="12"/>
+    </row>
+    <row r="267" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P267" s="12"/>
+    </row>
+    <row r="268" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P268" s="12"/>
+    </row>
+    <row r="269" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P269" s="12"/>
+    </row>
+    <row r="270" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P270" s="12"/>
+    </row>
+    <row r="271" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P271" s="12"/>
+    </row>
+    <row r="272" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P272" s="12"/>
+    </row>
+    <row r="273" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P273" s="12"/>
+    </row>
+    <row r="274" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P274" s="12"/>
+    </row>
+    <row r="275" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P275" s="12"/>
+    </row>
+    <row r="276" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P276" s="12"/>
+    </row>
+    <row r="277" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P277" s="12"/>
+    </row>
+    <row r="278" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P278" s="12"/>
+    </row>
+    <row r="279" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P279" s="12"/>
+    </row>
+    <row r="280" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P280" s="12"/>
+    </row>
+    <row r="281" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P281" s="12"/>
+    </row>
+    <row r="282" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P282" s="12"/>
+    </row>
+    <row r="283" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P283" s="12"/>
+    </row>
+    <row r="284" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P284" s="12"/>
+    </row>
+    <row r="285" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P285" s="12"/>
+    </row>
+    <row r="286" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P286" s="12"/>
+    </row>
+    <row r="287" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P287" s="12"/>
+    </row>
+    <row r="288" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P288" s="12"/>
+    </row>
+    <row r="289" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P289" s="12"/>
+    </row>
+    <row r="290" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P290" s="12"/>
+    </row>
+    <row r="291" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P291" s="12"/>
+    </row>
+    <row r="292" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P292" s="12"/>
+    </row>
+    <row r="293" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P293" s="12"/>
+    </row>
+    <row r="294" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P294" s="12"/>
+    </row>
+    <row r="295" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P295" s="12"/>
+    </row>
+    <row r="296" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P296" s="12"/>
+    </row>
+    <row r="297" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P297" s="12"/>
+    </row>
+    <row r="298" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P298" s="12"/>
+    </row>
+    <row r="299" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P299" s="12"/>
+    </row>
+    <row r="300" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P300" s="12"/>
+    </row>
+    <row r="301" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P301" s="12"/>
+    </row>
+    <row r="302" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P302" s="12"/>
+    </row>
+    <row r="303" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P303" s="12"/>
+    </row>
+    <row r="304" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P304" s="12"/>
+    </row>
+    <row r="305" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P305" s="12"/>
+    </row>
+    <row r="306" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P306" s="12"/>
+    </row>
+    <row r="307" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P307" s="12"/>
+    </row>
+    <row r="308" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P308" s="12"/>
+    </row>
+    <row r="309" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P309" s="12"/>
+    </row>
+    <row r="310" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P310" s="12"/>
+    </row>
+    <row r="311" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P311" s="12"/>
+    </row>
+    <row r="312" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P312" s="12"/>
+    </row>
+    <row r="313" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P313" s="12"/>
+    </row>
+    <row r="314" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P314" s="12"/>
+    </row>
+    <row r="315" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P315" s="12"/>
+    </row>
+    <row r="316" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P316" s="12"/>
+    </row>
+    <row r="317" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P317" s="12"/>
+    </row>
+    <row r="318" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P318" s="12"/>
+    </row>
+    <row r="319" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P319" s="12"/>
+    </row>
+    <row r="320" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P320" s="12"/>
+    </row>
+    <row r="321" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P321" s="12"/>
+    </row>
+    <row r="322" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P322" s="12"/>
+    </row>
+    <row r="323" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P323" s="12"/>
+    </row>
+    <row r="324" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P324" s="12"/>
+    </row>
+    <row r="325" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P325" s="12"/>
+    </row>
+    <row r="326" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P326" s="12"/>
+    </row>
+    <row r="327" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P327" s="12"/>
+    </row>
+    <row r="328" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P328" s="12"/>
+    </row>
+    <row r="329" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P329" s="12"/>
+    </row>
+    <row r="330" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P330" s="12"/>
+    </row>
+    <row r="331" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P331" s="12"/>
+    </row>
+    <row r="332" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P332" s="12"/>
+    </row>
+    <row r="333" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P333" s="12"/>
+    </row>
+    <row r="334" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P334" s="12"/>
+    </row>
+    <row r="335" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P335" s="12"/>
+    </row>
+    <row r="336" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P336" s="12"/>
+    </row>
+    <row r="337" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P337" s="12"/>
+    </row>
+    <row r="338" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P338" s="12"/>
+    </row>
+    <row r="339" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P339" s="12"/>
+    </row>
+    <row r="340" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P340" s="12"/>
+    </row>
+    <row r="341" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P341" s="12"/>
+    </row>
+    <row r="342" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P342" s="12"/>
+    </row>
+    <row r="343" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P343" s="12"/>
+    </row>
+    <row r="344" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P344" s="12"/>
+    </row>
+    <row r="345" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P345" s="12"/>
+    </row>
+    <row r="346" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P346" s="12"/>
+    </row>
+    <row r="347" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P347" s="12"/>
+    </row>
+    <row r="348" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P348" s="12"/>
+    </row>
+    <row r="349" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P349" s="12"/>
+    </row>
+    <row r="350" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P350" s="12"/>
+    </row>
+    <row r="351" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P351" s="12"/>
+    </row>
+    <row r="352" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P352" s="12"/>
+    </row>
+    <row r="353" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P353" s="12"/>
+    </row>
+    <row r="354" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P354" s="12"/>
+    </row>
+    <row r="355" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P355" s="12"/>
+    </row>
+    <row r="356" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P356" s="12"/>
+    </row>
+    <row r="357" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P357" s="12"/>
+    </row>
+    <row r="358" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P358" s="12"/>
+    </row>
+    <row r="359" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P359" s="12"/>
+    </row>
+    <row r="360" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P360" s="12"/>
+    </row>
+    <row r="361" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P361" s="12"/>
+    </row>
+    <row r="362" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P362" s="12"/>
+    </row>
+    <row r="363" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P363" s="12"/>
+    </row>
+    <row r="364" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P364" s="12"/>
+    </row>
+    <row r="365" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P365" s="12"/>
+    </row>
+    <row r="366" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P366" s="12"/>
+    </row>
+    <row r="367" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P367" s="12"/>
+    </row>
+    <row r="368" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P368" s="12"/>
+    </row>
+    <row r="369" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P369" s="12"/>
+    </row>
+    <row r="370" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P370" s="12"/>
+    </row>
+    <row r="371" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P371" s="12"/>
+    </row>
+    <row r="372" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P372" s="12"/>
+    </row>
+    <row r="373" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P373" s="12"/>
+    </row>
+    <row r="374" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P374" s="12"/>
+    </row>
+    <row r="375" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P375" s="12"/>
+    </row>
+    <row r="376" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P376" s="12"/>
+    </row>
+    <row r="377" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P377" s="12"/>
+    </row>
+    <row r="378" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P378" s="12"/>
+    </row>
+    <row r="379" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P379" s="12"/>
+    </row>
+    <row r="380" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P380" s="12"/>
+    </row>
+    <row r="381" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P381" s="12"/>
+    </row>
+    <row r="382" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P382" s="12"/>
+    </row>
+    <row r="383" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P383" s="12"/>
+    </row>
+    <row r="384" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P384" s="12"/>
+    </row>
+    <row r="385" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P385" s="12"/>
+    </row>
+    <row r="386" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P386" s="12"/>
+    </row>
+    <row r="387" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P387" s="12"/>
+    </row>
+    <row r="388" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P388" s="12"/>
+    </row>
+    <row r="389" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P389" s="12"/>
+    </row>
+    <row r="390" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P390" s="12"/>
+    </row>
+    <row r="391" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P391" s="12"/>
+    </row>
+    <row r="392" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P392" s="12"/>
+    </row>
+    <row r="393" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P393" s="12"/>
+    </row>
+    <row r="394" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P394" s="12"/>
+    </row>
+    <row r="395" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P395" s="12"/>
+    </row>
+    <row r="396" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P396" s="12"/>
+    </row>
+    <row r="397" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P397" s="12"/>
+    </row>
+    <row r="398" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P398" s="12"/>
+    </row>
+    <row r="399" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P399" s="12"/>
+    </row>
+    <row r="400" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P400" s="12"/>
+    </row>
+    <row r="401" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P401" s="12"/>
+    </row>
+    <row r="402" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P402" s="12"/>
+    </row>
+    <row r="403" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P403" s="12"/>
+    </row>
+    <row r="404" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P404" s="12"/>
+    </row>
+    <row r="405" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P405" s="12"/>
+    </row>
+    <row r="406" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P406" s="12"/>
+    </row>
+    <row r="407" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P407" s="12"/>
+    </row>
+    <row r="408" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P408" s="12"/>
+    </row>
+    <row r="409" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P409" s="12"/>
+    </row>
+    <row r="410" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P410" s="12"/>
+    </row>
+    <row r="411" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P411" s="12"/>
+    </row>
+    <row r="412" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P412" s="12"/>
+    </row>
+    <row r="413" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P413" s="12"/>
+    </row>
+    <row r="414" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P414" s="12"/>
+    </row>
+    <row r="415" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P415" s="12"/>
+    </row>
+    <row r="416" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P416" s="12"/>
+    </row>
+    <row r="417" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P417" s="12"/>
+    </row>
+    <row r="418" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P418" s="12"/>
+    </row>
+    <row r="419" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P419" s="12"/>
+    </row>
+    <row r="420" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P420" s="12"/>
+    </row>
+    <row r="421" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P421" s="12"/>
+    </row>
+    <row r="422" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P422" s="12"/>
+    </row>
+    <row r="423" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P423" s="12"/>
+    </row>
+    <row r="424" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P424" s="12"/>
+    </row>
+    <row r="425" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P425" s="12"/>
+    </row>
+    <row r="426" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P426" s="12"/>
+    </row>
+    <row r="427" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P427" s="12"/>
+    </row>
+    <row r="428" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P428" s="12"/>
+    </row>
+    <row r="429" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P429" s="12"/>
+    </row>
+    <row r="430" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P430" s="12"/>
+    </row>
+    <row r="431" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P431" s="12"/>
+    </row>
+    <row r="432" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P432" s="12"/>
+    </row>
+    <row r="433" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P433" s="12"/>
+    </row>
+    <row r="434" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P434" s="12"/>
+    </row>
+    <row r="435" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P435" s="12"/>
+    </row>
+    <row r="436" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P436" s="12"/>
+    </row>
+    <row r="437" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P437" s="12"/>
+    </row>
+    <row r="438" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P438" s="12"/>
+    </row>
+    <row r="439" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P439" s="12"/>
+    </row>
+    <row r="440" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P440" s="12"/>
+    </row>
+    <row r="441" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P441" s="12"/>
+    </row>
+    <row r="442" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P442" s="12"/>
+    </row>
+    <row r="443" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P443" s="12"/>
+    </row>
+    <row r="444" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P444" s="12"/>
+    </row>
+    <row r="445" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P445" s="12"/>
+    </row>
+    <row r="446" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P446" s="12"/>
+    </row>
+    <row r="447" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P447" s="12"/>
+    </row>
+    <row r="448" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P448" s="12"/>
+    </row>
+    <row r="449" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P449" s="12"/>
+    </row>
+    <row r="450" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P450" s="12"/>
+    </row>
+    <row r="451" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P451" s="12"/>
+    </row>
+    <row r="452" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P452" s="12"/>
+    </row>
+    <row r="453" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P453" s="12"/>
+    </row>
+    <row r="454" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P454" s="12"/>
+    </row>
+    <row r="455" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P455" s="12"/>
+    </row>
+    <row r="456" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P456" s="12"/>
+    </row>
+    <row r="457" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P457" s="12"/>
+    </row>
+    <row r="458" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P458" s="12"/>
+    </row>
+    <row r="459" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P459" s="12"/>
+    </row>
+    <row r="460" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P460" s="12"/>
+    </row>
+    <row r="461" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P461" s="12"/>
+    </row>
+    <row r="462" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P462" s="12"/>
+    </row>
+    <row r="463" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P463" s="12"/>
+    </row>
+    <row r="464" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P464" s="12"/>
+    </row>
+    <row r="465" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P465" s="12"/>
+    </row>
+    <row r="466" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P466" s="12"/>
+    </row>
+    <row r="467" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P467" s="12"/>
+    </row>
+    <row r="468" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P468" s="12"/>
+    </row>
+    <row r="469" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P469" s="12"/>
+    </row>
+    <row r="470" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P470" s="12"/>
+    </row>
+    <row r="471" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P471" s="12"/>
+    </row>
+    <row r="472" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P472" s="12"/>
+    </row>
+    <row r="473" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P473" s="12"/>
+    </row>
+    <row r="474" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P474" s="12"/>
+    </row>
+    <row r="475" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P475" s="12"/>
+    </row>
+    <row r="476" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P476" s="12"/>
+    </row>
+    <row r="477" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P477" s="12"/>
+    </row>
+    <row r="478" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P478" s="12"/>
+    </row>
+    <row r="479" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P479" s="12"/>
+    </row>
+    <row r="480" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P480" s="12"/>
+    </row>
+    <row r="481" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P481" s="12"/>
+    </row>
+    <row r="482" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P482" s="12"/>
+    </row>
+    <row r="483" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P483" s="12"/>
+    </row>
+    <row r="484" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P484" s="12"/>
+    </row>
+    <row r="485" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P485" s="12"/>
+    </row>
+    <row r="486" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P486" s="12"/>
+    </row>
+    <row r="487" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P487" s="12"/>
+    </row>
+    <row r="488" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P488" s="12"/>
+    </row>
+    <row r="489" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P489" s="12"/>
+    </row>
+    <row r="490" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P490" s="12"/>
+    </row>
+    <row r="491" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P491" s="12"/>
+    </row>
+    <row r="492" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P492" s="12"/>
+    </row>
+    <row r="493" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P493" s="12"/>
+    </row>
+    <row r="494" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P494" s="12"/>
+    </row>
+    <row r="495" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P495" s="12"/>
+    </row>
+    <row r="496" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P496" s="12"/>
+    </row>
+    <row r="497" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P497" s="12"/>
+    </row>
+    <row r="498" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P498" s="12"/>
+    </row>
+    <row r="499" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P499" s="12"/>
+    </row>
+    <row r="500" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P500" s="12"/>
+    </row>
+    <row r="501" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P501" s="12"/>
+    </row>
+    <row r="502" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P502" s="12"/>
+    </row>
+    <row r="503" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P503" s="12"/>
+    </row>
+    <row r="504" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P504" s="12"/>
+    </row>
+    <row r="505" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P505" s="12"/>
+    </row>
+    <row r="506" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P506" s="12"/>
+    </row>
+    <row r="507" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P507" s="12"/>
+    </row>
+    <row r="508" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P508" s="12"/>
+    </row>
+    <row r="509" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P509" s="12"/>
+    </row>
+    <row r="510" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P510" s="12"/>
+    </row>
+    <row r="511" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P511" s="12"/>
+    </row>
+    <row r="512" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P512" s="12"/>
+    </row>
+    <row r="513" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P513" s="12"/>
+    </row>
+    <row r="514" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P514" s="12"/>
+    </row>
+    <row r="515" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P515" s="12"/>
+    </row>
+    <row r="516" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P516" s="12"/>
+    </row>
+    <row r="517" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P517" s="12"/>
+    </row>
+    <row r="518" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P518" s="12"/>
+    </row>
+    <row r="519" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P519" s="12"/>
+    </row>
+    <row r="520" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P520" s="12"/>
+    </row>
+    <row r="521" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P521" s="12"/>
+    </row>
+    <row r="522" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P522" s="12"/>
+    </row>
+    <row r="523" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P523" s="12"/>
+    </row>
+    <row r="524" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P524" s="12"/>
+    </row>
+    <row r="525" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P525" s="12"/>
+    </row>
+    <row r="526" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P526" s="12"/>
+    </row>
+    <row r="527" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P527" s="12"/>
+    </row>
+    <row r="528" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P528" s="12"/>
+    </row>
+    <row r="529" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P529" s="12"/>
+    </row>
+    <row r="530" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P530" s="12"/>
+    </row>
+    <row r="531" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P531" s="12"/>
+    </row>
+    <row r="532" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P532" s="12"/>
+    </row>
+    <row r="533" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P533" s="12"/>
+    </row>
+    <row r="534" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P534" s="12"/>
+    </row>
+    <row r="535" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P535" s="12"/>
+    </row>
+    <row r="536" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P536" s="12"/>
+    </row>
+    <row r="537" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P537" s="12"/>
+    </row>
+    <row r="538" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P538" s="12"/>
+    </row>
+    <row r="539" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P539" s="12"/>
+    </row>
+    <row r="540" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P540" s="12"/>
+    </row>
+    <row r="541" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P541" s="12"/>
+    </row>
+    <row r="542" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P542" s="12"/>
+    </row>
+    <row r="543" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P543" s="12"/>
+    </row>
+    <row r="544" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P544" s="12"/>
+    </row>
+    <row r="545" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P545" s="12"/>
+    </row>
+    <row r="546" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P546" s="12"/>
+    </row>
+    <row r="547" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P547" s="12"/>
+    </row>
+    <row r="548" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P548" s="12"/>
+    </row>
+    <row r="549" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P549" s="12"/>
+    </row>
+    <row r="550" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P550" s="12"/>
+    </row>
+    <row r="551" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P551" s="12"/>
+    </row>
+    <row r="552" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P552" s="12"/>
+    </row>
+    <row r="553" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P553" s="12"/>
+    </row>
+    <row r="554" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P554" s="12"/>
+    </row>
+    <row r="555" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P555" s="12"/>
+    </row>
+    <row r="556" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P556" s="12"/>
+    </row>
+    <row r="557" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P557" s="12"/>
+    </row>
+    <row r="558" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P558" s="12"/>
+    </row>
+    <row r="559" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P559" s="12"/>
+    </row>
+    <row r="560" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P560" s="12"/>
+    </row>
+    <row r="561" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P561" s="12"/>
+    </row>
+    <row r="562" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P562" s="12"/>
+    </row>
+    <row r="563" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P563" s="12"/>
+    </row>
+    <row r="564" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P564" s="12"/>
+    </row>
+    <row r="565" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P565" s="12"/>
+    </row>
+    <row r="566" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P566" s="12"/>
+    </row>
+    <row r="567" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P567" s="12"/>
+    </row>
+    <row r="568" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P568" s="12"/>
+    </row>
+    <row r="569" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P569" s="12"/>
+    </row>
+    <row r="570" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P570" s="12"/>
+    </row>
+    <row r="571" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P571" s="12"/>
+    </row>
+    <row r="572" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P572" s="12"/>
+    </row>
+    <row r="573" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P573" s="12"/>
+    </row>
+    <row r="574" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P574" s="12"/>
+    </row>
+    <row r="575" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P575" s="12"/>
+    </row>
+    <row r="576" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P576" s="12"/>
+    </row>
+    <row r="577" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P577" s="12"/>
+    </row>
+    <row r="578" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P578" s="12"/>
+    </row>
+    <row r="579" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P579" s="12"/>
+    </row>
+    <row r="580" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P580" s="12"/>
+    </row>
+    <row r="581" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P581" s="12"/>
+    </row>
+    <row r="582" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P582" s="12"/>
+    </row>
+    <row r="583" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P583" s="12"/>
+    </row>
+    <row r="584" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P584" s="12"/>
+    </row>
+    <row r="585" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P585" s="12"/>
+    </row>
+    <row r="586" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P586" s="12"/>
+    </row>
+    <row r="587" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P587" s="12"/>
+    </row>
+    <row r="588" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P588" s="12"/>
+    </row>
+    <row r="589" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P589" s="12"/>
+    </row>
+    <row r="590" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P590" s="12"/>
+    </row>
+    <row r="591" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P591" s="12"/>
+    </row>
+    <row r="592" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P592" s="12"/>
+    </row>
+    <row r="593" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P593" s="12"/>
+    </row>
+    <row r="594" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P594" s="12"/>
+    </row>
+    <row r="595" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P595" s="12"/>
+    </row>
+    <row r="596" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P596" s="12"/>
+    </row>
+    <row r="597" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P597" s="12"/>
+    </row>
+    <row r="598" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P598" s="12"/>
+    </row>
+    <row r="599" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P599" s="12"/>
+    </row>
+    <row r="600" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P600" s="12"/>
+    </row>
+    <row r="601" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P601" s="12"/>
+    </row>
+    <row r="602" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P602" s="12"/>
+    </row>
+    <row r="603" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P603" s="12"/>
+    </row>
+    <row r="604" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P604" s="12"/>
+    </row>
+    <row r="605" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P605" s="12"/>
+    </row>
+    <row r="606" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P606" s="12"/>
+    </row>
+    <row r="607" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P607" s="12"/>
+    </row>
+    <row r="608" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P608" s="12"/>
+    </row>
+    <row r="609" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P609" s="12"/>
+    </row>
+    <row r="610" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P610" s="12"/>
+    </row>
+    <row r="611" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P611" s="12"/>
+    </row>
+    <row r="612" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P612" s="12"/>
+    </row>
+    <row r="613" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P613" s="12"/>
+    </row>
+    <row r="614" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P614" s="12"/>
+    </row>
+    <row r="615" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P615" s="12"/>
+    </row>
+    <row r="616" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P616" s="12"/>
+    </row>
+    <row r="617" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P617" s="12"/>
+    </row>
+    <row r="618" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P618" s="12"/>
+    </row>
+    <row r="619" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P619" s="12"/>
+    </row>
+    <row r="620" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P620" s="12"/>
+    </row>
+    <row r="621" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P621" s="12"/>
+    </row>
+    <row r="622" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P622" s="12"/>
+    </row>
+    <row r="623" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P623" s="12"/>
+    </row>
+    <row r="624" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P624" s="12"/>
+    </row>
+    <row r="625" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P625" s="12"/>
+    </row>
+    <row r="626" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P626" s="12"/>
+    </row>
+    <row r="627" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P627" s="12"/>
+    </row>
+    <row r="628" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P628" s="12"/>
+    </row>
+    <row r="629" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P629" s="12"/>
+    </row>
+    <row r="630" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P630" s="12"/>
+    </row>
+    <row r="631" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P631" s="12"/>
+    </row>
+    <row r="632" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P632" s="12"/>
+    </row>
+    <row r="633" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P633" s="12"/>
+    </row>
+    <row r="634" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P634" s="12"/>
+    </row>
+    <row r="635" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P635" s="12"/>
+    </row>
+    <row r="636" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P636" s="12"/>
+    </row>
+    <row r="637" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P637" s="12"/>
+    </row>
+    <row r="638" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P638" s="12"/>
+    </row>
+    <row r="639" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P639" s="12"/>
+    </row>
+    <row r="640" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P640" s="12"/>
+    </row>
+    <row r="641" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P641" s="12"/>
+    </row>
+    <row r="642" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P642" s="12"/>
+    </row>
+    <row r="643" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P643" s="12"/>
+    </row>
+    <row r="644" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P644" s="12"/>
+    </row>
+    <row r="645" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P645" s="12"/>
+    </row>
+    <row r="646" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P646" s="12"/>
+    </row>
+    <row r="647" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P647" s="12"/>
+    </row>
+    <row r="648" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P648" s="12"/>
+    </row>
+    <row r="649" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P649" s="12"/>
+    </row>
+    <row r="650" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P650" s="12"/>
+    </row>
+    <row r="651" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P651" s="12"/>
+    </row>
+    <row r="652" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P652" s="12"/>
+    </row>
+    <row r="653" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P653" s="12"/>
+    </row>
+    <row r="654" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P654" s="12"/>
+    </row>
+    <row r="655" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P655" s="12"/>
+    </row>
+    <row r="656" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P656" s="12"/>
+    </row>
+    <row r="657" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P657" s="12"/>
+    </row>
+    <row r="658" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P658" s="12"/>
+    </row>
+    <row r="659" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P659" s="12"/>
+    </row>
+    <row r="660" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P660" s="12"/>
+    </row>
+    <row r="661" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P661" s="12"/>
+    </row>
+    <row r="662" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P662" s="12"/>
+    </row>
+    <row r="663" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P663" s="12"/>
+    </row>
+    <row r="664" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P664" s="12"/>
+    </row>
+    <row r="665" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P665" s="12"/>
+    </row>
+    <row r="666" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P666" s="12"/>
+    </row>
+    <row r="667" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P667" s="12"/>
+    </row>
+    <row r="668" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P668" s="12"/>
+    </row>
+    <row r="669" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P669" s="12"/>
+    </row>
+    <row r="670" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P670" s="12"/>
+    </row>
+    <row r="671" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P671" s="12"/>
+    </row>
+    <row r="672" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P672" s="12"/>
+    </row>
+    <row r="673" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P673" s="12"/>
+    </row>
+    <row r="674" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P674" s="12"/>
+    </row>
+    <row r="675" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P675" s="12"/>
+    </row>
+    <row r="676" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P676" s="12"/>
+    </row>
+    <row r="677" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P677" s="12"/>
+    </row>
+    <row r="678" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P678" s="12"/>
+    </row>
+    <row r="679" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P679" s="12"/>
+    </row>
+    <row r="680" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P680" s="12"/>
+    </row>
+    <row r="681" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P681" s="12"/>
+    </row>
+    <row r="682" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P682" s="12"/>
+    </row>
+    <row r="683" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P683" s="12"/>
+    </row>
+    <row r="684" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P684" s="12"/>
+    </row>
+    <row r="685" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P685" s="12"/>
+    </row>
+    <row r="686" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P686" s="12"/>
+    </row>
+    <row r="687" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P687" s="12"/>
+    </row>
+    <row r="688" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P688" s="12"/>
+    </row>
+    <row r="689" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P689" s="12"/>
+    </row>
+    <row r="690" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P690" s="12"/>
+    </row>
+    <row r="691" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P691" s="12"/>
+    </row>
+    <row r="692" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P692" s="12"/>
+    </row>
+    <row r="693" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P693" s="12"/>
+    </row>
+    <row r="694" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P694" s="12"/>
+    </row>
+    <row r="695" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P695" s="12"/>
+    </row>
+    <row r="696" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P696" s="12"/>
+    </row>
+    <row r="697" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P697" s="12"/>
+    </row>
+    <row r="698" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P698" s="12"/>
+    </row>
+    <row r="699" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P699" s="12"/>
+    </row>
+    <row r="700" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P700" s="12"/>
+    </row>
+    <row r="701" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P701" s="12"/>
+    </row>
+    <row r="702" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P702" s="12"/>
+    </row>
+    <row r="703" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P703" s="12"/>
+    </row>
+    <row r="704" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P704" s="12"/>
+    </row>
+    <row r="705" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P705" s="12"/>
+    </row>
+    <row r="706" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P706" s="12"/>
+    </row>
+    <row r="707" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P707" s="12"/>
+    </row>
+    <row r="708" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P708" s="12"/>
+    </row>
+    <row r="709" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P709" s="12"/>
+    </row>
+    <row r="710" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P710" s="12"/>
+    </row>
+    <row r="711" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P711" s="12"/>
+    </row>
+    <row r="712" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P712" s="12"/>
+    </row>
+    <row r="713" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P713" s="12"/>
+    </row>
+    <row r="714" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P714" s="12"/>
+    </row>
+    <row r="715" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P715" s="12"/>
+    </row>
+    <row r="716" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P716" s="12"/>
+    </row>
+    <row r="717" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P717" s="12"/>
+    </row>
+    <row r="718" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P718" s="12"/>
+    </row>
+    <row r="719" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P719" s="12"/>
+    </row>
+    <row r="720" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P720" s="12"/>
+    </row>
+    <row r="721" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P721" s="12"/>
+    </row>
+    <row r="722" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P722" s="12"/>
+    </row>
+    <row r="723" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P723" s="12"/>
+    </row>
+    <row r="724" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P724" s="12"/>
+    </row>
+    <row r="725" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P725" s="12"/>
+    </row>
+    <row r="726" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P726" s="12"/>
+    </row>
+    <row r="727" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P727" s="12"/>
+    </row>
+    <row r="728" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P728" s="12"/>
+    </row>
+    <row r="729" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P729" s="12"/>
+    </row>
+    <row r="730" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P730" s="12"/>
+    </row>
+    <row r="731" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P731" s="12"/>
+    </row>
+    <row r="732" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P732" s="12"/>
+    </row>
+    <row r="733" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P733" s="12"/>
+    </row>
+    <row r="734" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P734" s="12"/>
+    </row>
+    <row r="735" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P735" s="12"/>
+    </row>
+    <row r="736" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P736" s="12"/>
+    </row>
+    <row r="737" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P737" s="12"/>
+    </row>
+    <row r="738" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P738" s="12"/>
+    </row>
+    <row r="739" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P739" s="12"/>
+    </row>
+    <row r="740" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P740" s="12"/>
+    </row>
+    <row r="741" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P741" s="12"/>
+    </row>
+    <row r="742" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P742" s="12"/>
+    </row>
+    <row r="743" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P743" s="12"/>
+    </row>
+    <row r="744" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P744" s="12"/>
+    </row>
+    <row r="745" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P745" s="12"/>
+    </row>
+    <row r="746" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P746" s="12"/>
+    </row>
+    <row r="747" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P747" s="12"/>
+    </row>
+    <row r="748" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P748" s="12"/>
+    </row>
+    <row r="749" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P749" s="12"/>
+    </row>
+    <row r="750" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P750" s="12"/>
+    </row>
+    <row r="751" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P751" s="12"/>
+    </row>
+    <row r="752" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P752" s="12"/>
+    </row>
+    <row r="753" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P753" s="12"/>
+    </row>
+    <row r="754" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P754" s="12"/>
+    </row>
+    <row r="755" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P755" s="12"/>
+    </row>
+    <row r="756" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P756" s="12"/>
+    </row>
+    <row r="757" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P757" s="12"/>
+    </row>
+    <row r="758" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P758" s="12"/>
+    </row>
+    <row r="759" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P759" s="12"/>
+    </row>
+    <row r="760" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P760" s="12"/>
+    </row>
+    <row r="761" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P761" s="12"/>
+    </row>
+    <row r="762" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P762" s="12"/>
+    </row>
+    <row r="763" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P763" s="12"/>
+    </row>
+    <row r="764" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P764" s="12"/>
+    </row>
+    <row r="765" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P765" s="12"/>
+    </row>
+    <row r="766" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P766" s="12"/>
+    </row>
+    <row r="767" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P767" s="12"/>
+    </row>
+    <row r="768" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P768" s="12"/>
+    </row>
+    <row r="769" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P769" s="12"/>
+    </row>
+    <row r="770" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P770" s="12"/>
+    </row>
+    <row r="771" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P771" s="12"/>
+    </row>
+    <row r="772" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P772" s="12"/>
+    </row>
+    <row r="773" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P773" s="12"/>
+    </row>
+    <row r="774" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P774" s="12"/>
+    </row>
+    <row r="775" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P775" s="12"/>
+    </row>
+    <row r="776" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P776" s="12"/>
+    </row>
+    <row r="777" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P777" s="12"/>
+    </row>
+    <row r="778" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P778" s="12"/>
+    </row>
+    <row r="779" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P779" s="12"/>
+    </row>
+    <row r="780" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P780" s="12"/>
+    </row>
+    <row r="781" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P781" s="12"/>
+    </row>
+    <row r="782" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P782" s="12"/>
+    </row>
+    <row r="783" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P783" s="12"/>
+    </row>
+    <row r="784" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P784" s="12"/>
+    </row>
+    <row r="785" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P785" s="12"/>
+    </row>
+    <row r="786" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P786" s="12"/>
+    </row>
+    <row r="787" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P787" s="12"/>
+    </row>
+    <row r="788" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P788" s="12"/>
+    </row>
+    <row r="789" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P789" s="12"/>
+    </row>
+    <row r="790" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P790" s="12"/>
+    </row>
+    <row r="791" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P791" s="12"/>
+    </row>
+    <row r="792" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P792" s="12"/>
+    </row>
+    <row r="793" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P793" s="12"/>
+    </row>
+    <row r="794" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P794" s="12"/>
+    </row>
+    <row r="795" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P795" s="12"/>
+    </row>
+    <row r="796" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P796" s="12"/>
+    </row>
+    <row r="797" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P797" s="12"/>
+    </row>
+    <row r="798" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P798" s="12"/>
+    </row>
+    <row r="799" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P799" s="12"/>
+    </row>
+    <row r="800" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P800" s="12"/>
+    </row>
+    <row r="801" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P801" s="12"/>
+    </row>
+    <row r="802" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P802" s="12"/>
+    </row>
+    <row r="803" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P803" s="12"/>
+    </row>
+    <row r="804" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P804" s="12"/>
+    </row>
+    <row r="805" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P805" s="12"/>
+    </row>
+    <row r="806" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P806" s="12"/>
+    </row>
+    <row r="807" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P807" s="12"/>
+    </row>
+    <row r="808" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P808" s="12"/>
+    </row>
+    <row r="809" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P809" s="12"/>
+    </row>
+    <row r="810" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P810" s="12"/>
+    </row>
+    <row r="811" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P811" s="12"/>
+    </row>
+    <row r="812" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P812" s="12"/>
+    </row>
+    <row r="813" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P813" s="12"/>
+    </row>
+    <row r="814" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P814" s="12"/>
+    </row>
+    <row r="815" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P815" s="12"/>
+    </row>
+    <row r="816" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P816" s="12"/>
+    </row>
+    <row r="817" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P817" s="12"/>
+    </row>
+    <row r="818" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P818" s="12"/>
+    </row>
+    <row r="819" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P819" s="12"/>
+    </row>
+    <row r="820" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P820" s="12"/>
+    </row>
+    <row r="821" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P821" s="12"/>
+    </row>
+    <row r="822" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P822" s="12"/>
+    </row>
+    <row r="823" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P823" s="12"/>
+    </row>
+    <row r="824" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P824" s="12"/>
+    </row>
+    <row r="825" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P825" s="12"/>
+    </row>
+    <row r="826" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P826" s="12"/>
+    </row>
+    <row r="827" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P827" s="12"/>
+    </row>
+    <row r="828" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P828" s="12"/>
+    </row>
+    <row r="829" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P829" s="12"/>
+    </row>
+    <row r="830" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P830" s="12"/>
+    </row>
+    <row r="831" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P831" s="12"/>
+    </row>
+    <row r="832" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P832" s="12"/>
+    </row>
+    <row r="833" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P833" s="12"/>
+    </row>
+    <row r="834" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P834" s="12"/>
+    </row>
+    <row r="835" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P835" s="12"/>
+    </row>
+    <row r="836" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P836" s="12"/>
+    </row>
+    <row r="837" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P837" s="12"/>
+    </row>
+    <row r="838" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P838" s="12"/>
+    </row>
+    <row r="839" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P839" s="12"/>
+    </row>
+    <row r="840" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P840" s="12"/>
+    </row>
+    <row r="841" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P841" s="12"/>
+    </row>
+    <row r="842" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P842" s="12"/>
+    </row>
+    <row r="843" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P843" s="12"/>
+    </row>
+    <row r="844" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P844" s="12"/>
+    </row>
+    <row r="845" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P845" s="12"/>
+    </row>
+    <row r="846" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P846" s="12"/>
+    </row>
+    <row r="847" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P847" s="12"/>
+    </row>
+    <row r="848" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P848" s="12"/>
+    </row>
+    <row r="849" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P849" s="12"/>
+    </row>
+    <row r="850" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P850" s="12"/>
+    </row>
+    <row r="851" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P851" s="12"/>
+    </row>
+    <row r="852" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P852" s="12"/>
+    </row>
+    <row r="853" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P853" s="12"/>
+    </row>
+    <row r="854" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P854" s="12"/>
+    </row>
+    <row r="855" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P855" s="12"/>
+    </row>
+    <row r="856" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P856" s="12"/>
+    </row>
+    <row r="857" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P857" s="12"/>
+    </row>
+    <row r="858" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P858" s="12"/>
+    </row>
+    <row r="859" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P859" s="12"/>
+    </row>
+    <row r="860" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P860" s="12"/>
+    </row>
+    <row r="861" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P861" s="12"/>
+    </row>
+    <row r="862" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P862" s="12"/>
+    </row>
+    <row r="863" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P863" s="12"/>
+    </row>
+    <row r="864" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P864" s="12"/>
+    </row>
+    <row r="865" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P865" s="12"/>
+    </row>
+    <row r="866" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P866" s="12"/>
+    </row>
+    <row r="867" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P867" s="12"/>
+    </row>
+    <row r="868" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P868" s="12"/>
+    </row>
+    <row r="869" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P869" s="12"/>
+    </row>
+    <row r="870" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P870" s="12"/>
+    </row>
+    <row r="871" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P871" s="12"/>
+    </row>
+    <row r="872" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P872" s="12"/>
+    </row>
+    <row r="873" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P873" s="12"/>
+    </row>
+    <row r="874" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P874" s="12"/>
+    </row>
+    <row r="875" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P875" s="12"/>
+    </row>
+    <row r="876" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P876" s="12"/>
+    </row>
+    <row r="877" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P877" s="12"/>
+    </row>
+    <row r="878" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P878" s="12"/>
+    </row>
+    <row r="879" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P879" s="12"/>
+    </row>
+    <row r="880" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P880" s="12"/>
+    </row>
+    <row r="881" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P881" s="12"/>
+    </row>
+    <row r="882" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P882" s="12"/>
+    </row>
+    <row r="883" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P883" s="12"/>
+    </row>
+    <row r="884" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P884" s="12"/>
+    </row>
+    <row r="885" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P885" s="12"/>
+    </row>
+    <row r="886" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P886" s="12"/>
+    </row>
+    <row r="887" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P887" s="12"/>
+    </row>
+    <row r="888" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P888" s="12"/>
+    </row>
+    <row r="889" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P889" s="12"/>
+    </row>
+    <row r="890" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P890" s="12"/>
+    </row>
+    <row r="891" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P891" s="12"/>
+    </row>
+    <row r="892" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P892" s="12"/>
+    </row>
+    <row r="893" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P893" s="12"/>
+    </row>
+    <row r="894" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P894" s="12"/>
+    </row>
+    <row r="895" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P895" s="12"/>
+    </row>
+    <row r="896" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P896" s="12"/>
+    </row>
+    <row r="897" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P897" s="12"/>
+    </row>
+    <row r="898" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P898" s="12"/>
+    </row>
+    <row r="899" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P899" s="12"/>
+    </row>
+    <row r="900" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P900" s="12"/>
+    </row>
+    <row r="901" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P901" s="12"/>
+    </row>
+    <row r="902" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P902" s="12"/>
+    </row>
+    <row r="903" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P903" s="12"/>
+    </row>
+    <row r="904" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P904" s="12"/>
+    </row>
+    <row r="905" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P905" s="12"/>
+    </row>
+    <row r="906" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P906" s="12"/>
+    </row>
+    <row r="907" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P907" s="12"/>
+    </row>
+    <row r="908" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P908" s="12"/>
+    </row>
+    <row r="909" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P909" s="12"/>
+    </row>
+    <row r="910" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P910" s="12"/>
+    </row>
+    <row r="911" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P911" s="12"/>
+    </row>
+    <row r="912" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P912" s="12"/>
+    </row>
+    <row r="913" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P913" s="12"/>
+    </row>
+    <row r="914" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P914" s="12"/>
+    </row>
+    <row r="915" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P915" s="12"/>
+    </row>
+    <row r="916" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P916" s="12"/>
+    </row>
+    <row r="917" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P917" s="12"/>
+    </row>
+    <row r="918" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P918" s="12"/>
+    </row>
+    <row r="919" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P919" s="12"/>
+    </row>
+    <row r="920" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P920" s="12"/>
+    </row>
+    <row r="921" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P921" s="12"/>
+    </row>
+    <row r="922" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P922" s="12"/>
+    </row>
+    <row r="923" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P923" s="12"/>
+    </row>
+    <row r="924" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P924" s="12"/>
+    </row>
+    <row r="925" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P925" s="12"/>
+    </row>
+    <row r="926" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P926" s="12"/>
+    </row>
+    <row r="927" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P927" s="12"/>
+    </row>
+    <row r="928" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P928" s="12"/>
+    </row>
+    <row r="929" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P929" s="12"/>
+    </row>
+    <row r="930" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P930" s="12"/>
+    </row>
+    <row r="931" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P931" s="12"/>
+    </row>
+    <row r="932" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P932" s="12"/>
+    </row>
+    <row r="933" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P933" s="12"/>
+    </row>
+    <row r="934" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P934" s="12"/>
+    </row>
+    <row r="935" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P935" s="12"/>
+    </row>
+    <row r="936" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P936" s="12"/>
+    </row>
+    <row r="937" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P937" s="12"/>
+    </row>
+    <row r="938" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P938" s="12"/>
+    </row>
+    <row r="939" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P939" s="12"/>
+    </row>
+    <row r="940" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P940" s="12"/>
+    </row>
+    <row r="941" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P941" s="12"/>
+    </row>
+    <row r="942" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P942" s="12"/>
+    </row>
+    <row r="943" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P943" s="12"/>
+    </row>
+    <row r="944" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P944" s="12"/>
+    </row>
+    <row r="945" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P945" s="12"/>
+    </row>
+    <row r="946" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P946" s="12"/>
+    </row>
+    <row r="947" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P947" s="12"/>
+    </row>
+    <row r="948" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P948" s="12"/>
+    </row>
+    <row r="949" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P949" s="12"/>
+    </row>
+    <row r="950" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P950" s="12"/>
+    </row>
+    <row r="951" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P951" s="12"/>
+    </row>
+    <row r="952" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P952" s="12"/>
+    </row>
+    <row r="953" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P953" s="12"/>
+    </row>
+    <row r="954" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P954" s="12"/>
+    </row>
+    <row r="955" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P955" s="12"/>
+    </row>
+    <row r="956" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P956" s="12"/>
+    </row>
+    <row r="957" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P957" s="12"/>
+    </row>
+    <row r="958" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P958" s="12"/>
+    </row>
+    <row r="959" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P959" s="12"/>
+    </row>
+    <row r="960" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P960" s="12"/>
+    </row>
+    <row r="961" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P961" s="12"/>
+    </row>
+    <row r="962" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P962" s="12"/>
+    </row>
+    <row r="963" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P963" s="12"/>
+    </row>
+    <row r="964" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P964" s="12"/>
+    </row>
+    <row r="965" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P965" s="12"/>
+    </row>
+    <row r="966" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P966" s="12"/>
+    </row>
+    <row r="967" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P967" s="12"/>
+    </row>
+    <row r="968" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P968" s="12"/>
+    </row>
+    <row r="969" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P969" s="12"/>
+    </row>
+    <row r="970" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P970" s="12"/>
+    </row>
+    <row r="971" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P971" s="12"/>
+    </row>
+    <row r="972" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P972" s="12"/>
+    </row>
+    <row r="973" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P973" s="12"/>
+    </row>
+    <row r="974" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P974" s="12"/>
+    </row>
+    <row r="975" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P975" s="12"/>
+    </row>
+    <row r="976" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P976" s="12"/>
+    </row>
+    <row r="977" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P977" s="12"/>
+    </row>
+    <row r="978" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P978" s="12"/>
+    </row>
+    <row r="979" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P979" s="12"/>
+    </row>
+    <row r="980" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P980" s="12"/>
+    </row>
+    <row r="981" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P981" s="12"/>
+    </row>
+    <row r="982" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P982" s="12"/>
+    </row>
+    <row r="983" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P983" s="12"/>
+    </row>
+    <row r="984" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P984" s="12"/>
+    </row>
+    <row r="985" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P985" s="12"/>
+    </row>
+    <row r="986" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P986" s="12"/>
+    </row>
+    <row r="987" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P987" s="12"/>
+    </row>
+    <row r="988" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P988" s="12"/>
+    </row>
+    <row r="989" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P989" s="12"/>
+    </row>
+    <row r="990" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P990" s="12"/>
+    </row>
+    <row r="991" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P991" s="12"/>
+    </row>
+    <row r="992" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P992" s="12"/>
+    </row>
+    <row r="993" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P993" s="12"/>
+    </row>
+    <row r="994" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P994" s="12"/>
+    </row>
+    <row r="995" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P995" s="12"/>
+    </row>
+    <row r="996" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P996" s="12"/>
+    </row>
+    <row r="997" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P997" s="12"/>
+    </row>
+    <row r="998" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P998" s="12"/>
+    </row>
+    <row r="999" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P999" s="12"/>
+    </row>
+    <row r="1000" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P1000" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8266,7 +8580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3899771F-5C6B-4365-9D1C-2996D10ED7C3}">
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cuong\eclipse-workspace\PlatformGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\JavaGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF516B66-44B8-4565-A333-738C506E16A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D7CAA4-A4E2-4580-8DB0-4EC872EFECAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="asset" sheetId="1" r:id="rId1"/>
@@ -793,9 +793,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>ITEM</t>
-  </si>
-  <si>
     <t>ARMOR</t>
   </si>
   <si>
@@ -848,6 +845,9 @@
   </si>
   <si>
     <t>SWORD</t>
+  </si>
+  <si>
+    <t>ITEM / MATERIAL</t>
   </si>
 </sst>
 </file>
@@ -987,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1013,42 +1013,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1230,6 +1199,34 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1373,7 +1370,7 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Effect" dataDxfId="11">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(",",TRUE,B2:L2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{565B05B9-A401-4100-861F-1276F52618F2}" name="Sell" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{565B05B9-A401-4100-861F-1276F52618F2}" name="Sell" dataDxfId="10">
       <calculatedColumnFormula xml:space="preserve"> IF(O2&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Slot"/>
@@ -1386,7 +1383,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BBFDFE2-02AF-4419-9831-1C144A78DA91}" name="Table3" displayName="Table3" ref="A2:B13" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BBFDFE2-02AF-4419-9831-1C144A78DA91}" name="Table3" displayName="Table3" ref="A2:B13" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A2:B13" xr:uid="{6BBFDFE2-02AF-4419-9831-1C144A78DA91}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1400,7 +1397,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}" name="Table25" displayName="Table25" ref="A15:E19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}" name="Table25" displayName="Table25" ref="A15:E19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A15:E19" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1409,18 +1406,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D769D674-B34F-494C-8038-E3794DD8B6EC}" name="Slot" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5628AAA4-363B-4FA4-8343-1E99D6F71D56}" name="Value" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1C8EB72E-5EF1-492E-8BE7-0587E314D85F}" name="Equip/Use" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{78A38015-66C7-4A3E-BC6D-7EB6E7DF082E}" name="Drop" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{2F60684A-BBAF-4052-BFFB-0763531FCA64}" name="Sell" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D769D674-B34F-494C-8038-E3794DD8B6EC}" name="Slot" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5628AAA4-363B-4FA4-8343-1E99D6F71D56}" name="Value" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1C8EB72E-5EF1-492E-8BE7-0587E314D85F}" name="Equip/Use" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{78A38015-66C7-4A3E-BC6D-7EB6E7DF082E}" name="Drop" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2F60684A-BBAF-4052-BFFB-0763531FCA64}" name="Sell" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Trang tính1-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}" name="Table5" displayName="Table5" ref="A21:B31" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}" name="Table5" displayName="Table5" ref="A21:B31" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A21:B31" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1429,7 +1426,7 @@
     <sortCondition ref="B21:B31"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{46CAC607-CFC8-4522-963F-80AD670305B0}" name="Equipment" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{46CAC607-CFC8-4522-963F-80AD670305B0}" name="Equipment" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{BA4AED99-2AAF-4E57-82A8-F1EE74D44AE6}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="Trang tính1-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1639,34 +1636,34 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.5703125" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.265625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.265625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1328125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.9296875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.46484375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.86328125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="29.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="107.1328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="141.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
@@ -1722,7 +1719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1765,7 +1762,7 @@
       </c>
       <c r="N2" s="6">
         <f t="shared" ref="N2:N33" ca="1" si="1" xml:space="preserve"> IF(O2&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</f>
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="O2" s="5">
         <v>-2</v>
@@ -1780,7 +1777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1823,9 +1820,11 @@
       </c>
       <c r="N3" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>458</v>
-      </c>
-      <c r="O3" s="5"/>
+        <v>502</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
       <c r="P3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1879,9 +1878,9 @@
       </c>
       <c r="N4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
-      </c>
-      <c r="O4" s="17">
+        <v>68</v>
+      </c>
+      <c r="O4" s="5">
         <v>-3</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -1894,7 +1893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1937,7 +1936,7 @@
       </c>
       <c r="N5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>371</v>
+        <v>664</v>
       </c>
       <c r="O5" s="5">
         <v>1</v>
@@ -1952,7 +1951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1995,7 +1994,7 @@
       </c>
       <c r="N6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>741</v>
+        <v>1016</v>
       </c>
       <c r="O6" s="5">
         <v>5</v>
@@ -2010,7 +2009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -2053,7 +2052,7 @@
       </c>
       <c r="N7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>923</v>
+        <v>348</v>
       </c>
       <c r="O7" s="5">
         <v>5</v>
@@ -2068,7 +2067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -2111,10 +2110,10 @@
       </c>
       <c r="N8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>288</v>
+        <v>1107</v>
       </c>
       <c r="O8" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>34</v>
@@ -2126,7 +2125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -2169,10 +2168,10 @@
       </c>
       <c r="N9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>338</v>
+        <v>107</v>
       </c>
       <c r="O9" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>46</v>
@@ -2184,7 +2183,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -2227,10 +2226,10 @@
       </c>
       <c r="N10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>283</v>
+        <v>572</v>
       </c>
       <c r="O10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>50</v>
@@ -2242,7 +2241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
@@ -2280,15 +2279,15 @@
         <v>0</v>
       </c>
       <c r="M11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.TEXTJOIN(",",TRUE,B11:L11)</f>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="O11" s="5">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>54</v>
@@ -2300,7 +2299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -2343,10 +2342,10 @@
       </c>
       <c r="N12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="O12" s="5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>58</v>
@@ -2358,7 +2357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -2401,10 +2400,10 @@
       </c>
       <c r="N13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="O13" s="5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>62</v>
@@ -2416,7 +2415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -2459,10 +2458,10 @@
       </c>
       <c r="N14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="O14" s="17">
-        <v>-3</v>
+        <v>83</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-1</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>18</v>
@@ -2474,7 +2473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -2517,10 +2516,10 @@
       </c>
       <c r="N15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="O15" s="17">
-        <v>-3</v>
+        <v>157</v>
+      </c>
+      <c r="O15" s="5">
+        <v>-1</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>18</v>
@@ -2532,7 +2531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -2575,10 +2574,10 @@
       </c>
       <c r="N16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1036</v>
+        <v>99</v>
       </c>
       <c r="O16" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>72</v>
@@ -2590,7 +2589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -2633,10 +2632,10 @@
       </c>
       <c r="N17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="O17" s="17">
-        <v>-3</v>
+        <v>194</v>
+      </c>
+      <c r="O17" s="5">
+        <v>-1</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>18</v>
@@ -2648,7 +2647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
@@ -2691,10 +2690,10 @@
       </c>
       <c r="N18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="O18" s="17">
-        <v>-3</v>
+        <v>122</v>
+      </c>
+      <c r="O18" s="5">
+        <v>-1</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>18</v>
@@ -2706,7 +2705,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
@@ -2749,7 +2748,7 @@
       </c>
       <c r="N19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="O19" s="5">
         <v>-1</v>
@@ -2764,7 +2763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -2807,10 +2806,10 @@
       </c>
       <c r="N20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="O20" s="17">
-        <v>-3</v>
+        <v>111</v>
+      </c>
+      <c r="O20" s="5">
+        <v>-1</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>18</v>
@@ -2822,7 +2821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -2865,10 +2864,10 @@
       </c>
       <c r="N21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="O21" s="17">
-        <v>-3</v>
+        <v>63</v>
+      </c>
+      <c r="O21" s="5">
+        <v>-1</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>18</v>
@@ -2880,7 +2879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -2923,7 +2922,7 @@
       </c>
       <c r="N22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>962</v>
+        <v>379</v>
       </c>
       <c r="O22" s="5">
         <v>1</v>
@@ -2938,7 +2937,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>90</v>
       </c>
@@ -2981,7 +2980,7 @@
       </c>
       <c r="N23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>593</v>
       </c>
       <c r="O23" s="5">
         <v>1</v>
@@ -2996,7 +2995,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>94</v>
       </c>
@@ -3039,9 +3038,9 @@
       </c>
       <c r="N24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="O24" s="17">
+        <v>42</v>
+      </c>
+      <c r="O24" s="5">
         <v>-3</v>
       </c>
       <c r="P24" s="6" t="s">
@@ -3054,7 +3053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
@@ -3097,9 +3096,9 @@
       </c>
       <c r="N25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="O25" s="17">
+        <v>89</v>
+      </c>
+      <c r="O25" s="5">
         <v>-3</v>
       </c>
       <c r="P25" s="6" t="s">
@@ -3112,7 +3111,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>98</v>
       </c>
@@ -3155,9 +3154,9 @@
       </c>
       <c r="N26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="O26" s="17">
+        <v>30</v>
+      </c>
+      <c r="O26" s="5">
         <v>-3</v>
       </c>
       <c r="P26" s="6" t="s">
@@ -3170,7 +3169,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>100</v>
       </c>
@@ -3213,7 +3212,7 @@
       </c>
       <c r="N27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="O27" s="5">
         <v>-1</v>
@@ -3228,7 +3227,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
@@ -3271,7 +3270,7 @@
       </c>
       <c r="N28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="O28" s="5">
         <v>1</v>
@@ -3286,7 +3285,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -3329,7 +3328,7 @@
       </c>
       <c r="N29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>691</v>
       </c>
       <c r="O29" s="5">
         <v>1</v>
@@ -3344,7 +3343,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>111</v>
       </c>
@@ -3387,7 +3386,7 @@
       </c>
       <c r="N30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="O30" s="5">
         <v>-1</v>
@@ -3402,7 +3401,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>115</v>
       </c>
@@ -3445,7 +3444,7 @@
       </c>
       <c r="N31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>723</v>
+        <v>1038</v>
       </c>
       <c r="O31" s="5">
         <v>2</v>
@@ -3460,7 +3459,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>119</v>
       </c>
@@ -3503,7 +3502,7 @@
       </c>
       <c r="N32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>956</v>
+        <v>185</v>
       </c>
       <c r="O32" s="5">
         <v>2</v>
@@ -3518,7 +3517,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>121</v>
       </c>
@@ -3561,7 +3560,7 @@
       </c>
       <c r="N33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>548</v>
+        <v>304</v>
       </c>
       <c r="O33" s="5">
         <v>2</v>
@@ -3576,7 +3575,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
@@ -3619,7 +3618,7 @@
       </c>
       <c r="N34" s="6">
         <f t="shared" ref="N34:N65" ca="1" si="3" xml:space="preserve"> IF(O34&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</f>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O34" s="5">
         <v>-1</v>
@@ -3634,7 +3633,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>127</v>
       </c>
@@ -3677,7 +3676,7 @@
       </c>
       <c r="N35" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1033</v>
+        <v>1149</v>
       </c>
       <c r="O35" s="5">
         <v>3</v>
@@ -3692,7 +3691,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -3735,9 +3734,9 @@
       </c>
       <c r="N36" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="O36" s="17">
+        <v>174</v>
+      </c>
+      <c r="O36" s="5">
         <v>-3</v>
       </c>
       <c r="P36" s="6" t="s">
@@ -3750,7 +3749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>133</v>
       </c>
@@ -3793,9 +3792,9 @@
       </c>
       <c r="N37" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="O37" s="17">
+        <v>50</v>
+      </c>
+      <c r="O37" s="5">
         <v>-3</v>
       </c>
       <c r="P37" s="6" t="s">
@@ -3808,7 +3807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>135</v>
       </c>
@@ -3851,7 +3850,7 @@
       </c>
       <c r="N38" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>144</v>
+        <v>536</v>
       </c>
       <c r="O38" s="5">
         <v>3</v>
@@ -3866,7 +3865,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>138</v>
       </c>
@@ -3909,7 +3908,7 @@
       </c>
       <c r="N39" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="O39" s="5">
         <v>1</v>
@@ -3924,7 +3923,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>141</v>
       </c>
@@ -3967,7 +3966,7 @@
       </c>
       <c r="N40" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>401</v>
+        <v>707</v>
       </c>
       <c r="O40" s="5">
         <v>5</v>
@@ -3982,7 +3981,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -4025,7 +4024,7 @@
       </c>
       <c r="N41" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>931</v>
+        <v>596</v>
       </c>
       <c r="O41" s="5">
         <v>5</v>
@@ -4040,7 +4039,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>149</v>
       </c>
@@ -4083,7 +4082,7 @@
       </c>
       <c r="N42" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1074</v>
+        <v>981</v>
       </c>
       <c r="O42" s="5">
         <v>1</v>
@@ -4098,7 +4097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>152</v>
       </c>
@@ -4141,9 +4140,9 @@
       </c>
       <c r="N43" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>114</v>
-      </c>
-      <c r="O43" s="17">
+        <v>80</v>
+      </c>
+      <c r="O43" s="5">
         <v>-3</v>
       </c>
       <c r="P43" s="6" t="s">
@@ -4156,7 +4155,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
@@ -4199,7 +4198,7 @@
       </c>
       <c r="N44" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="O44" s="5">
         <v>-1</v>
@@ -4214,7 +4213,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>157</v>
       </c>
@@ -4257,7 +4256,7 @@
       </c>
       <c r="N45" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="O45" s="5">
         <v>1</v>
@@ -4272,7 +4271,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>161</v>
       </c>
@@ -4315,7 +4314,7 @@
       </c>
       <c r="N46" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="O46" s="5">
         <v>-1</v>
@@ -4330,7 +4329,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>164</v>
       </c>
@@ -4373,7 +4372,7 @@
       </c>
       <c r="N47" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>745</v>
+        <v>1004</v>
       </c>
       <c r="O47" s="5">
         <v>7</v>
@@ -4388,7 +4387,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>168</v>
       </c>
@@ -4431,7 +4430,7 @@
       </c>
       <c r="N48" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1041</v>
+        <v>574</v>
       </c>
       <c r="O48" s="5">
         <v>7</v>
@@ -4446,7 +4445,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>172</v>
       </c>
@@ -4489,7 +4488,7 @@
       </c>
       <c r="N49" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="O49" s="5">
         <v>-1</v>
@@ -4504,7 +4503,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>175</v>
       </c>
@@ -4547,7 +4546,7 @@
       </c>
       <c r="N50" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="O50" s="5">
         <v>-1</v>
@@ -4562,7 +4561,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>179</v>
       </c>
@@ -4605,7 +4604,7 @@
       </c>
       <c r="N51" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="O51" s="5">
         <v>-2</v>
@@ -4620,7 +4619,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>183</v>
       </c>
@@ -4663,7 +4662,7 @@
       </c>
       <c r="N52" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1108</v>
+        <v>517</v>
       </c>
       <c r="O52" s="5">
         <v>1</v>
@@ -4678,7 +4677,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>186</v>
       </c>
@@ -4721,7 +4720,7 @@
       </c>
       <c r="N53" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>607</v>
+        <v>829</v>
       </c>
       <c r="O53" s="5">
         <v>1</v>
@@ -4736,7 +4735,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>190</v>
       </c>
@@ -4779,7 +4778,7 @@
       </c>
       <c r="N54" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="O54" s="5">
         <v>-1</v>
@@ -4794,7 +4793,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>193</v>
       </c>
@@ -4837,7 +4836,7 @@
       </c>
       <c r="N55" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="O55" s="5">
         <v>-1</v>
@@ -4852,7 +4851,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>197</v>
       </c>
@@ -4895,7 +4894,7 @@
       </c>
       <c r="N56" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>985</v>
+        <v>247</v>
       </c>
       <c r="O56" s="5">
         <v>8</v>
@@ -4910,7 +4909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>201</v>
       </c>
@@ -4953,7 +4952,7 @@
       </c>
       <c r="N57" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>595</v>
+        <v>1051</v>
       </c>
       <c r="O57" s="5">
         <v>8</v>
@@ -4968,7 +4967,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>205</v>
       </c>
@@ -5011,7 +5010,7 @@
       </c>
       <c r="N58" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>284</v>
+        <v>109</v>
       </c>
       <c r="O58" s="5">
         <v>2</v>
@@ -5026,7 +5025,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>209</v>
       </c>
@@ -5069,7 +5068,7 @@
       </c>
       <c r="N59" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>379</v>
+        <v>649</v>
       </c>
       <c r="O59" s="5">
         <v>2</v>
@@ -5084,7 +5083,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>212</v>
       </c>
@@ -5127,7 +5126,7 @@
       </c>
       <c r="N60" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="O60" s="5">
         <v>0</v>
@@ -5142,7 +5141,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>216</v>
       </c>
@@ -5185,9 +5184,9 @@
       </c>
       <c r="N61" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="O61" s="17">
+        <v>125</v>
+      </c>
+      <c r="O61" s="5">
         <v>-3</v>
       </c>
       <c r="P61" s="6" t="s">
@@ -5200,7 +5199,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>218</v>
       </c>
@@ -5243,7 +5242,7 @@
       </c>
       <c r="N62" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>483</v>
+        <v>672</v>
       </c>
       <c r="O62" s="5">
         <v>0</v>
@@ -5258,7 +5257,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>220</v>
       </c>
@@ -5301,7 +5300,7 @@
       </c>
       <c r="N63" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>215</v>
+        <v>1076</v>
       </c>
       <c r="O63" s="5">
         <v>0</v>
@@ -5316,7 +5315,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>222</v>
       </c>
@@ -5359,7 +5358,7 @@
       </c>
       <c r="N64" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1043</v>
+        <v>676</v>
       </c>
       <c r="O64" s="5">
         <v>1</v>
@@ -5374,7 +5373,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>227</v>
       </c>
@@ -5417,7 +5416,7 @@
       </c>
       <c r="N65" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="O65" s="5">
         <v>-1</v>
@@ -5432,7 +5431,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>231</v>
       </c>
@@ -5474,8 +5473,8 @@
         <v>100,200,80,0.3,0,0.3,0,0,0,0,0</v>
       </c>
       <c r="N66" s="6">
-        <f t="shared" ref="N66:N97" ca="1" si="5" xml:space="preserve"> IF(O66&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</f>
-        <v>939</v>
+        <f t="shared" ref="N66:N71" ca="1" si="5" xml:space="preserve"> IF(O66&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</f>
+        <v>1160</v>
       </c>
       <c r="O66" s="5">
         <v>2</v>
@@ -5490,7 +5489,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>235</v>
       </c>
@@ -5533,7 +5532,7 @@
       </c>
       <c r="N67" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>122</v>
+        <v>1069</v>
       </c>
       <c r="O67" s="5">
         <v>2</v>
@@ -5548,7 +5547,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>239</v>
       </c>
@@ -5591,7 +5590,7 @@
       </c>
       <c r="N68" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="O68" s="5">
         <v>-2</v>
@@ -5606,7 +5605,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>242</v>
       </c>
@@ -5649,7 +5648,7 @@
       </c>
       <c r="N69" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="O69" s="5">
         <v>-1</v>
@@ -5664,7 +5663,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>245</v>
       </c>
@@ -5707,7 +5706,7 @@
       </c>
       <c r="N70" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="O70" s="5">
         <v>-1</v>
@@ -5722,7 +5721,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>249</v>
       </c>
@@ -5765,7 +5764,7 @@
       </c>
       <c r="N71" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>730</v>
       </c>
       <c r="O71" s="9">
         <v>8</v>
@@ -5780,2791 +5779,2791 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P72" s="12"/>
     </row>
-    <row r="73" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P73" s="12"/>
     </row>
-    <row r="74" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P74" s="12"/>
     </row>
-    <row r="75" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P75" s="12"/>
     </row>
-    <row r="76" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P76" s="12"/>
     </row>
-    <row r="77" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P77" s="12"/>
     </row>
-    <row r="78" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P78" s="12"/>
     </row>
-    <row r="79" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P79" s="12"/>
     </row>
-    <row r="80" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P80" s="12"/>
     </row>
-    <row r="81" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P81" s="12"/>
     </row>
-    <row r="82" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P82" s="12"/>
     </row>
-    <row r="83" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P83" s="12"/>
     </row>
-    <row r="84" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P84" s="12"/>
     </row>
-    <row r="85" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P85" s="12"/>
     </row>
-    <row r="86" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P86" s="12"/>
     </row>
-    <row r="87" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P87" s="12"/>
     </row>
-    <row r="88" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P88" s="12"/>
     </row>
-    <row r="89" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P89" s="12"/>
     </row>
-    <row r="90" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P90" s="12"/>
     </row>
-    <row r="91" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P92" s="12"/>
     </row>
-    <row r="93" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P93" s="12"/>
     </row>
-    <row r="94" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P94" s="12"/>
     </row>
-    <row r="95" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P95" s="12"/>
     </row>
-    <row r="96" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P96" s="12"/>
     </row>
-    <row r="97" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P97" s="12"/>
     </row>
-    <row r="98" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P98" s="12"/>
     </row>
-    <row r="99" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P99" s="12"/>
     </row>
-    <row r="100" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P100" s="12"/>
     </row>
-    <row r="101" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P101" s="12"/>
     </row>
-    <row r="102" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P102" s="12"/>
     </row>
-    <row r="103" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P103" s="12"/>
     </row>
-    <row r="104" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P104" s="12"/>
     </row>
-    <row r="105" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P105" s="12"/>
     </row>
-    <row r="106" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P106" s="12"/>
     </row>
-    <row r="107" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P107" s="12"/>
     </row>
-    <row r="108" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P108" s="12"/>
     </row>
-    <row r="109" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P109" s="12"/>
     </row>
-    <row r="110" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P110" s="12"/>
     </row>
-    <row r="111" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P111" s="12"/>
     </row>
-    <row r="112" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P112" s="12"/>
     </row>
-    <row r="113" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P113" s="12"/>
     </row>
-    <row r="114" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P114" s="12"/>
     </row>
-    <row r="115" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P115" s="12"/>
     </row>
-    <row r="116" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P116" s="12"/>
     </row>
-    <row r="117" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P117" s="12"/>
     </row>
-    <row r="118" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P118" s="12"/>
     </row>
-    <row r="119" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P119" s="12"/>
     </row>
-    <row r="120" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P120" s="12"/>
     </row>
-    <row r="121" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P121" s="12"/>
     </row>
-    <row r="122" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P122" s="12"/>
     </row>
-    <row r="123" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P123" s="12"/>
     </row>
-    <row r="124" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P124" s="12"/>
     </row>
-    <row r="125" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P125" s="12"/>
     </row>
-    <row r="126" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P126" s="12"/>
     </row>
-    <row r="127" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P127" s="12"/>
     </row>
-    <row r="128" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P128" s="12"/>
     </row>
-    <row r="129" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P129" s="12"/>
     </row>
-    <row r="130" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P130" s="12"/>
     </row>
-    <row r="131" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P131" s="12"/>
     </row>
-    <row r="132" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P132" s="12"/>
     </row>
-    <row r="133" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P133" s="12"/>
     </row>
-    <row r="134" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P134" s="12"/>
     </row>
-    <row r="135" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P135" s="12"/>
     </row>
-    <row r="136" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P136" s="12"/>
     </row>
-    <row r="137" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P137" s="12"/>
     </row>
-    <row r="138" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P138" s="12"/>
     </row>
-    <row r="139" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P139" s="12"/>
     </row>
-    <row r="140" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P140" s="12"/>
     </row>
-    <row r="141" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P141" s="12"/>
     </row>
-    <row r="142" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P142" s="12"/>
     </row>
-    <row r="143" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P143" s="12"/>
     </row>
-    <row r="144" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P144" s="12"/>
     </row>
-    <row r="145" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P145" s="12"/>
     </row>
-    <row r="146" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P146" s="12"/>
     </row>
-    <row r="147" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P147" s="12"/>
     </row>
-    <row r="148" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P148" s="12"/>
     </row>
-    <row r="149" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P149" s="12"/>
     </row>
-    <row r="150" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P150" s="12"/>
     </row>
-    <row r="151" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P151" s="12"/>
     </row>
-    <row r="152" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P152" s="12"/>
     </row>
-    <row r="153" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P153" s="12"/>
     </row>
-    <row r="154" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P154" s="12"/>
     </row>
-    <row r="155" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P155" s="12"/>
     </row>
-    <row r="156" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P156" s="12"/>
     </row>
-    <row r="157" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P157" s="12"/>
     </row>
-    <row r="158" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P158" s="12"/>
     </row>
-    <row r="159" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P159" s="12"/>
     </row>
-    <row r="160" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P160" s="12"/>
     </row>
-    <row r="161" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P161" s="12"/>
     </row>
-    <row r="162" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P162" s="12"/>
     </row>
-    <row r="163" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P163" s="12"/>
     </row>
-    <row r="164" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P164" s="12"/>
     </row>
-    <row r="165" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P165" s="12"/>
     </row>
-    <row r="166" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P166" s="12"/>
     </row>
-    <row r="167" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P167" s="12"/>
     </row>
-    <row r="168" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P168" s="12"/>
     </row>
-    <row r="169" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P169" s="12"/>
     </row>
-    <row r="170" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P170" s="12"/>
     </row>
-    <row r="171" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P171" s="12"/>
     </row>
-    <row r="172" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P172" s="12"/>
     </row>
-    <row r="173" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P173" s="12"/>
     </row>
-    <row r="174" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P174" s="12"/>
     </row>
-    <row r="175" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P175" s="12"/>
     </row>
-    <row r="176" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P176" s="12"/>
     </row>
-    <row r="177" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P177" s="12"/>
     </row>
-    <row r="178" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P178" s="12"/>
     </row>
-    <row r="179" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P179" s="12"/>
     </row>
-    <row r="180" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P180" s="12"/>
     </row>
-    <row r="181" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P181" s="12"/>
     </row>
-    <row r="182" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P182" s="12"/>
     </row>
-    <row r="183" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P183" s="12"/>
     </row>
-    <row r="184" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P184" s="12"/>
     </row>
-    <row r="185" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P185" s="12"/>
     </row>
-    <row r="186" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P186" s="12"/>
     </row>
-    <row r="187" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P187" s="12"/>
     </row>
-    <row r="188" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P188" s="12"/>
     </row>
-    <row r="189" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P189" s="12"/>
     </row>
-    <row r="190" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P190" s="12"/>
     </row>
-    <row r="191" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P191" s="12"/>
     </row>
-    <row r="192" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P192" s="12"/>
     </row>
-    <row r="193" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P193" s="12"/>
     </row>
-    <row r="194" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P194" s="12"/>
     </row>
-    <row r="195" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P195" s="12"/>
     </row>
-    <row r="196" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P196" s="12"/>
     </row>
-    <row r="197" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P197" s="12"/>
     </row>
-    <row r="198" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P198" s="12"/>
     </row>
-    <row r="199" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P199" s="12"/>
     </row>
-    <row r="200" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P200" s="12"/>
     </row>
-    <row r="201" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P201" s="12"/>
     </row>
-    <row r="202" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P202" s="12"/>
     </row>
-    <row r="203" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P203" s="12"/>
     </row>
-    <row r="204" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P204" s="12"/>
     </row>
-    <row r="205" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P205" s="12"/>
     </row>
-    <row r="206" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P206" s="12"/>
     </row>
-    <row r="207" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P207" s="12"/>
     </row>
-    <row r="208" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P208" s="12"/>
     </row>
-    <row r="209" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P209" s="12"/>
     </row>
-    <row r="210" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P210" s="12"/>
     </row>
-    <row r="211" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P211" s="12"/>
     </row>
-    <row r="212" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P212" s="12"/>
     </row>
-    <row r="213" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P213" s="12"/>
     </row>
-    <row r="214" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P214" s="12"/>
     </row>
-    <row r="215" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P215" s="12"/>
     </row>
-    <row r="216" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P216" s="12"/>
     </row>
-    <row r="217" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P217" s="12"/>
     </row>
-    <row r="218" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P218" s="12"/>
     </row>
-    <row r="219" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P219" s="12"/>
     </row>
-    <row r="220" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P220" s="12"/>
     </row>
-    <row r="221" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P221" s="12"/>
     </row>
-    <row r="222" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P222" s="12"/>
     </row>
-    <row r="223" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P223" s="12"/>
     </row>
-    <row r="224" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P224" s="12"/>
     </row>
-    <row r="225" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P225" s="12"/>
     </row>
-    <row r="226" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P226" s="12"/>
     </row>
-    <row r="227" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P227" s="12"/>
     </row>
-    <row r="228" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P228" s="12"/>
     </row>
-    <row r="229" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P229" s="12"/>
     </row>
-    <row r="230" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P230" s="12"/>
     </row>
-    <row r="231" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P231" s="12"/>
     </row>
-    <row r="232" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P232" s="12"/>
     </row>
-    <row r="233" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P233" s="12"/>
     </row>
-    <row r="234" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P234" s="12"/>
     </row>
-    <row r="235" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P235" s="12"/>
     </row>
-    <row r="236" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P236" s="12"/>
     </row>
-    <row r="237" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P237" s="12"/>
     </row>
-    <row r="238" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P238" s="12"/>
     </row>
-    <row r="239" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P239" s="12"/>
     </row>
-    <row r="240" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P240" s="12"/>
     </row>
-    <row r="241" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P241" s="12"/>
     </row>
-    <row r="242" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P242" s="12"/>
     </row>
-    <row r="243" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P243" s="12"/>
     </row>
-    <row r="244" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P244" s="12"/>
     </row>
-    <row r="245" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P245" s="12"/>
     </row>
-    <row r="246" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P246" s="12"/>
     </row>
-    <row r="247" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P247" s="12"/>
     </row>
-    <row r="248" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P248" s="12"/>
     </row>
-    <row r="249" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P249" s="12"/>
     </row>
-    <row r="250" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P250" s="12"/>
     </row>
-    <row r="251" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P251" s="12"/>
     </row>
-    <row r="252" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P252" s="12"/>
     </row>
-    <row r="253" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P253" s="12"/>
     </row>
-    <row r="254" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P254" s="12"/>
     </row>
-    <row r="255" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P255" s="12"/>
     </row>
-    <row r="256" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P256" s="12"/>
     </row>
-    <row r="257" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P257" s="12"/>
     </row>
-    <row r="258" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P258" s="12"/>
     </row>
-    <row r="259" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P259" s="12"/>
     </row>
-    <row r="260" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P260" s="12"/>
     </row>
-    <row r="261" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P261" s="12"/>
     </row>
-    <row r="262" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P262" s="12"/>
     </row>
-    <row r="263" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P263" s="12"/>
     </row>
-    <row r="264" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P264" s="12"/>
     </row>
-    <row r="265" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P265" s="12"/>
     </row>
-    <row r="266" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P266" s="12"/>
     </row>
-    <row r="267" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P267" s="12"/>
     </row>
-    <row r="268" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P268" s="12"/>
     </row>
-    <row r="269" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P269" s="12"/>
     </row>
-    <row r="270" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P270" s="12"/>
     </row>
-    <row r="271" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P271" s="12"/>
     </row>
-    <row r="272" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P272" s="12"/>
     </row>
-    <row r="273" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P273" s="12"/>
     </row>
-    <row r="274" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P274" s="12"/>
     </row>
-    <row r="275" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P275" s="12"/>
     </row>
-    <row r="276" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P276" s="12"/>
     </row>
-    <row r="277" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P277" s="12"/>
     </row>
-    <row r="278" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P278" s="12"/>
     </row>
-    <row r="279" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P279" s="12"/>
     </row>
-    <row r="280" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P280" s="12"/>
     </row>
-    <row r="281" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P281" s="12"/>
     </row>
-    <row r="282" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P282" s="12"/>
     </row>
-    <row r="283" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P283" s="12"/>
     </row>
-    <row r="284" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P284" s="12"/>
     </row>
-    <row r="285" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P285" s="12"/>
     </row>
-    <row r="286" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P286" s="12"/>
     </row>
-    <row r="287" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P287" s="12"/>
     </row>
-    <row r="288" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P288" s="12"/>
     </row>
-    <row r="289" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P289" s="12"/>
     </row>
-    <row r="290" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P290" s="12"/>
     </row>
-    <row r="291" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P291" s="12"/>
     </row>
-    <row r="292" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P292" s="12"/>
     </row>
-    <row r="293" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P293" s="12"/>
     </row>
-    <row r="294" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P294" s="12"/>
     </row>
-    <row r="295" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P295" s="12"/>
     </row>
-    <row r="296" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P296" s="12"/>
     </row>
-    <row r="297" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P297" s="12"/>
     </row>
-    <row r="298" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P298" s="12"/>
     </row>
-    <row r="299" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P299" s="12"/>
     </row>
-    <row r="300" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P300" s="12"/>
     </row>
-    <row r="301" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P301" s="12"/>
     </row>
-    <row r="302" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P302" s="12"/>
     </row>
-    <row r="303" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P303" s="12"/>
     </row>
-    <row r="304" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P304" s="12"/>
     </row>
-    <row r="305" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P305" s="12"/>
     </row>
-    <row r="306" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P306" s="12"/>
     </row>
-    <row r="307" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P307" s="12"/>
     </row>
-    <row r="308" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P308" s="12"/>
     </row>
-    <row r="309" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P309" s="12"/>
     </row>
-    <row r="310" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P310" s="12"/>
     </row>
-    <row r="311" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P311" s="12"/>
     </row>
-    <row r="312" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P312" s="12"/>
     </row>
-    <row r="313" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P313" s="12"/>
     </row>
-    <row r="314" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P314" s="12"/>
     </row>
-    <row r="315" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P315" s="12"/>
     </row>
-    <row r="316" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P316" s="12"/>
     </row>
-    <row r="317" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P317" s="12"/>
     </row>
-    <row r="318" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P318" s="12"/>
     </row>
-    <row r="319" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P319" s="12"/>
     </row>
-    <row r="320" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P320" s="12"/>
     </row>
-    <row r="321" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P321" s="12"/>
     </row>
-    <row r="322" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P322" s="12"/>
     </row>
-    <row r="323" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P323" s="12"/>
     </row>
-    <row r="324" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P324" s="12"/>
     </row>
-    <row r="325" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P325" s="12"/>
     </row>
-    <row r="326" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P326" s="12"/>
     </row>
-    <row r="327" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P327" s="12"/>
     </row>
-    <row r="328" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P328" s="12"/>
     </row>
-    <row r="329" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P329" s="12"/>
     </row>
-    <row r="330" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P330" s="12"/>
     </row>
-    <row r="331" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P331" s="12"/>
     </row>
-    <row r="332" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P332" s="12"/>
     </row>
-    <row r="333" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P333" s="12"/>
     </row>
-    <row r="334" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P334" s="12"/>
     </row>
-    <row r="335" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P335" s="12"/>
     </row>
-    <row r="336" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P336" s="12"/>
     </row>
-    <row r="337" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P337" s="12"/>
     </row>
-    <row r="338" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P338" s="12"/>
     </row>
-    <row r="339" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P339" s="12"/>
     </row>
-    <row r="340" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P340" s="12"/>
     </row>
-    <row r="341" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P341" s="12"/>
     </row>
-    <row r="342" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P342" s="12"/>
     </row>
-    <row r="343" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P343" s="12"/>
     </row>
-    <row r="344" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P344" s="12"/>
     </row>
-    <row r="345" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P345" s="12"/>
     </row>
-    <row r="346" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P346" s="12"/>
     </row>
-    <row r="347" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P347" s="12"/>
     </row>
-    <row r="348" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P348" s="12"/>
     </row>
-    <row r="349" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P349" s="12"/>
     </row>
-    <row r="350" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P350" s="12"/>
     </row>
-    <row r="351" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P351" s="12"/>
     </row>
-    <row r="352" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P352" s="12"/>
     </row>
-    <row r="353" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P353" s="12"/>
     </row>
-    <row r="354" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P354" s="12"/>
     </row>
-    <row r="355" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P355" s="12"/>
     </row>
-    <row r="356" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P356" s="12"/>
     </row>
-    <row r="357" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P357" s="12"/>
     </row>
-    <row r="358" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P358" s="12"/>
     </row>
-    <row r="359" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P359" s="12"/>
     </row>
-    <row r="360" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P360" s="12"/>
     </row>
-    <row r="361" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P361" s="12"/>
     </row>
-    <row r="362" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P362" s="12"/>
     </row>
-    <row r="363" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P363" s="12"/>
     </row>
-    <row r="364" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P364" s="12"/>
     </row>
-    <row r="365" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P365" s="12"/>
     </row>
-    <row r="366" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P366" s="12"/>
     </row>
-    <row r="367" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P367" s="12"/>
     </row>
-    <row r="368" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P368" s="12"/>
     </row>
-    <row r="369" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P369" s="12"/>
     </row>
-    <row r="370" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P370" s="12"/>
     </row>
-    <row r="371" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P371" s="12"/>
     </row>
-    <row r="372" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P372" s="12"/>
     </row>
-    <row r="373" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P373" s="12"/>
     </row>
-    <row r="374" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P374" s="12"/>
     </row>
-    <row r="375" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P375" s="12"/>
     </row>
-    <row r="376" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P376" s="12"/>
     </row>
-    <row r="377" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P377" s="12"/>
     </row>
-    <row r="378" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P378" s="12"/>
     </row>
-    <row r="379" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P379" s="12"/>
     </row>
-    <row r="380" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P380" s="12"/>
     </row>
-    <row r="381" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P381" s="12"/>
     </row>
-    <row r="382" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P382" s="12"/>
     </row>
-    <row r="383" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P383" s="12"/>
     </row>
-    <row r="384" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P384" s="12"/>
     </row>
-    <row r="385" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P385" s="12"/>
     </row>
-    <row r="386" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P386" s="12"/>
     </row>
-    <row r="387" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P387" s="12"/>
     </row>
-    <row r="388" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P388" s="12"/>
     </row>
-    <row r="389" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P389" s="12"/>
     </row>
-    <row r="390" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P390" s="12"/>
     </row>
-    <row r="391" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P391" s="12"/>
     </row>
-    <row r="392" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P392" s="12"/>
     </row>
-    <row r="393" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P393" s="12"/>
     </row>
-    <row r="394" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P394" s="12"/>
     </row>
-    <row r="395" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P395" s="12"/>
     </row>
-    <row r="396" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P396" s="12"/>
     </row>
-    <row r="397" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P397" s="12"/>
     </row>
-    <row r="398" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P398" s="12"/>
     </row>
-    <row r="399" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P399" s="12"/>
     </row>
-    <row r="400" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P400" s="12"/>
     </row>
-    <row r="401" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P401" s="12"/>
     </row>
-    <row r="402" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P402" s="12"/>
     </row>
-    <row r="403" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P403" s="12"/>
     </row>
-    <row r="404" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P404" s="12"/>
     </row>
-    <row r="405" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P405" s="12"/>
     </row>
-    <row r="406" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P406" s="12"/>
     </row>
-    <row r="407" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P407" s="12"/>
     </row>
-    <row r="408" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P408" s="12"/>
     </row>
-    <row r="409" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P409" s="12"/>
     </row>
-    <row r="410" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P410" s="12"/>
     </row>
-    <row r="411" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P411" s="12"/>
     </row>
-    <row r="412" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P412" s="12"/>
     </row>
-    <row r="413" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P413" s="12"/>
     </row>
-    <row r="414" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P414" s="12"/>
     </row>
-    <row r="415" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P415" s="12"/>
     </row>
-    <row r="416" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P416" s="12"/>
     </row>
-    <row r="417" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P417" s="12"/>
     </row>
-    <row r="418" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P418" s="12"/>
     </row>
-    <row r="419" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P419" s="12"/>
     </row>
-    <row r="420" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P420" s="12"/>
     </row>
-    <row r="421" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P421" s="12"/>
     </row>
-    <row r="422" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P422" s="12"/>
     </row>
-    <row r="423" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P423" s="12"/>
     </row>
-    <row r="424" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P424" s="12"/>
     </row>
-    <row r="425" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P425" s="12"/>
     </row>
-    <row r="426" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P426" s="12"/>
     </row>
-    <row r="427" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P427" s="12"/>
     </row>
-    <row r="428" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P428" s="12"/>
     </row>
-    <row r="429" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P429" s="12"/>
     </row>
-    <row r="430" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P430" s="12"/>
     </row>
-    <row r="431" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P431" s="12"/>
     </row>
-    <row r="432" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P432" s="12"/>
     </row>
-    <row r="433" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P433" s="12"/>
     </row>
-    <row r="434" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P434" s="12"/>
     </row>
-    <row r="435" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P435" s="12"/>
     </row>
-    <row r="436" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P436" s="12"/>
     </row>
-    <row r="437" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P437" s="12"/>
     </row>
-    <row r="438" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P438" s="12"/>
     </row>
-    <row r="439" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P439" s="12"/>
     </row>
-    <row r="440" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P440" s="12"/>
     </row>
-    <row r="441" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P441" s="12"/>
     </row>
-    <row r="442" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P442" s="12"/>
     </row>
-    <row r="443" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P443" s="12"/>
     </row>
-    <row r="444" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P444" s="12"/>
     </row>
-    <row r="445" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P445" s="12"/>
     </row>
-    <row r="446" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P446" s="12"/>
     </row>
-    <row r="447" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P447" s="12"/>
     </row>
-    <row r="448" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P448" s="12"/>
     </row>
-    <row r="449" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P449" s="12"/>
     </row>
-    <row r="450" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P450" s="12"/>
     </row>
-    <row r="451" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P451" s="12"/>
     </row>
-    <row r="452" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P452" s="12"/>
     </row>
-    <row r="453" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P453" s="12"/>
     </row>
-    <row r="454" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P454" s="12"/>
     </row>
-    <row r="455" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P455" s="12"/>
     </row>
-    <row r="456" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P456" s="12"/>
     </row>
-    <row r="457" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P457" s="12"/>
     </row>
-    <row r="458" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P458" s="12"/>
     </row>
-    <row r="459" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P459" s="12"/>
     </row>
-    <row r="460" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P460" s="12"/>
     </row>
-    <row r="461" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P461" s="12"/>
     </row>
-    <row r="462" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P462" s="12"/>
     </row>
-    <row r="463" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P463" s="12"/>
     </row>
-    <row r="464" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P464" s="12"/>
     </row>
-    <row r="465" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P465" s="12"/>
     </row>
-    <row r="466" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P466" s="12"/>
     </row>
-    <row r="467" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P467" s="12"/>
     </row>
-    <row r="468" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P468" s="12"/>
     </row>
-    <row r="469" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P469" s="12"/>
     </row>
-    <row r="470" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P470" s="12"/>
     </row>
-    <row r="471" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P471" s="12"/>
     </row>
-    <row r="472" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P472" s="12"/>
     </row>
-    <row r="473" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P473" s="12"/>
     </row>
-    <row r="474" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P474" s="12"/>
     </row>
-    <row r="475" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P475" s="12"/>
     </row>
-    <row r="476" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P476" s="12"/>
     </row>
-    <row r="477" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P477" s="12"/>
     </row>
-    <row r="478" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P478" s="12"/>
     </row>
-    <row r="479" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P479" s="12"/>
     </row>
-    <row r="480" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P480" s="12"/>
     </row>
-    <row r="481" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P481" s="12"/>
     </row>
-    <row r="482" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P482" s="12"/>
     </row>
-    <row r="483" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P483" s="12"/>
     </row>
-    <row r="484" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P484" s="12"/>
     </row>
-    <row r="485" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P485" s="12"/>
     </row>
-    <row r="486" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P486" s="12"/>
     </row>
-    <row r="487" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P487" s="12"/>
     </row>
-    <row r="488" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P488" s="12"/>
     </row>
-    <row r="489" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P489" s="12"/>
     </row>
-    <row r="490" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P490" s="12"/>
     </row>
-    <row r="491" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P491" s="12"/>
     </row>
-    <row r="492" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P492" s="12"/>
     </row>
-    <row r="493" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P493" s="12"/>
     </row>
-    <row r="494" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P494" s="12"/>
     </row>
-    <row r="495" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P495" s="12"/>
     </row>
-    <row r="496" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P496" s="12"/>
     </row>
-    <row r="497" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P497" s="12"/>
     </row>
-    <row r="498" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P498" s="12"/>
     </row>
-    <row r="499" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P499" s="12"/>
     </row>
-    <row r="500" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P500" s="12"/>
     </row>
-    <row r="501" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P501" s="12"/>
     </row>
-    <row r="502" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P502" s="12"/>
     </row>
-    <row r="503" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P503" s="12"/>
     </row>
-    <row r="504" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P504" s="12"/>
     </row>
-    <row r="505" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P505" s="12"/>
     </row>
-    <row r="506" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P506" s="12"/>
     </row>
-    <row r="507" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P507" s="12"/>
     </row>
-    <row r="508" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P508" s="12"/>
     </row>
-    <row r="509" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P509" s="12"/>
     </row>
-    <row r="510" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P510" s="12"/>
     </row>
-    <row r="511" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P511" s="12"/>
     </row>
-    <row r="512" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P512" s="12"/>
     </row>
-    <row r="513" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P513" s="12"/>
     </row>
-    <row r="514" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P514" s="12"/>
     </row>
-    <row r="515" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P515" s="12"/>
     </row>
-    <row r="516" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P516" s="12"/>
     </row>
-    <row r="517" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P517" s="12"/>
     </row>
-    <row r="518" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P518" s="12"/>
     </row>
-    <row r="519" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P519" s="12"/>
     </row>
-    <row r="520" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P520" s="12"/>
     </row>
-    <row r="521" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P521" s="12"/>
     </row>
-    <row r="522" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P522" s="12"/>
     </row>
-    <row r="523" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P523" s="12"/>
     </row>
-    <row r="524" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P524" s="12"/>
     </row>
-    <row r="525" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P525" s="12"/>
     </row>
-    <row r="526" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P526" s="12"/>
     </row>
-    <row r="527" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P527" s="12"/>
     </row>
-    <row r="528" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P528" s="12"/>
     </row>
-    <row r="529" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P529" s="12"/>
     </row>
-    <row r="530" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P530" s="12"/>
     </row>
-    <row r="531" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P531" s="12"/>
     </row>
-    <row r="532" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P532" s="12"/>
     </row>
-    <row r="533" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P533" s="12"/>
     </row>
-    <row r="534" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P534" s="12"/>
     </row>
-    <row r="535" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P535" s="12"/>
     </row>
-    <row r="536" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P536" s="12"/>
     </row>
-    <row r="537" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P537" s="12"/>
     </row>
-    <row r="538" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P538" s="12"/>
     </row>
-    <row r="539" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P539" s="12"/>
     </row>
-    <row r="540" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P540" s="12"/>
     </row>
-    <row r="541" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P541" s="12"/>
     </row>
-    <row r="542" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P542" s="12"/>
     </row>
-    <row r="543" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P543" s="12"/>
     </row>
-    <row r="544" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P544" s="12"/>
     </row>
-    <row r="545" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P545" s="12"/>
     </row>
-    <row r="546" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P546" s="12"/>
     </row>
-    <row r="547" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P547" s="12"/>
     </row>
-    <row r="548" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P548" s="12"/>
     </row>
-    <row r="549" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P549" s="12"/>
     </row>
-    <row r="550" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P550" s="12"/>
     </row>
-    <row r="551" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P551" s="12"/>
     </row>
-    <row r="552" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P552" s="12"/>
     </row>
-    <row r="553" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P553" s="12"/>
     </row>
-    <row r="554" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P554" s="12"/>
     </row>
-    <row r="555" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P555" s="12"/>
     </row>
-    <row r="556" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P556" s="12"/>
     </row>
-    <row r="557" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P557" s="12"/>
     </row>
-    <row r="558" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P558" s="12"/>
     </row>
-    <row r="559" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P559" s="12"/>
     </row>
-    <row r="560" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P560" s="12"/>
     </row>
-    <row r="561" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P561" s="12"/>
     </row>
-    <row r="562" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P562" s="12"/>
     </row>
-    <row r="563" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P563" s="12"/>
     </row>
-    <row r="564" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P564" s="12"/>
     </row>
-    <row r="565" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P565" s="12"/>
     </row>
-    <row r="566" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P566" s="12"/>
     </row>
-    <row r="567" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P567" s="12"/>
     </row>
-    <row r="568" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P568" s="12"/>
     </row>
-    <row r="569" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P569" s="12"/>
     </row>
-    <row r="570" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P570" s="12"/>
     </row>
-    <row r="571" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P571" s="12"/>
     </row>
-    <row r="572" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P572" s="12"/>
     </row>
-    <row r="573" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P573" s="12"/>
     </row>
-    <row r="574" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P574" s="12"/>
     </row>
-    <row r="575" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P575" s="12"/>
     </row>
-    <row r="576" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P576" s="12"/>
     </row>
-    <row r="577" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P577" s="12"/>
     </row>
-    <row r="578" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P578" s="12"/>
     </row>
-    <row r="579" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P579" s="12"/>
     </row>
-    <row r="580" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P580" s="12"/>
     </row>
-    <row r="581" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P581" s="12"/>
     </row>
-    <row r="582" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P582" s="12"/>
     </row>
-    <row r="583" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P583" s="12"/>
     </row>
-    <row r="584" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P584" s="12"/>
     </row>
-    <row r="585" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P585" s="12"/>
     </row>
-    <row r="586" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P586" s="12"/>
     </row>
-    <row r="587" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P587" s="12"/>
     </row>
-    <row r="588" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P588" s="12"/>
     </row>
-    <row r="589" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P589" s="12"/>
     </row>
-    <row r="590" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P590" s="12"/>
     </row>
-    <row r="591" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P591" s="12"/>
     </row>
-    <row r="592" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P592" s="12"/>
     </row>
-    <row r="593" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P593" s="12"/>
     </row>
-    <row r="594" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P594" s="12"/>
     </row>
-    <row r="595" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P595" s="12"/>
     </row>
-    <row r="596" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P596" s="12"/>
     </row>
-    <row r="597" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P597" s="12"/>
     </row>
-    <row r="598" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P598" s="12"/>
     </row>
-    <row r="599" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P599" s="12"/>
     </row>
-    <row r="600" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P600" s="12"/>
     </row>
-    <row r="601" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P601" s="12"/>
     </row>
-    <row r="602" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P602" s="12"/>
     </row>
-    <row r="603" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P603" s="12"/>
     </row>
-    <row r="604" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P604" s="12"/>
     </row>
-    <row r="605" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P605" s="12"/>
     </row>
-    <row r="606" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P606" s="12"/>
     </row>
-    <row r="607" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P607" s="12"/>
     </row>
-    <row r="608" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P608" s="12"/>
     </row>
-    <row r="609" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P609" s="12"/>
     </row>
-    <row r="610" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P610" s="12"/>
     </row>
-    <row r="611" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P611" s="12"/>
     </row>
-    <row r="612" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P612" s="12"/>
     </row>
-    <row r="613" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P613" s="12"/>
     </row>
-    <row r="614" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P614" s="12"/>
     </row>
-    <row r="615" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P615" s="12"/>
     </row>
-    <row r="616" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P616" s="12"/>
     </row>
-    <row r="617" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P617" s="12"/>
     </row>
-    <row r="618" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P618" s="12"/>
     </row>
-    <row r="619" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P619" s="12"/>
     </row>
-    <row r="620" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P620" s="12"/>
     </row>
-    <row r="621" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P621" s="12"/>
     </row>
-    <row r="622" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P622" s="12"/>
     </row>
-    <row r="623" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P623" s="12"/>
     </row>
-    <row r="624" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P624" s="12"/>
     </row>
-    <row r="625" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P625" s="12"/>
     </row>
-    <row r="626" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P626" s="12"/>
     </row>
-    <row r="627" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P627" s="12"/>
     </row>
-    <row r="628" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P628" s="12"/>
     </row>
-    <row r="629" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P629" s="12"/>
     </row>
-    <row r="630" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P630" s="12"/>
     </row>
-    <row r="631" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P631" s="12"/>
     </row>
-    <row r="632" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P632" s="12"/>
     </row>
-    <row r="633" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P633" s="12"/>
     </row>
-    <row r="634" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P634" s="12"/>
     </row>
-    <row r="635" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P635" s="12"/>
     </row>
-    <row r="636" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P636" s="12"/>
     </row>
-    <row r="637" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P637" s="12"/>
     </row>
-    <row r="638" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P638" s="12"/>
     </row>
-    <row r="639" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P639" s="12"/>
     </row>
-    <row r="640" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P640" s="12"/>
     </row>
-    <row r="641" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P641" s="12"/>
     </row>
-    <row r="642" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P642" s="12"/>
     </row>
-    <row r="643" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P643" s="12"/>
     </row>
-    <row r="644" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P644" s="12"/>
     </row>
-    <row r="645" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P645" s="12"/>
     </row>
-    <row r="646" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P646" s="12"/>
     </row>
-    <row r="647" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P647" s="12"/>
     </row>
-    <row r="648" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P648" s="12"/>
     </row>
-    <row r="649" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P649" s="12"/>
     </row>
-    <row r="650" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P650" s="12"/>
     </row>
-    <row r="651" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P651" s="12"/>
     </row>
-    <row r="652" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P652" s="12"/>
     </row>
-    <row r="653" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P653" s="12"/>
     </row>
-    <row r="654" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P654" s="12"/>
     </row>
-    <row r="655" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P655" s="12"/>
     </row>
-    <row r="656" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P656" s="12"/>
     </row>
-    <row r="657" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P657" s="12"/>
     </row>
-    <row r="658" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P658" s="12"/>
     </row>
-    <row r="659" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P659" s="12"/>
     </row>
-    <row r="660" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P660" s="12"/>
     </row>
-    <row r="661" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P661" s="12"/>
     </row>
-    <row r="662" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P662" s="12"/>
     </row>
-    <row r="663" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P663" s="12"/>
     </row>
-    <row r="664" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P664" s="12"/>
     </row>
-    <row r="665" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P665" s="12"/>
     </row>
-    <row r="666" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P666" s="12"/>
     </row>
-    <row r="667" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P667" s="12"/>
     </row>
-    <row r="668" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P668" s="12"/>
     </row>
-    <row r="669" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P669" s="12"/>
     </row>
-    <row r="670" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P670" s="12"/>
     </row>
-    <row r="671" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P671" s="12"/>
     </row>
-    <row r="672" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P672" s="12"/>
     </row>
-    <row r="673" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P673" s="12"/>
     </row>
-    <row r="674" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P674" s="12"/>
     </row>
-    <row r="675" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P675" s="12"/>
     </row>
-    <row r="676" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P676" s="12"/>
     </row>
-    <row r="677" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P677" s="12"/>
     </row>
-    <row r="678" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P678" s="12"/>
     </row>
-    <row r="679" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P679" s="12"/>
     </row>
-    <row r="680" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P680" s="12"/>
     </row>
-    <row r="681" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P681" s="12"/>
     </row>
-    <row r="682" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P682" s="12"/>
     </row>
-    <row r="683" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P683" s="12"/>
     </row>
-    <row r="684" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P684" s="12"/>
     </row>
-    <row r="685" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P685" s="12"/>
     </row>
-    <row r="686" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P686" s="12"/>
     </row>
-    <row r="687" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P687" s="12"/>
     </row>
-    <row r="688" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P688" s="12"/>
     </row>
-    <row r="689" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P689" s="12"/>
     </row>
-    <row r="690" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P690" s="12"/>
     </row>
-    <row r="691" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P691" s="12"/>
     </row>
-    <row r="692" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P692" s="12"/>
     </row>
-    <row r="693" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P693" s="12"/>
     </row>
-    <row r="694" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P694" s="12"/>
     </row>
-    <row r="695" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P695" s="12"/>
     </row>
-    <row r="696" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P696" s="12"/>
     </row>
-    <row r="697" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P697" s="12"/>
     </row>
-    <row r="698" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P698" s="12"/>
     </row>
-    <row r="699" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P699" s="12"/>
     </row>
-    <row r="700" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P700" s="12"/>
     </row>
-    <row r="701" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P701" s="12"/>
     </row>
-    <row r="702" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P702" s="12"/>
     </row>
-    <row r="703" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P703" s="12"/>
     </row>
-    <row r="704" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P704" s="12"/>
     </row>
-    <row r="705" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P705" s="12"/>
     </row>
-    <row r="706" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P706" s="12"/>
     </row>
-    <row r="707" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P707" s="12"/>
     </row>
-    <row r="708" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P708" s="12"/>
     </row>
-    <row r="709" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P709" s="12"/>
     </row>
-    <row r="710" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P710" s="12"/>
     </row>
-    <row r="711" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P711" s="12"/>
     </row>
-    <row r="712" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P712" s="12"/>
     </row>
-    <row r="713" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P713" s="12"/>
     </row>
-    <row r="714" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P714" s="12"/>
     </row>
-    <row r="715" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P715" s="12"/>
     </row>
-    <row r="716" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P716" s="12"/>
     </row>
-    <row r="717" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P717" s="12"/>
     </row>
-    <row r="718" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P718" s="12"/>
     </row>
-    <row r="719" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P719" s="12"/>
     </row>
-    <row r="720" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P720" s="12"/>
     </row>
-    <row r="721" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P721" s="12"/>
     </row>
-    <row r="722" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P722" s="12"/>
     </row>
-    <row r="723" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P723" s="12"/>
     </row>
-    <row r="724" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P724" s="12"/>
     </row>
-    <row r="725" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P725" s="12"/>
     </row>
-    <row r="726" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P726" s="12"/>
     </row>
-    <row r="727" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P727" s="12"/>
     </row>
-    <row r="728" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P728" s="12"/>
     </row>
-    <row r="729" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P729" s="12"/>
     </row>
-    <row r="730" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P730" s="12"/>
     </row>
-    <row r="731" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P731" s="12"/>
     </row>
-    <row r="732" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P732" s="12"/>
     </row>
-    <row r="733" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P733" s="12"/>
     </row>
-    <row r="734" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P734" s="12"/>
     </row>
-    <row r="735" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P735" s="12"/>
     </row>
-    <row r="736" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P736" s="12"/>
     </row>
-    <row r="737" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P737" s="12"/>
     </row>
-    <row r="738" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P738" s="12"/>
     </row>
-    <row r="739" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P739" s="12"/>
     </row>
-    <row r="740" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P740" s="12"/>
     </row>
-    <row r="741" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P741" s="12"/>
     </row>
-    <row r="742" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P742" s="12"/>
     </row>
-    <row r="743" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P743" s="12"/>
     </row>
-    <row r="744" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P744" s="12"/>
     </row>
-    <row r="745" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P745" s="12"/>
     </row>
-    <row r="746" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P746" s="12"/>
     </row>
-    <row r="747" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P747" s="12"/>
     </row>
-    <row r="748" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P748" s="12"/>
     </row>
-    <row r="749" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P749" s="12"/>
     </row>
-    <row r="750" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P750" s="12"/>
     </row>
-    <row r="751" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P751" s="12"/>
     </row>
-    <row r="752" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P752" s="12"/>
     </row>
-    <row r="753" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P753" s="12"/>
     </row>
-    <row r="754" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P754" s="12"/>
     </row>
-    <row r="755" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P755" s="12"/>
     </row>
-    <row r="756" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P756" s="12"/>
     </row>
-    <row r="757" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P757" s="12"/>
     </row>
-    <row r="758" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P758" s="12"/>
     </row>
-    <row r="759" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P759" s="12"/>
     </row>
-    <row r="760" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P760" s="12"/>
     </row>
-    <row r="761" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P761" s="12"/>
     </row>
-    <row r="762" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P762" s="12"/>
     </row>
-    <row r="763" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P763" s="12"/>
     </row>
-    <row r="764" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P764" s="12"/>
     </row>
-    <row r="765" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P765" s="12"/>
     </row>
-    <row r="766" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P766" s="12"/>
     </row>
-    <row r="767" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P767" s="12"/>
     </row>
-    <row r="768" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P768" s="12"/>
     </row>
-    <row r="769" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P769" s="12"/>
     </row>
-    <row r="770" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P770" s="12"/>
     </row>
-    <row r="771" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P771" s="12"/>
     </row>
-    <row r="772" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P772" s="12"/>
     </row>
-    <row r="773" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P773" s="12"/>
     </row>
-    <row r="774" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P774" s="12"/>
     </row>
-    <row r="775" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P775" s="12"/>
     </row>
-    <row r="776" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P776" s="12"/>
     </row>
-    <row r="777" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P777" s="12"/>
     </row>
-    <row r="778" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P778" s="12"/>
     </row>
-    <row r="779" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P779" s="12"/>
     </row>
-    <row r="780" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P780" s="12"/>
     </row>
-    <row r="781" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P781" s="12"/>
     </row>
-    <row r="782" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P782" s="12"/>
     </row>
-    <row r="783" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P783" s="12"/>
     </row>
-    <row r="784" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P784" s="12"/>
     </row>
-    <row r="785" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P785" s="12"/>
     </row>
-    <row r="786" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P786" s="12"/>
     </row>
-    <row r="787" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P787" s="12"/>
     </row>
-    <row r="788" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P788" s="12"/>
     </row>
-    <row r="789" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P789" s="12"/>
     </row>
-    <row r="790" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P790" s="12"/>
     </row>
-    <row r="791" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P791" s="12"/>
     </row>
-    <row r="792" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P792" s="12"/>
     </row>
-    <row r="793" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P793" s="12"/>
     </row>
-    <row r="794" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P794" s="12"/>
     </row>
-    <row r="795" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P795" s="12"/>
     </row>
-    <row r="796" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P796" s="12"/>
     </row>
-    <row r="797" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P797" s="12"/>
     </row>
-    <row r="798" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P798" s="12"/>
     </row>
-    <row r="799" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P799" s="12"/>
     </row>
-    <row r="800" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P800" s="12"/>
     </row>
-    <row r="801" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P801" s="12"/>
     </row>
-    <row r="802" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P802" s="12"/>
     </row>
-    <row r="803" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P803" s="12"/>
     </row>
-    <row r="804" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P804" s="12"/>
     </row>
-    <row r="805" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P805" s="12"/>
     </row>
-    <row r="806" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P806" s="12"/>
     </row>
-    <row r="807" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P807" s="12"/>
     </row>
-    <row r="808" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P808" s="12"/>
     </row>
-    <row r="809" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P809" s="12"/>
     </row>
-    <row r="810" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P810" s="12"/>
     </row>
-    <row r="811" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P811" s="12"/>
     </row>
-    <row r="812" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P812" s="12"/>
     </row>
-    <row r="813" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P813" s="12"/>
     </row>
-    <row r="814" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P814" s="12"/>
     </row>
-    <row r="815" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P815" s="12"/>
     </row>
-    <row r="816" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P816" s="12"/>
     </row>
-    <row r="817" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P817" s="12"/>
     </row>
-    <row r="818" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P818" s="12"/>
     </row>
-    <row r="819" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P819" s="12"/>
     </row>
-    <row r="820" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P820" s="12"/>
     </row>
-    <row r="821" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P821" s="12"/>
     </row>
-    <row r="822" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P822" s="12"/>
     </row>
-    <row r="823" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P823" s="12"/>
     </row>
-    <row r="824" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P824" s="12"/>
     </row>
-    <row r="825" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P825" s="12"/>
     </row>
-    <row r="826" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P826" s="12"/>
     </row>
-    <row r="827" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P827" s="12"/>
     </row>
-    <row r="828" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P828" s="12"/>
     </row>
-    <row r="829" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P829" s="12"/>
     </row>
-    <row r="830" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P830" s="12"/>
     </row>
-    <row r="831" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P831" s="12"/>
     </row>
-    <row r="832" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P832" s="12"/>
     </row>
-    <row r="833" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P833" s="12"/>
     </row>
-    <row r="834" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P834" s="12"/>
     </row>
-    <row r="835" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P835" s="12"/>
     </row>
-    <row r="836" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P836" s="12"/>
     </row>
-    <row r="837" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P837" s="12"/>
     </row>
-    <row r="838" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P838" s="12"/>
     </row>
-    <row r="839" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P839" s="12"/>
     </row>
-    <row r="840" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P840" s="12"/>
     </row>
-    <row r="841" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P841" s="12"/>
     </row>
-    <row r="842" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P842" s="12"/>
     </row>
-    <row r="843" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P843" s="12"/>
     </row>
-    <row r="844" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P844" s="12"/>
     </row>
-    <row r="845" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P845" s="12"/>
     </row>
-    <row r="846" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P846" s="12"/>
     </row>
-    <row r="847" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P847" s="12"/>
     </row>
-    <row r="848" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P848" s="12"/>
     </row>
-    <row r="849" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P849" s="12"/>
     </row>
-    <row r="850" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P850" s="12"/>
     </row>
-    <row r="851" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P851" s="12"/>
     </row>
-    <row r="852" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P852" s="12"/>
     </row>
-    <row r="853" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P853" s="12"/>
     </row>
-    <row r="854" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P854" s="12"/>
     </row>
-    <row r="855" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P855" s="12"/>
     </row>
-    <row r="856" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P856" s="12"/>
     </row>
-    <row r="857" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P857" s="12"/>
     </row>
-    <row r="858" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P858" s="12"/>
     </row>
-    <row r="859" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P859" s="12"/>
     </row>
-    <row r="860" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P860" s="12"/>
     </row>
-    <row r="861" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P861" s="12"/>
     </row>
-    <row r="862" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P862" s="12"/>
     </row>
-    <row r="863" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P863" s="12"/>
     </row>
-    <row r="864" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P864" s="12"/>
     </row>
-    <row r="865" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P865" s="12"/>
     </row>
-    <row r="866" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P866" s="12"/>
     </row>
-    <row r="867" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P867" s="12"/>
     </row>
-    <row r="868" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P868" s="12"/>
     </row>
-    <row r="869" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P869" s="12"/>
     </row>
-    <row r="870" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P870" s="12"/>
     </row>
-    <row r="871" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P871" s="12"/>
     </row>
-    <row r="872" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P872" s="12"/>
     </row>
-    <row r="873" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P873" s="12"/>
     </row>
-    <row r="874" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P874" s="12"/>
     </row>
-    <row r="875" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P875" s="12"/>
     </row>
-    <row r="876" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P876" s="12"/>
     </row>
-    <row r="877" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P877" s="12"/>
     </row>
-    <row r="878" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P878" s="12"/>
     </row>
-    <row r="879" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P879" s="12"/>
     </row>
-    <row r="880" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P880" s="12"/>
     </row>
-    <row r="881" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P881" s="12"/>
     </row>
-    <row r="882" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P882" s="12"/>
     </row>
-    <row r="883" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P883" s="12"/>
     </row>
-    <row r="884" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P884" s="12"/>
     </row>
-    <row r="885" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P885" s="12"/>
     </row>
-    <row r="886" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P886" s="12"/>
     </row>
-    <row r="887" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P887" s="12"/>
     </row>
-    <row r="888" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P888" s="12"/>
     </row>
-    <row r="889" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P889" s="12"/>
     </row>
-    <row r="890" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P890" s="12"/>
     </row>
-    <row r="891" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P891" s="12"/>
     </row>
-    <row r="892" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P892" s="12"/>
     </row>
-    <row r="893" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P893" s="12"/>
     </row>
-    <row r="894" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P894" s="12"/>
     </row>
-    <row r="895" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P895" s="12"/>
     </row>
-    <row r="896" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P896" s="12"/>
     </row>
-    <row r="897" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P897" s="12"/>
     </row>
-    <row r="898" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P898" s="12"/>
     </row>
-    <row r="899" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P899" s="12"/>
     </row>
-    <row r="900" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P900" s="12"/>
     </row>
-    <row r="901" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P901" s="12"/>
     </row>
-    <row r="902" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P902" s="12"/>
     </row>
-    <row r="903" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P903" s="12"/>
     </row>
-    <row r="904" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P904" s="12"/>
     </row>
-    <row r="905" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P905" s="12"/>
     </row>
-    <row r="906" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P906" s="12"/>
     </row>
-    <row r="907" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P907" s="12"/>
     </row>
-    <row r="908" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P908" s="12"/>
     </row>
-    <row r="909" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P909" s="12"/>
     </row>
-    <row r="910" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P910" s="12"/>
     </row>
-    <row r="911" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P911" s="12"/>
     </row>
-    <row r="912" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P912" s="12"/>
     </row>
-    <row r="913" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P913" s="12"/>
     </row>
-    <row r="914" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P914" s="12"/>
     </row>
-    <row r="915" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P915" s="12"/>
     </row>
-    <row r="916" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P916" s="12"/>
     </row>
-    <row r="917" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P917" s="12"/>
     </row>
-    <row r="918" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P918" s="12"/>
     </row>
-    <row r="919" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P919" s="12"/>
     </row>
-    <row r="920" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P920" s="12"/>
     </row>
-    <row r="921" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P921" s="12"/>
     </row>
-    <row r="922" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P922" s="12"/>
     </row>
-    <row r="923" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P923" s="12"/>
     </row>
-    <row r="924" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P924" s="12"/>
     </row>
-    <row r="925" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P925" s="12"/>
     </row>
-    <row r="926" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P926" s="12"/>
     </row>
-    <row r="927" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P927" s="12"/>
     </row>
-    <row r="928" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P928" s="12"/>
     </row>
-    <row r="929" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P929" s="12"/>
     </row>
-    <row r="930" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P930" s="12"/>
     </row>
-    <row r="931" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P931" s="12"/>
     </row>
-    <row r="932" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P932" s="12"/>
     </row>
-    <row r="933" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P933" s="12"/>
     </row>
-    <row r="934" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P934" s="12"/>
     </row>
-    <row r="935" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P935" s="12"/>
     </row>
-    <row r="936" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P936" s="12"/>
     </row>
-    <row r="937" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P937" s="12"/>
     </row>
-    <row r="938" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P938" s="12"/>
     </row>
-    <row r="939" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P939" s="12"/>
     </row>
-    <row r="940" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P940" s="12"/>
     </row>
-    <row r="941" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P941" s="12"/>
     </row>
-    <row r="942" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P942" s="12"/>
     </row>
-    <row r="943" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P943" s="12"/>
     </row>
-    <row r="944" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P944" s="12"/>
     </row>
-    <row r="945" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P945" s="12"/>
     </row>
-    <row r="946" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P946" s="12"/>
     </row>
-    <row r="947" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P947" s="12"/>
     </row>
-    <row r="948" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P948" s="12"/>
     </row>
-    <row r="949" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P949" s="12"/>
     </row>
-    <row r="950" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P950" s="12"/>
     </row>
-    <row r="951" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P951" s="12"/>
     </row>
-    <row r="952" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P952" s="12"/>
     </row>
-    <row r="953" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P953" s="12"/>
     </row>
-    <row r="954" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P954" s="12"/>
     </row>
-    <row r="955" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P955" s="12"/>
     </row>
-    <row r="956" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P956" s="12"/>
     </row>
-    <row r="957" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P957" s="12"/>
     </row>
-    <row r="958" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P958" s="12"/>
     </row>
-    <row r="959" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P959" s="12"/>
     </row>
-    <row r="960" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P960" s="12"/>
     </row>
-    <row r="961" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P961" s="12"/>
     </row>
-    <row r="962" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P962" s="12"/>
     </row>
-    <row r="963" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P963" s="12"/>
     </row>
-    <row r="964" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P964" s="12"/>
     </row>
-    <row r="965" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P965" s="12"/>
     </row>
-    <row r="966" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P966" s="12"/>
     </row>
-    <row r="967" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P967" s="12"/>
     </row>
-    <row r="968" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P968" s="12"/>
     </row>
-    <row r="969" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P969" s="12"/>
     </row>
-    <row r="970" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P970" s="12"/>
     </row>
-    <row r="971" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P971" s="12"/>
     </row>
-    <row r="972" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P972" s="12"/>
     </row>
-    <row r="973" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P973" s="12"/>
     </row>
-    <row r="974" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P974" s="12"/>
     </row>
-    <row r="975" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P975" s="12"/>
     </row>
-    <row r="976" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P976" s="12"/>
     </row>
-    <row r="977" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P977" s="12"/>
     </row>
-    <row r="978" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P978" s="12"/>
     </row>
-    <row r="979" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P979" s="12"/>
     </row>
-    <row r="980" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P980" s="12"/>
     </row>
-    <row r="981" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P981" s="12"/>
     </row>
-    <row r="982" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P982" s="12"/>
     </row>
-    <row r="983" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P983" s="12"/>
     </row>
-    <row r="984" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P984" s="12"/>
     </row>
-    <row r="985" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P985" s="12"/>
     </row>
-    <row r="986" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P986" s="12"/>
     </row>
-    <row r="987" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P987" s="12"/>
     </row>
-    <row r="988" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P988" s="12"/>
     </row>
-    <row r="989" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P989" s="12"/>
     </row>
-    <row r="990" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P990" s="12"/>
     </row>
-    <row r="991" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P991" s="12"/>
     </row>
-    <row r="992" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P992" s="12"/>
     </row>
-    <row r="993" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P993" s="12"/>
     </row>
-    <row r="994" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P994" s="12"/>
     </row>
-    <row r="995" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P995" s="12"/>
     </row>
-    <row r="996" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P996" s="12"/>
     </row>
-    <row r="997" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P997" s="12"/>
     </row>
-    <row r="998" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P998" s="12"/>
     </row>
-    <row r="999" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P999" s="12"/>
     </row>
-    <row r="1000" spans="16:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="16:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="P1000" s="12"/>
     </row>
   </sheetData>
@@ -8580,16 +8579,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3899771F-5C6B-4365-9D1C-2996D10ED7C3}">
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8605,7 +8604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8613,7 +8612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8661,7 +8660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -8693,21 +8692,21 @@
         <v>252</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" s="13">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C16" s="13" t="b">
         <v>1</v>
@@ -8719,12 +8718,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" s="13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C17" s="13" t="b">
         <v>1</v>
@@ -8736,15 +8735,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B18" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18" s="14" t="b">
         <v>1</v>
@@ -8753,9 +8752,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B19" s="13">
         <v>1</v>
@@ -8770,89 +8769,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B31">
         <v>9</v>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cuong\eclipse-workspace\PlatformGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\JavaGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF516B66-44B8-4565-A333-738C506E16A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A29A2-C1FD-4AE6-83A0-1194BE294358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="asset" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="275">
   <si>
     <t>Name</t>
   </si>
@@ -727,9 +727,6 @@
     <t>what kind of salad shall you make?</t>
   </si>
   <si>
-    <t>Apprentice Wand</t>
-  </si>
-  <si>
     <t>Increases ATK and DEF by 30%</t>
   </si>
   <si>
@@ -848,13 +845,25 @@
   </si>
   <si>
     <t>SWORD</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>Increases DEF by 20 points</t>
+  </si>
+  <si>
+    <t>Apprentice Magus Wand</t>
+  </si>
+  <si>
+    <t>To grow veggies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -891,6 +900,26 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -987,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1013,9 +1042,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,6 +1074,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1337,26 +1374,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="item" displayName="item" ref="A1:R71">
-  <autoFilter ref="A1:R71" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-    <filterColumn colId="17" hiddenButton="1"/>
-  </autoFilter>
+  <autoFilter ref="A1:R71" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK" dataDxfId="22"/>
@@ -1373,10 +1391,10 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Effect" dataDxfId="11">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(",",TRUE,B2:L2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{565B05B9-A401-4100-861F-1276F52618F2}" name="Sell" dataDxfId="0">
-      <calculatedColumnFormula xml:space="preserve"> IF(O2&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Slot"/>
+    <tableColumn id="18" xr3:uid="{A4DC88EA-4EE7-41FD-BF18-144D98C71FB6}" name="Sell" dataDxfId="0">
+      <calculatedColumnFormula>IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Slot"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Ability"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="File"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Description"/>
@@ -1400,8 +1418,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}" name="Table25" displayName="Table25" ref="A15:E19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A15:E19" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}" name="Table25" displayName="Table25" ref="A15:E20" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A15:E20" xr:uid="{01741974-9591-4BAC-924D-370BBCEFCAB3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1420,13 +1438,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}" name="Table5" displayName="Table5" ref="A21:B31" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A21:B31" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}" name="Table5" displayName="Table5" ref="A22:B32" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A22:B32" xr:uid="{12465EC2-3E6E-41A0-AF9B-87216DA0B17B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:B31">
-    <sortCondition ref="B21:B31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:B32">
+    <sortCondition ref="B22:B32"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{46CAC607-CFC8-4522-963F-80AD670305B0}" name="Equipment" dataDxfId="1"/>
@@ -1639,28 +1657,27 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.5703125" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="49" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="107.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="141.7109375" bestFit="1" customWidth="1"/>
@@ -1707,10 +1724,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>14</v>
@@ -1763,12 +1780,12 @@
         <f t="shared" ref="M2:M33" si="0">_xlfn.TEXTJOIN(",",TRUE,B2:L2)</f>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N2" s="6">
-        <f t="shared" ref="N2:N33" ca="1" si="1" xml:space="preserve"> IF(O2&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</f>
-        <v>101</v>
+      <c r="N2" s="5">
+        <v>-4</v>
       </c>
       <c r="O2" s="5">
-        <v>-2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>0</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>18</v>
@@ -1788,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1819,13 +1836,15 @@
       </c>
       <c r="M3" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,50,100,0,0,0,0,0,0.2,0,0</v>
-      </c>
-      <c r="N3" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>458</v>
-      </c>
-      <c r="O3" s="5"/>
+        <v>0,0,30,0,0,0,0,0,0.2,0,0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>204</v>
+      </c>
       <c r="P3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1877,12 +1896,12 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N4" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>131</v>
-      </c>
-      <c r="O4" s="17">
-        <v>-3</v>
+      <c r="N4" s="5">
+        <v>-4</v>
+      </c>
+      <c r="O4" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>18</v>
@@ -1902,10 +1921,10 @@
         <v>50</v>
       </c>
       <c r="C5" s="5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D5" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -1933,14 +1952,14 @@
       </c>
       <c r="M5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>50,50,50,0,0,0,0,0.2,0.2,0,0</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>371</v>
+        <v>50,80,100,0,0,0,0,0.2,0.2,0,0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
       </c>
       <c r="O5" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>205</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>30</v>
@@ -1993,12 +2012,12 @@
         <f t="shared" si="0"/>
         <v>0,10,10,0,0,0,0.2,0,0,0,0</v>
       </c>
-      <c r="N6" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>741</v>
+      <c r="N6" s="5">
+        <v>5</v>
       </c>
       <c r="O6" s="5">
-        <v>5</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>266</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>34</v>
@@ -2051,12 +2070,12 @@
         <f t="shared" si="0"/>
         <v>0,30,30,0,0,0,0.3,0,0,0,0</v>
       </c>
-      <c r="N7" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>923</v>
+      <c r="N7" s="5">
+        <v>5</v>
       </c>
       <c r="O7" s="5">
-        <v>5</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>202</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>39</v>
@@ -2076,7 +2095,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5">
         <v>10</v>
@@ -2107,14 +2126,14 @@
       </c>
       <c r="M8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>80,30,10,0,0,0,0.2,0,0,0,0</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>288</v>
+        <v>80,10,10,0,0,0,0.2,0,0,0,0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
       </c>
       <c r="O8" s="5">
-        <v>2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>253</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>34</v>
@@ -2167,12 +2186,12 @@
         <f t="shared" si="0"/>
         <v>200,100,100,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N9" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>338</v>
+      <c r="N9" s="5">
+        <v>0</v>
       </c>
       <c r="O9" s="5">
-        <v>2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>226</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>46</v>
@@ -2225,12 +2244,12 @@
         <f t="shared" si="0"/>
         <v>50,100,100,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N10" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>283</v>
+      <c r="N10" s="5">
+        <v>7</v>
       </c>
       <c r="O10" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>232</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>50</v>
@@ -2283,12 +2302,12 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N11" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+      <c r="N11" s="5">
+        <v>-2</v>
       </c>
       <c r="O11" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>34</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>54</v>
@@ -2341,12 +2360,12 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N12" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+      <c r="N12" s="5">
+        <v>-4</v>
       </c>
       <c r="O12" s="5">
-        <v>-2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>0</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>58</v>
@@ -2390,21 +2409,21 @@
         <v>0</v>
       </c>
       <c r="K13" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
       </c>
       <c r="M13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,50,0</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>0,0,0,0,0,0,0,0,0,25,0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>-2</v>
       </c>
       <c r="O13" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>50</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>62</v>
@@ -2457,15 +2476,15 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N14" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="O14" s="17">
+      <c r="N14" s="5">
         <v>-3</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>18</v>
+      <c r="O14" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>30</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>66</v>
@@ -2515,15 +2534,15 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N15" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="O15" s="17">
+      <c r="N15" s="5">
         <v>-3</v>
       </c>
-      <c r="P15" s="6" t="s">
-        <v>18</v>
+      <c r="O15" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>35</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>69</v>
@@ -2573,12 +2592,12 @@
         <f t="shared" si="0"/>
         <v>150,150,100,0,0,0,0,0.5,0.3,0,0</v>
       </c>
-      <c r="N16" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1036</v>
+      <c r="N16" s="5">
+        <v>-3</v>
       </c>
       <c r="O16" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>37</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>72</v>
@@ -2631,15 +2650,15 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N17" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="O17" s="17">
+      <c r="N17" s="5">
         <v>-3</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>18</v>
+      <c r="O17" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>22</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>76</v>
@@ -2689,15 +2708,15 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N18" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="O18" s="17">
+      <c r="N18" s="5">
         <v>-3</v>
       </c>
-      <c r="P18" s="6" t="s">
-        <v>18</v>
+      <c r="O18" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>26</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>78</v>
@@ -2738,21 +2757,21 @@
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
       </c>
       <c r="M19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,50,0</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>0,0,0,0,0,0,0,0,0,20,0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>-2</v>
       </c>
       <c r="O19" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>34</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>62</v>
@@ -2805,15 +2824,15 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N20" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="O20" s="17">
+      <c r="N20" s="5">
         <v>-3</v>
       </c>
-      <c r="P20" s="6" t="s">
-        <v>18</v>
+      <c r="O20" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>10</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>83</v>
@@ -2863,15 +2882,15 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0.2,0,0,0,0</v>
       </c>
-      <c r="N21" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="O21" s="17">
+      <c r="N21" s="5">
         <v>-3</v>
       </c>
-      <c r="P21" s="6" t="s">
-        <v>18</v>
+      <c r="O21" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>12</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>85</v>
@@ -2921,12 +2940,12 @@
         <f t="shared" si="0"/>
         <v>0,50,50,0,0,0,0.3,0.4,0,0,0</v>
       </c>
-      <c r="N22" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>962</v>
+      <c r="N22" s="5">
+        <v>4</v>
       </c>
       <c r="O22" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>294</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>34</v>
@@ -2979,12 +2998,12 @@
         <f t="shared" si="0"/>
         <v>200,100,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N23" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+      <c r="N23" s="5">
+        <v>4</v>
       </c>
       <c r="O23" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>249</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>91</v>
@@ -3037,15 +3056,15 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N24" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="O24" s="17">
+      <c r="N24" s="5">
         <v>-3</v>
       </c>
-      <c r="P24" s="6" t="s">
-        <v>18</v>
+      <c r="O24" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>30</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>95</v>
@@ -3095,15 +3114,15 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N25" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="O25" s="17">
+      <c r="N25" s="5">
         <v>-3</v>
       </c>
-      <c r="P25" s="6" t="s">
-        <v>18</v>
+      <c r="O25" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>31</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>97</v>
@@ -3153,15 +3172,15 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N26" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="O26" s="17">
+      <c r="N26" s="5">
         <v>-3</v>
       </c>
-      <c r="P26" s="6" t="s">
-        <v>18</v>
+      <c r="O26" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>48</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>99</v>
@@ -3202,21 +3221,21 @@
         <v>0</v>
       </c>
       <c r="K27" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L27" s="5">
         <v>0</v>
       </c>
       <c r="M27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,50,0</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>0,0,0,0,0,0,0,0,0,20,0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>-2</v>
       </c>
       <c r="O27" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>37</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>62</v>
@@ -3233,13 +3252,13 @@
         <v>103</v>
       </c>
       <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
         <v>30</v>
       </c>
-      <c r="C28" s="5">
-        <v>100</v>
-      </c>
       <c r="D28" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -3267,14 +3286,14 @@
       </c>
       <c r="M28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>30,100,100,0,0,0,0,0,0.2,0,0</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>181</v>
+        <v>0,30,30,0,0,0,0,0,0.2,0,0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>2</v>
       </c>
       <c r="O28" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>296</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>104</v>
@@ -3291,13 +3310,13 @@
         <v>107</v>
       </c>
       <c r="B29" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C29" s="5">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D29" s="5">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -3325,14 +3344,14 @@
       </c>
       <c r="M29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>100,200,200,0,0,0,0,0,0.5,0,0</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>0,40,40,0,0,0,0,0,0.5,0,0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>2</v>
       </c>
       <c r="O29" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>247</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>108</v>
@@ -3385,12 +3404,12 @@
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,150,0</v>
       </c>
-      <c r="N30" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+      <c r="N30" s="5">
+        <v>-2</v>
       </c>
       <c r="O30" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>42</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>112</v>
@@ -3443,12 +3462,12 @@
         <f t="shared" si="0"/>
         <v>100,50,0,0,0,0,0,0.3,0,0,0</v>
       </c>
-      <c r="N31" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>723</v>
+      <c r="N31" s="5">
+        <v>0</v>
       </c>
       <c r="O31" s="5">
-        <v>2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>222</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>116</v>
@@ -3501,12 +3520,12 @@
         <f t="shared" si="0"/>
         <v>100,50,0,0,0,0,0,0.3,0,0,0</v>
       </c>
-      <c r="N32" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>956</v>
+      <c r="N32" s="5">
+        <v>0</v>
       </c>
       <c r="O32" s="5">
-        <v>2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>254</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>116</v>
@@ -3559,12 +3578,12 @@
         <f t="shared" si="0"/>
         <v>100,50,0,0,0,0,0,0.3,0,0,0</v>
       </c>
-      <c r="N33" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>548</v>
+      <c r="N33" s="5">
+        <v>0</v>
       </c>
       <c r="O33" s="5">
-        <v>2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>201</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>116</v>
@@ -3608,21 +3627,21 @@
         <v>0</v>
       </c>
       <c r="K34" s="5">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L34" s="5">
         <v>0</v>
       </c>
       <c r="M34" s="6" t="str">
-        <f t="shared" ref="M34:M65" si="2">_xlfn.TEXTJOIN(",",TRUE,B34:L34)</f>
-        <v>0,0,0,0,0,0,0,0,0,300,0</v>
-      </c>
-      <c r="N34" s="6">
-        <f t="shared" ref="N34:N65" ca="1" si="3" xml:space="preserve"> IF(O34&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</f>
-        <v>89</v>
+        <f t="shared" ref="M34:M65" si="1">_xlfn.TEXTJOIN(",",TRUE,B34:L34)</f>
+        <v>0,0,0,0,0,0,0,0,0,80,0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>-2</v>
       </c>
       <c r="O34" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>18</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>124</v>
@@ -3639,7 +3658,7 @@
         <v>127</v>
       </c>
       <c r="B35" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C35" s="5">
         <v>50</v>
@@ -3672,15 +3691,15 @@
         <v>0</v>
       </c>
       <c r="M35" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>20,50,50,0,0,0,0,0,0.3,0,0</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1033</v>
+        <f t="shared" si="1"/>
+        <v>0,50,50,0,0,0,0,0,0.3,0,0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>3</v>
       </c>
       <c r="O35" s="5">
-        <v>3</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>215</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>128</v>
@@ -3730,18 +3749,18 @@
         <v>0</v>
       </c>
       <c r="M36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N36" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="O36" s="17">
+      <c r="N36" s="5">
         <v>-3</v>
       </c>
-      <c r="P36" s="6" t="s">
-        <v>18</v>
+      <c r="O36" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>25</v>
+      </c>
+      <c r="P36" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>132</v>
@@ -3788,18 +3807,18 @@
         <v>0</v>
       </c>
       <c r="M37" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N37" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="O37" s="17">
+      <c r="N37" s="5">
         <v>-3</v>
       </c>
-      <c r="P37" s="6" t="s">
-        <v>18</v>
+      <c r="O37" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>33</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>134</v>
@@ -3846,15 +3865,15 @@
         <v>0</v>
       </c>
       <c r="M38" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,80,50,0,0,0,0,0,0.2,0,0</v>
       </c>
-      <c r="N38" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>144</v>
+      <c r="N38" s="5">
+        <v>3</v>
       </c>
       <c r="O38" s="5">
-        <v>3</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>235</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>104</v>
@@ -3904,15 +3923,15 @@
         <v>0</v>
       </c>
       <c r="M39" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,80,50,0,0,0,0,0,0.2,0,0</v>
       </c>
-      <c r="N39" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>148</v>
+      <c r="N39" s="5">
+        <v>3</v>
       </c>
       <c r="O39" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>249</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>104</v>
@@ -3929,13 +3948,13 @@
         <v>141</v>
       </c>
       <c r="B40" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C40" s="5">
         <v>80</v>
       </c>
       <c r="D40" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -3962,15 +3981,15 @@
         <v>0</v>
       </c>
       <c r="M40" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>30,80,30,0,0,0,0.3,0,0,0,0</v>
-      </c>
-      <c r="N40" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>401</v>
+        <f t="shared" si="1"/>
+        <v>0,80,50,0,0,0,0.3,0,0,0,0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>5</v>
       </c>
       <c r="O40" s="5">
-        <v>5</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>227</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>39</v>
@@ -4020,15 +4039,15 @@
         <v>0</v>
       </c>
       <c r="M41" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,30,20,0,0,0,0.1,0,0,0,0</v>
       </c>
-      <c r="N41" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>931</v>
+      <c r="N41" s="5">
+        <v>5</v>
       </c>
       <c r="O41" s="5">
-        <v>5</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>285</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>146</v>
@@ -4048,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D42" s="5">
         <v>50</v>
@@ -4078,15 +4097,15 @@
         <v>0</v>
       </c>
       <c r="M42" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,50,50,0,0,0,0.3,0,0,0,0</v>
-      </c>
-      <c r="N42" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1074</v>
+        <f t="shared" si="1"/>
+        <v>0,70,50,0,0,0,0.3,0,0,0,0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>4</v>
       </c>
       <c r="O42" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>252</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>39</v>
@@ -4136,18 +4155,18 @@
         <v>0</v>
       </c>
       <c r="M43" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N43" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>114</v>
-      </c>
-      <c r="O43" s="17">
+      <c r="N43" s="5">
         <v>-3</v>
       </c>
-      <c r="P43" s="6" t="s">
-        <v>18</v>
+      <c r="O43" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>50</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>153</v>
@@ -4188,21 +4207,21 @@
         <v>0</v>
       </c>
       <c r="K44" s="5">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L44" s="5">
         <v>0</v>
       </c>
       <c r="M44" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,300,0</v>
-      </c>
-      <c r="N44" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,80,0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>-2</v>
       </c>
       <c r="O44" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>40</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>155</v>
@@ -4252,15 +4271,15 @@
         <v>0</v>
       </c>
       <c r="M45" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50,100,150,0,0,0,0.3,0,0.3,0,0</v>
       </c>
-      <c r="N45" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>128</v>
+      <c r="N45" s="5">
+        <v>4</v>
       </c>
       <c r="O45" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>275</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>158</v>
@@ -4304,21 +4323,21 @@
         <v>0</v>
       </c>
       <c r="K46" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L46" s="5">
         <v>0</v>
       </c>
       <c r="M46" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,50,0</v>
-      </c>
-      <c r="N46" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,20,0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>-2</v>
       </c>
       <c r="O46" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>13</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>62</v>
@@ -4368,15 +4387,15 @@
         <v>0</v>
       </c>
       <c r="M47" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,50,50,0,0,100,0,0,0,0,0</v>
       </c>
-      <c r="N47" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>745</v>
+      <c r="N47" s="5">
+        <v>7</v>
       </c>
       <c r="O47" s="5">
-        <v>7</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>248</v>
       </c>
       <c r="P47" s="6" t="s">
         <v>165</v>
@@ -4426,15 +4445,15 @@
         <v>0</v>
       </c>
       <c r="M48" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,80,80,0,0,200,0,0,0,0,0</v>
       </c>
-      <c r="N48" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1041</v>
+      <c r="N48" s="5">
+        <v>7</v>
       </c>
       <c r="O48" s="5">
-        <v>7</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>300</v>
       </c>
       <c r="P48" s="6" t="s">
         <v>169</v>
@@ -4475,24 +4494,24 @@
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K49" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L49" s="5">
         <v>0</v>
       </c>
       <c r="M49" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,150,0,0</v>
-      </c>
-      <c r="N49" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,30,0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>-2</v>
       </c>
       <c r="O49" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>29</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>112</v>
@@ -4542,15 +4561,15 @@
         <v>0</v>
       </c>
       <c r="M50" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N50" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+      <c r="N50" s="5">
+        <v>-4</v>
       </c>
       <c r="O50" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>0</v>
       </c>
       <c r="P50" s="6" t="s">
         <v>176</v>
@@ -4600,15 +4619,15 @@
         <v>0</v>
       </c>
       <c r="M51" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N51" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+      <c r="N51" s="5">
+        <v>-4</v>
       </c>
       <c r="O51" s="5">
-        <v>-2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>0</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>180</v>
@@ -4625,13 +4644,13 @@
         <v>183</v>
       </c>
       <c r="B52" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C52" s="5">
-        <v>50</v>
-      </c>
-      <c r="D52" s="5">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="D52" s="20">
+        <v>10</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -4640,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H52" s="5">
         <v>0</v>
@@ -4658,18 +4677,18 @@
         <v>0</v>
       </c>
       <c r="M52" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,50,50,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="N52" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1108</v>
+        <f t="shared" si="1"/>
+        <v>10,10,10,0,0,20,0,0,0,0,0</v>
+      </c>
+      <c r="N52" s="5">
+        <v>1</v>
       </c>
       <c r="O52" s="5">
-        <v>1</v>
-      </c>
-      <c r="P52" s="6" t="s">
-        <v>18</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>207</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="Q52" s="6" t="s">
         <v>184</v>
@@ -4683,13 +4702,13 @@
         <v>186</v>
       </c>
       <c r="B53" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C53" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D53" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -4716,15 +4735,15 @@
         <v>0</v>
       </c>
       <c r="M53" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>50,200,100,0,0,0,0,0,0.4,0,0</v>
-      </c>
-      <c r="N53" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>607</v>
+        <f t="shared" si="1"/>
+        <v>0,100,80,0,0,0,0,0,0.4,0,0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1</v>
       </c>
       <c r="O53" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>238</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>187</v>
@@ -4768,21 +4787,21 @@
         <v>0</v>
       </c>
       <c r="K54" s="5">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="L54" s="5">
         <v>0</v>
       </c>
       <c r="M54" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,150,0</v>
-      </c>
-      <c r="N54" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,30,0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>-2</v>
       </c>
       <c r="O54" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>33</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>112</v>
@@ -4832,15 +4851,15 @@
         <v>0</v>
       </c>
       <c r="M55" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0.1,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N55" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>121</v>
+      <c r="N55" s="5">
+        <v>-2</v>
       </c>
       <c r="O55" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>45</v>
       </c>
       <c r="P55" s="6" t="s">
         <v>194</v>
@@ -4860,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="C56" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D56" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E56" s="5">
         <v>0</v>
@@ -4890,15 +4909,15 @@
         <v>0</v>
       </c>
       <c r="M56" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,100,100,0,0,0,0,0,0.45,0,0</v>
-      </c>
-      <c r="N56" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>985</v>
+        <f t="shared" si="1"/>
+        <v>0,80,80,0,0,0,0,0,0.45,0,0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>8</v>
       </c>
       <c r="O56" s="5">
-        <v>8</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>235</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>199</v>
@@ -4915,13 +4934,13 @@
         <v>201</v>
       </c>
       <c r="B57" s="5">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C57" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D57" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
@@ -4948,15 +4967,15 @@
         <v>0</v>
       </c>
       <c r="M57" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>80,150,200,0,0,0,0,0,0.45,0,0</v>
-      </c>
-      <c r="N57" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>595</v>
+        <f t="shared" si="1"/>
+        <v>10,100,100,0,0,0,0,0,0.45,0,0</v>
+      </c>
+      <c r="N57" s="5">
+        <v>8</v>
       </c>
       <c r="O57" s="5">
-        <v>8</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>269</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>202</v>
@@ -5006,15 +5025,15 @@
         <v>0</v>
       </c>
       <c r="M58" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250,100,100,0.3,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N58" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>284</v>
+      <c r="N58" s="5">
+        <v>0</v>
       </c>
       <c r="O58" s="5">
-        <v>2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>215</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>206</v>
@@ -5064,15 +5083,15 @@
         <v>0</v>
       </c>
       <c r="M59" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200,100,100,0,0,0,0,0.2,0,0,0</v>
       </c>
-      <c r="N59" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>379</v>
+      <c r="N59" s="5">
+        <v>0</v>
       </c>
       <c r="O59" s="5">
-        <v>2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>299</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>210</v>
@@ -5122,15 +5141,15 @@
         <v>0</v>
       </c>
       <c r="M60" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250,80,80,0.3,0,0,0,0.45,0,0,0</v>
       </c>
-      <c r="N60" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>335</v>
+      <c r="N60" s="5">
+        <v>0</v>
       </c>
       <c r="O60" s="5">
-        <v>0</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>268</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>213</v>
@@ -5180,18 +5199,18 @@
         <v>0</v>
       </c>
       <c r="M61" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N61" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="O61" s="17">
+      <c r="N61" s="5">
         <v>-3</v>
       </c>
-      <c r="P61" s="6" t="s">
-        <v>18</v>
+      <c r="O61" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>17</v>
+      </c>
+      <c r="P61" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="Q61" s="6" t="s">
         <v>217</v>
@@ -5238,15 +5257,15 @@
         <v>0</v>
       </c>
       <c r="M62" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150,80,80,0,0,0,0,0.2,0,0,0</v>
       </c>
-      <c r="N62" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>483</v>
+      <c r="N62" s="5">
+        <v>0</v>
       </c>
       <c r="O62" s="5">
-        <v>0</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>233</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>210</v>
@@ -5296,15 +5315,15 @@
         <v>0</v>
       </c>
       <c r="M63" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250,100,100,0.3,0,0,0,0,0,0,0</v>
       </c>
-      <c r="N63" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>215</v>
+      <c r="N63" s="5">
+        <v>0</v>
       </c>
       <c r="O63" s="5">
-        <v>0</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>256</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>206</v>
@@ -5321,13 +5340,13 @@
         <v>222</v>
       </c>
       <c r="B64" s="5">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C64" s="5">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D64" s="5">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
@@ -5354,15 +5373,15 @@
         <v>0</v>
       </c>
       <c r="M64" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>150,150,150,0,0,0,0,0.15,0,0,0</v>
-      </c>
-      <c r="N64" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1043</v>
+        <f t="shared" si="1"/>
+        <v>50,50,50,0,0,0,0,0.15,0,0,0</v>
+      </c>
+      <c r="N64" s="5">
+        <v>3</v>
       </c>
       <c r="O64" s="5">
-        <v>1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>256</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>224</v>
@@ -5406,21 +5425,21 @@
         <v>0</v>
       </c>
       <c r="K65" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L65" s="5">
         <v>0</v>
       </c>
       <c r="M65" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,100,0</v>
-      </c>
-      <c r="N65" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>155</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,20,0</v>
+      </c>
+      <c r="N65" s="5">
+        <v>-2</v>
       </c>
       <c r="O65" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>29</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>228</v>
@@ -5433,14 +5452,14 @@
       </c>
     </row>
     <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>231</v>
+      <c r="A66" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="B66" s="5">
+        <v>50</v>
+      </c>
+      <c r="C66" s="5">
         <v>100</v>
-      </c>
-      <c r="C66" s="5">
-        <v>200</v>
       </c>
       <c r="D66" s="5">
         <v>80</v>
@@ -5470,38 +5489,38 @@
         <v>0</v>
       </c>
       <c r="M66" s="6" t="str">
-        <f t="shared" ref="M66:M71" si="4">_xlfn.TEXTJOIN(",",TRUE,B66:L66)</f>
-        <v>100,200,80,0.3,0,0.3,0,0,0,0,0</v>
-      </c>
-      <c r="N66" s="6">
-        <f t="shared" ref="N66:N97" ca="1" si="5" xml:space="preserve"> IF(O66&gt;=0,RANDBETWEEN(100,1200),RANDBETWEEN(5,200))</f>
-        <v>939</v>
+        <f t="shared" ref="M66:M71" si="2">_xlfn.TEXTJOIN(",",TRUE,B66:L66)</f>
+        <v>50,100,80,0.3,0,0.3,0,0,0,0,0</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0</v>
       </c>
       <c r="O66" s="5">
-        <v>2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>216</v>
       </c>
       <c r="P66" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q66" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q66" s="6" t="s">
+      <c r="R66" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="R66" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B67" s="5">
         <v>200</v>
       </c>
       <c r="C67" s="5">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="D67" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>198</v>
@@ -5528,87 +5547,87 @@
         <v>0</v>
       </c>
       <c r="M67" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>200,300,150,0.45,0,0.45,0,0,0,0,0</v>
-      </c>
-      <c r="N67" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>122</v>
+        <f t="shared" si="2"/>
+        <v>200,120,100,0.45,0,0.45,0,0,0,0,0</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0</v>
       </c>
       <c r="O67" s="5">
-        <v>2</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>223</v>
       </c>
       <c r="P67" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q67" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q67" s="6" t="s">
+      <c r="R67" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="R67" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="N68" s="5">
+        <v>-4</v>
+      </c>
+      <c r="O68" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q68" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B68" s="5">
-        <v>0</v>
-      </c>
-      <c r="C68" s="5">
-        <v>0</v>
-      </c>
-      <c r="D68" s="5">
-        <v>0</v>
-      </c>
-      <c r="E68" s="5">
-        <v>0</v>
-      </c>
-      <c r="F68" s="5">
-        <v>0</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0</v>
-      </c>
-      <c r="H68" s="5">
-        <v>0</v>
-      </c>
-      <c r="I68" s="5">
-        <v>0</v>
-      </c>
-      <c r="J68" s="5">
-        <v>0</v>
-      </c>
-      <c r="K68" s="5">
-        <v>0</v>
-      </c>
-      <c r="L68" s="5">
-        <v>0</v>
-      </c>
-      <c r="M68" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="N68" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>185</v>
-      </c>
-      <c r="O68" s="5">
-        <v>-2</v>
-      </c>
-      <c r="P68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q68" s="6" t="s">
+      <c r="R68" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="R68" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B69" s="5">
         <v>0</v>
@@ -5638,102 +5657,102 @@
         <v>0</v>
       </c>
       <c r="K69" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L69" s="5">
         <v>0</v>
       </c>
       <c r="M69" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,100,0</v>
-      </c>
-      <c r="N69" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>145</v>
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,20,0</v>
+      </c>
+      <c r="N69" s="5">
+        <v>-2</v>
       </c>
       <c r="O69" s="5">
-        <v>-1</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>38</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>228</v>
       </c>
       <c r="Q69" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="R69" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="R69" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="N70" s="5">
+        <v>-4</v>
+      </c>
+      <c r="O70" s="5">
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B70" s="5">
-        <v>0</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0</v>
-      </c>
-      <c r="D70" s="5">
-        <v>0</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-      <c r="F70" s="5">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5">
-        <v>0</v>
-      </c>
-      <c r="I70" s="5">
-        <v>0</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0</v>
-      </c>
-      <c r="K70" s="5">
-        <v>0</v>
-      </c>
-      <c r="L70" s="5">
-        <v>0</v>
-      </c>
-      <c r="M70" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="N70" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="O70" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P70" s="6" t="s">
+      <c r="Q70" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="Q70" s="6" t="s">
+      <c r="R70" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="R70" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B71" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C71" s="9">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E71" s="9">
         <v>0</v>
@@ -5760,24 +5779,24 @@
         <v>0</v>
       </c>
       <c r="M71" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>20,100,100,0,0,0,0,0,0.2,0,0</v>
-      </c>
-      <c r="N71" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <f t="shared" si="2"/>
+        <v>0,30,30,0,0,0,0,0,0.2,0,0</v>
+      </c>
+      <c r="N71" s="9">
+        <v>8</v>
       </c>
       <c r="O71" s="9">
-        <v>8</v>
+        <f ca="1">IF(item[[#This Row],[Slot]]&gt;=0,RANDBETWEEN(200,300),IF(item[[#This Row],[Slot]]&gt;-4,RANDBETWEEN(10,50),0))</f>
+        <v>257</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>104</v>
       </c>
       <c r="Q71" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="R71" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="R71" s="11" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -8578,10 +8597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3899771F-5C6B-4365-9D1C-2996D10ED7C3}">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8594,7 +8613,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -8690,41 +8709,41 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="13">
-        <v>-2</v>
-      </c>
-      <c r="C16" s="13" t="b">
+        <v>255</v>
+      </c>
+      <c r="B16" s="17">
+        <v>-4</v>
+      </c>
+      <c r="C16" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13" t="b">
+      <c r="D16" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>255</v>
+      <c r="A17" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="B17" s="13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C17" s="13" t="b">
         <v>1</v>
@@ -8738,108 +8757,117 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="14" t="b">
+        <v>-2</v>
+      </c>
+      <c r="C18" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="14" t="b">
+      <c r="D18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="13">
         <v>1</v>
       </c>
-      <c r="C19" s="13" t="b">
+      <c r="C20" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="13" t="b">
+      <c r="D20" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E19" s="13" t="b">
+      <c r="E20" s="13" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>261</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -8847,23 +8875,32 @@
         <v>269</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>